--- a/MCNP Example Runs/Ex4-3/Ex4-3.xlsx
+++ b/MCNP Example Runs/Ex4-3/Ex4-3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patri\Google Drive\MCNP\MCNP6-Criticality-Primer\MCNP Example Runs\Ex3-4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patri\Google Drive\MCNP\MCNP6-Criticality-Primer\MCNP Example Runs\Ex4-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14388" windowHeight="3960" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14388" windowHeight="3960" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="6" r:id="rId1"/>
@@ -40,6 +40,42 @@
     <author>Patrick Dolloso</author>
   </authors>
   <commentList>
+    <comment ref="A17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>c indicates a comment</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>$ indicates a comment</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Patrick Dolloso</author>
+  </authors>
+  <commentList>
     <comment ref="A19" authorId="0" shapeId="0">
       <text>
         <r>
@@ -50,7 +86,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Patrick Dolloso:</t>
+          <t>Cell number</t>
         </r>
         <r>
           <rPr>
@@ -59,8 +95,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
-Cell number, starting in columns 1-5</t>
+          <t>, 
+starting in columns 1-5</t>
         </r>
       </text>
     </comment>
@@ -74,7 +110,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Patrick Dolloso:</t>
+          <t>material number</t>
         </r>
         <r>
           <rPr>
@@ -83,8 +119,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
-material number (0 if cell is void)</t>
+          <t xml:space="preserve"> 
+(0 if cell is void)</t>
         </r>
       </text>
     </comment>
@@ -98,34 +134,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Patrick Dolloso:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>cell material density
-* No entry if cell is void
-* (+) = atom density [atoms/b-cm]
-* (-) = mass density [g/cc]</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E21" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Patrick Dolloso:</t>
+          <t>Cell material density</t>
         </r>
         <r>
           <rPr>
@@ -135,22 +144,14 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-The blanks between the surface numbers, - 1 2 - 3, define intersections of the space inside the cylinder and above the lower plane below the upper plane.</t>
+* No entry if cell is void
+* (+) = atom density [atoms/b-cm]
+* (-) = mass density [g/cc]</t>
         </r>
       </text>
     </comment>
-    <comment ref="E26" authorId="0" shapeId="0">
+    <comment ref="E19" authorId="0" shapeId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Patrick Dolloso:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
@@ -158,8 +159,10 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
-The union operator is what we use to define the "rest of the world" in configuration 1. Therefore, the sense of the surfaces in cell 2 is opposite to those defining cell 1 and the Boolean intersection operator is replaced by the union, 1: -2 : 3.</t>
+          <t>Geometry sense definition: assigns surface regions to bind to cell
+*&lt;space&gt; = intersection
+*"#" = complement
+*":" = union</t>
         </r>
       </text>
     </comment>
@@ -167,7 +170,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Patrick Dolloso</author>
@@ -226,7 +229,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Patrick Dolloso</author>
@@ -261,13 +264,13 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Patrick Dolloso</author>
   </authors>
   <commentList>
-    <comment ref="D17" authorId="0" shapeId="0">
+    <comment ref="D18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -291,7 +294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G17" authorId="0" shapeId="0">
+    <comment ref="G18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -317,7 +320,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D25" authorId="0" shapeId="0">
+    <comment ref="D26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -341,7 +344,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G25" authorId="0" shapeId="0">
+    <comment ref="G26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -367,7 +370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D29" authorId="0" shapeId="0">
+    <comment ref="D30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -391,7 +394,107 @@
         </r>
       </text>
     </comment>
-    <comment ref="G29" authorId="0" shapeId="0">
+    <comment ref="G30" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Patrick Dolloso:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Material density
+* (+) = atom density [atoms/b-cm]
+* (-) = mass density [g/cc]</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D34" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Patrick Dolloso:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+put 000 if naturally occuring</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G34" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Patrick Dolloso:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Material density
+* (+) = atom density [atoms/b-cm]
+* (-) = mass density [g/cc]</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D39" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Patrick Dolloso:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+put 000 if naturally occuring</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -422,7 +525,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="434">
   <si>
     <t>Index</t>
   </si>
@@ -741,9 +844,6 @@
     <t>Periodic Table</t>
   </si>
   <si>
-    <t>$ Void Universe</t>
-  </si>
-  <si>
     <t>importance</t>
   </si>
   <si>
@@ -1209,45 +1309,24 @@
     <t>c</t>
   </si>
   <si>
-    <t>Cylinder</t>
-  </si>
-  <si>
-    <t>Universe</t>
-  </si>
-  <si>
     <t>Units</t>
   </si>
   <si>
     <t>g/cc</t>
   </si>
   <si>
-    <t>N-239</t>
-  </si>
-  <si>
     <t>Parameter</t>
   </si>
   <si>
     <t>Value</t>
   </si>
   <si>
-    <t>density</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>radius</t>
-  </si>
-  <si>
-    <t>Pu cyl</t>
-  </si>
-  <si>
     <t>cm</t>
   </si>
   <si>
-    <t>height</t>
-  </si>
-  <si>
     <t>keffs,</t>
   </si>
   <si>
@@ -1392,21 +1471,6 @@
     <t>|95/95/95|</t>
   </si>
   <si>
-    <t>4.935</t>
-  </si>
-  <si>
-    <t>6.909</t>
-  </si>
-  <si>
-    <t>Reflector</t>
-  </si>
-  <si>
-    <t>Radius</t>
-  </si>
-  <si>
-    <t>U Reflector</t>
-  </si>
-  <si>
     <t>m2</t>
   </si>
   <si>
@@ -1422,12 +1486,6 @@
     <t>235</t>
   </si>
   <si>
-    <t>$ U Reflector bottom</t>
-  </si>
-  <si>
-    <t>$ U Reflector top</t>
-  </si>
-  <si>
     <t>Side View</t>
   </si>
   <si>
@@ -1521,66 +1579,12 @@
     <t>Notes: MCNP6 Primer Ex 3-4 (v0-1)</t>
   </si>
   <si>
-    <t>Bare UO2F2 Solution Cylinder</t>
-  </si>
-  <si>
-    <t>UO2F2 Sol'n cylinder</t>
-  </si>
-  <si>
-    <t>$ UO2F2 Soln</t>
-  </si>
-  <si>
     <t>cz</t>
   </si>
   <si>
     <t>pz</t>
   </si>
   <si>
-    <t>$ Bottom of soln cylinder</t>
-  </si>
-  <si>
-    <t>$ Top of soln cylinder</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>20.12</t>
-  </si>
-  <si>
-    <t>Case</t>
-  </si>
-  <si>
-    <t>$ Case</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>$ Void top</t>
-  </si>
-  <si>
-    <t>-1 4 -5</t>
-  </si>
-  <si>
-    <t>-1 3 -4</t>
-  </si>
-  <si>
-    <t>$ Solution</t>
-  </si>
-  <si>
-    <t>Void + Al container</t>
-  </si>
-  <si>
-    <t>$ Container</t>
-  </si>
-  <si>
-    <t>(1 -2 -5 3):(-2 -3 6)</t>
-  </si>
-  <si>
-    <t>2:5:-6</t>
-  </si>
-  <si>
     <t>.60t</t>
   </si>
   <si>
@@ -1620,36 +1624,221 @@
     <t>027</t>
   </si>
   <si>
-    <t>$ Light Water</t>
-  </si>
-  <si>
-    <t>$ Al Case</t>
-  </si>
-  <si>
-    <t>$ UO2F2</t>
-  </si>
-  <si>
-    <t>Description: Material 1 - UO2F2</t>
-  </si>
-  <si>
-    <t>Description: Material 3 -Light Water</t>
-  </si>
-  <si>
-    <t>Description: Material 2 - Al Case</t>
-  </si>
-  <si>
-    <t>$ 1 point source @ (0,0,50)</t>
+    <t>Solution</t>
+  </si>
+  <si>
+    <t>N235</t>
+  </si>
+  <si>
+    <t>U235 density</t>
+  </si>
+  <si>
+    <t>N238</t>
+  </si>
+  <si>
+    <t>N_Oxygen</t>
+  </si>
+  <si>
+    <t>N_H2</t>
+  </si>
+  <si>
+    <t>N_F</t>
+  </si>
+  <si>
+    <t>N_Total</t>
+  </si>
+  <si>
+    <t>Al_density</t>
+  </si>
+  <si>
+    <t>soln height</t>
+  </si>
+  <si>
+    <t>diameter</t>
+  </si>
+  <si>
+    <t>casing height</t>
+  </si>
+  <si>
+    <t>h_case</t>
+  </si>
+  <si>
+    <t>h_soln</t>
+  </si>
+  <si>
+    <t>surface sep</t>
+  </si>
+  <si>
+    <t>h_sep</t>
+  </si>
+  <si>
+    <t>Thickness</t>
+  </si>
+  <si>
+    <t>thickness</t>
+  </si>
+  <si>
+    <t>Params</t>
+  </si>
+  <si>
+    <t>Surfaces</t>
+  </si>
+  <si>
+    <t>Mnemonic</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>$ casing radius</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>$ top of solution</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>$ bottom of solution</t>
+  </si>
+  <si>
+    <t>$ soln radius</t>
+  </si>
+  <si>
+    <t>$ top of container</t>
+  </si>
+  <si>
+    <t>-0.15</t>
+  </si>
+  <si>
+    <t>$ bottom of container</t>
+  </si>
+  <si>
+    <t>Container</t>
+  </si>
+  <si>
+    <t>$ bottom of tank</t>
+  </si>
+  <si>
+    <t>-20.15</t>
+  </si>
+  <si>
+    <t>70.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c </t>
+  </si>
+  <si>
+    <t>Sides of tank</t>
+  </si>
+  <si>
+    <t>px</t>
+  </si>
+  <si>
+    <t>-16.5</t>
+  </si>
+  <si>
+    <t>$ side of tank</t>
+  </si>
+  <si>
+    <t>43.5</t>
+  </si>
+  <si>
+    <t>py</t>
+  </si>
+  <si>
+    <t>-26.5</t>
+  </si>
+  <si>
+    <t>26.5</t>
+  </si>
+  <si>
+    <t>$ canister</t>
+  </si>
+  <si>
+    <t>$ 2 point sources @ (0,0,50) &amp; (17,0,35)</t>
+  </si>
+  <si>
+    <t>-1 -4 5</t>
+  </si>
+  <si>
+    <t>u=3</t>
+  </si>
+  <si>
+    <t>$ void region</t>
+  </si>
+  <si>
+    <t>-1 4</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>$ Al container</t>
+  </si>
+  <si>
+    <t>-2.7</t>
+  </si>
+  <si>
+    <t>1:-5</t>
+  </si>
+  <si>
+    <t>like 4 but trcl (17 0 0)</t>
+  </si>
+  <si>
+    <t>-2 -3 6</t>
+  </si>
+  <si>
+    <t>fill=3</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>-1.0</t>
+  </si>
+  <si>
+    <t>10 -11 8 -9 7 -3 #4 #5</t>
+  </si>
+  <si>
+    <t>-10:11:-8:9:-7:3</t>
+  </si>
+  <si>
+    <t>Repeated structures, two cylinders</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>mt3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description: </t>
+  </si>
+  <si>
+    <t>Material 3 - H2O (water)</t>
+  </si>
+  <si>
+    <t>Description:</t>
+  </si>
+  <si>
+    <t>Material 2 - Al Case</t>
+  </si>
+  <si>
+    <t>Material 1 - UO2F2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000E+00"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.000000"/>
+    <numFmt numFmtId="168" formatCode="0.0000E+00"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -1794,13 +1983,10 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="5"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1831,11 +2017,29 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="5" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -1907,19 +2111,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
+      <xdr:colOff>60960</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>34290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1371714</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>61087</xdr:rowOff>
+      <xdr:colOff>1836574</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>4029</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4" descr="Screen Clipping"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Screen Clipping"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1938,8 +2142,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="53340" y="1889760"/>
-          <a:ext cx="1318374" cy="1463167"/>
+          <a:off x="60960" y="1863090"/>
+          <a:ext cx="1775614" cy="2530059"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>594555</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>83932</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Screen Clipping"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="209550" y="4457700"/>
+          <a:ext cx="2251905" cy="1295512"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1962,7 +2210,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1151878</xdr:colOff>
+      <xdr:colOff>1516550</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>64</xdr:rowOff>
     </xdr:to>
@@ -2006,7 +2254,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>300092</xdr:colOff>
+      <xdr:colOff>300091</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>12195</xdr:rowOff>
     </xdr:to>
@@ -2143,7 +2391,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1181317</xdr:colOff>
+      <xdr:colOff>564097</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>144888</xdr:rowOff>
     </xdr:to>
@@ -2187,7 +2435,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1162266</xdr:colOff>
+      <xdr:colOff>545046</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>103010</xdr:rowOff>
     </xdr:to>
@@ -2378,7 +2626,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>800896</xdr:colOff>
+      <xdr:colOff>109653</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>118182</xdr:rowOff>
     </xdr:to>
@@ -2834,7 +3082,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -2960,7 +3208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -2968,7 +3216,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2978,10 +3226,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="G4" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -2997,8 +3245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y121"/>
   <sheetViews>
-    <sheetView topLeftCell="J34" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3024,1427 +3272,1427 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" t="s">
         <v>111</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>112</v>
       </c>
-      <c r="C10" t="s">
-        <v>113</v>
-      </c>
       <c r="D10" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="E10" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="F10" t="s">
         <v>95</v>
       </c>
       <c r="G10" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="H10" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="I10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J10" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="K10" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="L10" t="s">
+        <v>113</v>
+      </c>
+      <c r="M10" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="M10" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="N10" s="15">
+      <c r="N10" s="12">
         <v>40012</v>
       </c>
-      <c r="O10" s="16">
+      <c r="O10" s="13">
         <v>0.9140625</v>
       </c>
     </row>
     <row r="13" spans="1:23">
       <c r="B13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" t="s">
         <v>116</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>117</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>118</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>119</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>120</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>121</v>
       </c>
-      <c r="H13" t="s">
-        <v>122</v>
-      </c>
       <c r="I13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L13" t="s">
+        <v>122</v>
+      </c>
+      <c r="M13" t="s">
         <v>123</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>124</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>125</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>126</v>
       </c>
-      <c r="P13" t="s">
-        <v>127</v>
-      </c>
       <c r="Q13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R13" t="s">
         <v>65</v>
       </c>
       <c r="S13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:23">
       <c r="B14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" t="s">
         <v>129</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>130</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>131</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>132</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>133</v>
-      </c>
-      <c r="H14" t="s">
-        <v>134</v>
       </c>
       <c r="I14">
         <v>50</v>
       </c>
       <c r="J14" t="s">
+        <v>134</v>
+      </c>
+      <c r="K14" t="s">
         <v>135</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>136</v>
-      </c>
-      <c r="L14" t="s">
-        <v>137</v>
       </c>
       <c r="M14" t="s">
         <v>13</v>
       </c>
       <c r="N14" t="s">
+        <v>137</v>
+      </c>
+      <c r="O14" t="s">
         <v>138</v>
-      </c>
-      <c r="O14" t="s">
-        <v>139</v>
       </c>
       <c r="P14">
         <v>250</v>
       </c>
       <c r="Q14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R14" t="s">
+        <v>139</v>
+      </c>
+      <c r="S14" t="s">
         <v>140</v>
-      </c>
-      <c r="S14" t="s">
-        <v>141</v>
       </c>
       <c r="T14">
         <v>5000</v>
       </c>
       <c r="U14" t="s">
+        <v>141</v>
+      </c>
+      <c r="V14" t="s">
         <v>142</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>143</v>
-      </c>
-      <c r="W14" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="B15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" t="s">
         <v>145</v>
       </c>
-      <c r="C15" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" t="s">
-        <v>146</v>
-      </c>
       <c r="E15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F15">
         <v>50</v>
       </c>
       <c r="G15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J15">
         <v>250412</v>
       </c>
       <c r="K15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N15">
         <v>200</v>
       </c>
       <c r="O15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R15">
         <v>1000162</v>
       </c>
       <c r="S15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="2:20">
       <c r="B18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" t="s">
         <v>145</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>151</v>
       </c>
-      <c r="D18" t="s">
-        <v>146</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
+        <v>115</v>
+      </c>
+      <c r="G18" t="s">
         <v>152</v>
       </c>
-      <c r="F18" t="s">
-        <v>116</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>153</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J18" t="s">
+        <v>110</v>
+      </c>
+      <c r="K18" t="s">
+        <v>134</v>
+      </c>
+      <c r="L18" t="s">
         <v>154</v>
-      </c>
-      <c r="I18" t="s">
-        <v>139</v>
-      </c>
-      <c r="J18" t="s">
-        <v>111</v>
-      </c>
-      <c r="K18" t="s">
-        <v>135</v>
-      </c>
-      <c r="L18" t="s">
-        <v>155</v>
       </c>
       <c r="M18" t="s">
         <v>13</v>
       </c>
       <c r="N18" t="s">
+        <v>137</v>
+      </c>
+      <c r="O18" t="s">
         <v>138</v>
-      </c>
-      <c r="O18" t="s">
-        <v>139</v>
       </c>
       <c r="P18">
         <v>1250574</v>
       </c>
       <c r="Q18" t="s">
+        <v>117</v>
+      </c>
+      <c r="R18" t="s">
         <v>118</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
         <v>119</v>
       </c>
-      <c r="S18" t="s">
-        <v>120</v>
-      </c>
       <c r="T18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="2:20">
       <c r="B19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19" t="s">
         <v>156</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" t="s">
         <v>157</v>
       </c>
-      <c r="D19" t="s">
-        <v>140</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>158</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
+        <v>124</v>
+      </c>
+      <c r="H19" t="s">
         <v>159</v>
       </c>
-      <c r="G19" t="s">
-        <v>125</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
+        <v>135</v>
+      </c>
+      <c r="J19" t="s">
         <v>160</v>
       </c>
-      <c r="I19" t="s">
-        <v>136</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
+        <v>117</v>
+      </c>
+      <c r="L19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M19" t="s">
+        <v>119</v>
+      </c>
+      <c r="N19" t="s">
         <v>161</v>
-      </c>
-      <c r="K19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L19" t="s">
-        <v>119</v>
-      </c>
-      <c r="M19" t="s">
-        <v>120</v>
-      </c>
-      <c r="N19" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="22" spans="2:20">
       <c r="B22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="2:20">
       <c r="B23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" t="s">
         <v>163</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>164</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>165</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>166</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
+        <v>115</v>
+      </c>
+      <c r="H23" t="s">
         <v>167</v>
       </c>
-      <c r="G23" t="s">
-        <v>116</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>168</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
+        <v>138</v>
+      </c>
+      <c r="K23" t="s">
         <v>169</v>
-      </c>
-      <c r="J23" t="s">
-        <v>139</v>
-      </c>
-      <c r="K23" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="24" spans="2:20">
       <c r="B24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C24" t="s">
+        <v>170</v>
+      </c>
+      <c r="D24" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>139</v>
+      </c>
+      <c r="F24" t="s">
         <v>171</v>
       </c>
-      <c r="D24" s="9">
-        <v>4.2</v>
-      </c>
-      <c r="E24" t="s">
-        <v>140</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>172</v>
       </c>
-      <c r="G24" t="s">
-        <v>173</v>
-      </c>
-      <c r="H24" s="9">
+      <c r="H24" s="6">
         <v>3.2399999999999998E-2</v>
       </c>
     </row>
     <row r="25" spans="2:20">
       <c r="B25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="2:20">
       <c r="B26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="2:20">
       <c r="B27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D27">
         <v>3</v>
       </c>
       <c r="E27" t="s">
+        <v>174</v>
+      </c>
+      <c r="F27" t="s">
+        <v>115</v>
+      </c>
+      <c r="G27" t="s">
         <v>175</v>
       </c>
-      <c r="F27" t="s">
-        <v>116</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>176</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>177</v>
       </c>
-      <c r="I27" t="s">
-        <v>178</v>
-      </c>
       <c r="J27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="2:20">
       <c r="B28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28" t="s">
+        <v>179</v>
+      </c>
+      <c r="G28" t="s">
+        <v>138</v>
+      </c>
+      <c r="H28" t="s">
+        <v>115</v>
+      </c>
+      <c r="I28" t="s">
         <v>180</v>
-      </c>
-      <c r="G28" t="s">
-        <v>139</v>
-      </c>
-      <c r="H28" t="s">
-        <v>116</v>
-      </c>
-      <c r="I28" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="29" spans="2:20">
       <c r="B29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C29" t="s">
+        <v>165</v>
+      </c>
+      <c r="D29" t="s">
         <v>166</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" t="s">
         <v>167</v>
       </c>
-      <c r="E29" t="s">
-        <v>116</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>168</v>
       </c>
-      <c r="G29" t="s">
-        <v>169</v>
-      </c>
       <c r="H29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="2:20">
       <c r="B30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C30" t="s">
+        <v>182</v>
+      </c>
+      <c r="D30" t="s">
         <v>183</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
+        <v>144</v>
+      </c>
+      <c r="F30" t="s">
         <v>184</v>
       </c>
-      <c r="E30" t="s">
-        <v>145</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
+        <v>134</v>
+      </c>
+      <c r="H30" t="s">
         <v>185</v>
       </c>
-      <c r="G30" t="s">
-        <v>135</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>186</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>187</v>
-      </c>
-      <c r="J30" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="31" spans="2:20">
       <c r="B31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="2:20">
       <c r="B32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E32" t="s">
+        <v>188</v>
+      </c>
+      <c r="F32" t="s">
         <v>189</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>190</v>
-      </c>
-      <c r="G32" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="33" spans="2:24">
       <c r="B33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="2:24">
       <c r="B34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F34" t="s">
+        <v>191</v>
+      </c>
+      <c r="G34" t="s">
         <v>192</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
+        <v>166</v>
+      </c>
+      <c r="I34" t="s">
         <v>193</v>
       </c>
-      <c r="H34" t="s">
-        <v>167</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>194</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
+        <v>132</v>
+      </c>
+      <c r="L34" t="s">
+        <v>115</v>
+      </c>
+      <c r="M34" t="s">
         <v>195</v>
       </c>
-      <c r="K34" t="s">
-        <v>133</v>
-      </c>
-      <c r="L34" t="s">
-        <v>116</v>
-      </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
         <v>196</v>
       </c>
-      <c r="N34" t="s">
+      <c r="O34" t="s">
         <v>197</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q34" t="s">
         <v>198</v>
       </c>
-      <c r="P34" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q34" t="s">
+      <c r="R34" t="s">
+        <v>110</v>
+      </c>
+      <c r="S34" t="s">
+        <v>176</v>
+      </c>
+      <c r="T34" t="s">
         <v>199</v>
       </c>
-      <c r="R34" t="s">
-        <v>111</v>
-      </c>
-      <c r="S34" t="s">
-        <v>177</v>
-      </c>
-      <c r="T34" t="s">
+      <c r="U34" t="s">
         <v>200</v>
-      </c>
-      <c r="U34" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="36" spans="2:24">
       <c r="B36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C36" t="s">
+        <v>201</v>
+      </c>
+      <c r="D36" t="s">
         <v>202</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
+        <v>176</v>
+      </c>
+      <c r="F36" t="s">
+        <v>199</v>
+      </c>
+      <c r="G36" t="s">
         <v>203</v>
       </c>
-      <c r="E36" t="s">
-        <v>177</v>
-      </c>
-      <c r="F36" t="s">
-        <v>200</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>204</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>205</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>206</v>
       </c>
-      <c r="J36" t="s">
-        <v>207</v>
-      </c>
       <c r="K36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L36">
         <v>95</v>
       </c>
       <c r="M36" t="s">
+        <v>207</v>
+      </c>
+      <c r="N36" t="s">
         <v>208</v>
       </c>
-      <c r="N36" t="s">
+      <c r="O36" t="s">
         <v>209</v>
-      </c>
-      <c r="O36" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="37" spans="2:24">
       <c r="B37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F37" t="s">
+        <v>203</v>
+      </c>
+      <c r="G37" t="s">
         <v>204</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>205</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>206</v>
       </c>
-      <c r="I37" t="s">
-        <v>207</v>
-      </c>
       <c r="J37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K37">
         <v>95</v>
       </c>
       <c r="L37" t="s">
+        <v>207</v>
+      </c>
+      <c r="M37" t="s">
         <v>208</v>
       </c>
-      <c r="M37" t="s">
+      <c r="N37" t="s">
         <v>209</v>
-      </c>
-      <c r="N37" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="38" spans="2:24">
       <c r="B38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" t="s">
+        <v>211</v>
+      </c>
+      <c r="D38" t="s">
         <v>212</v>
       </c>
-      <c r="D38" t="s">
-        <v>213</v>
-      </c>
       <c r="E38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G38" t="s">
+        <v>203</v>
+      </c>
+      <c r="H38" t="s">
         <v>204</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>205</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>206</v>
       </c>
-      <c r="J38" t="s">
-        <v>207</v>
-      </c>
       <c r="K38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L38">
         <v>95</v>
       </c>
       <c r="M38" t="s">
+        <v>207</v>
+      </c>
+      <c r="N38" t="s">
         <v>208</v>
       </c>
-      <c r="N38" t="s">
+      <c r="O38" t="s">
         <v>209</v>
-      </c>
-      <c r="O38" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="41" spans="2:24">
       <c r="B41" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="2:24">
       <c r="B42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="2:24">
       <c r="B43" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" t="s">
         <v>215</v>
       </c>
-      <c r="C43" t="s">
-        <v>116</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>216</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>217</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>218</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
+        <v>110</v>
+      </c>
+      <c r="I43" t="s">
+        <v>114</v>
+      </c>
+      <c r="J43" s="15">
+        <v>0.98660000000000003</v>
+      </c>
+      <c r="K43" t="s">
+        <v>139</v>
+      </c>
+      <c r="L43" t="s">
         <v>219</v>
       </c>
-      <c r="H43" t="s">
-        <v>111</v>
-      </c>
-      <c r="I43" t="s">
-        <v>115</v>
-      </c>
-      <c r="J43" s="18">
-        <v>0.98660000000000003</v>
-      </c>
-      <c r="K43" t="s">
-        <v>140</v>
-      </c>
-      <c r="L43" t="s">
+      <c r="M43" t="s">
+        <v>216</v>
+      </c>
+      <c r="N43" t="s">
         <v>220</v>
       </c>
-      <c r="M43" t="s">
-        <v>217</v>
-      </c>
-      <c r="N43" t="s">
+      <c r="O43" t="s">
         <v>221</v>
       </c>
-      <c r="O43" t="s">
-        <v>222</v>
-      </c>
       <c r="P43" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q43" s="18">
+        <v>138</v>
+      </c>
+      <c r="Q43" s="15">
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="R43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="2:24">
       <c r="B44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="45" spans="2:24">
       <c r="B45" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D45" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E45" t="s">
+        <v>222</v>
+      </c>
+      <c r="F45" t="s">
         <v>223</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>224</v>
-      </c>
-      <c r="G45" t="s">
-        <v>225</v>
       </c>
       <c r="H45">
         <v>99</v>
       </c>
       <c r="I45" t="s">
+        <v>207</v>
+      </c>
+      <c r="J45" t="s">
+        <v>110</v>
+      </c>
+      <c r="K45" t="s">
         <v>208</v>
       </c>
-      <c r="J45" t="s">
-        <v>111</v>
-      </c>
-      <c r="K45" t="s">
-        <v>209</v>
-      </c>
       <c r="L45" t="s">
+        <v>225</v>
+      </c>
+      <c r="M45" t="s">
         <v>226</v>
-      </c>
-      <c r="M45" t="s">
-        <v>227</v>
       </c>
       <c r="N45">
         <v>0.9859</v>
       </c>
       <c r="O45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P45" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="Q45">
         <v>0.98521000000000003</v>
       </c>
       <c r="R45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S45" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="T45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U45">
         <v>0.98475999999999997</v>
       </c>
       <c r="V45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W45">
         <v>0.98843999999999999</v>
       </c>
       <c r="X45" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="2:24">
       <c r="B46" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C46" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47" spans="2:24">
       <c r="B47" t="s">
+        <v>214</v>
+      </c>
+      <c r="C47" t="s">
+        <v>115</v>
+      </c>
+      <c r="D47" t="s">
         <v>215</v>
       </c>
-      <c r="C47" t="s">
-        <v>116</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
+        <v>217</v>
+      </c>
+      <c r="F47" t="s">
+        <v>227</v>
+      </c>
+      <c r="G47" t="s">
+        <v>228</v>
+      </c>
+      <c r="H47" t="s">
+        <v>229</v>
+      </c>
+      <c r="I47" t="s">
+        <v>230</v>
+      </c>
+      <c r="J47" t="s">
+        <v>114</v>
+      </c>
+      <c r="K47" s="6">
+        <v>1.3289000000000001E-8</v>
+      </c>
+      <c r="L47" t="s">
+        <v>231</v>
+      </c>
+      <c r="M47" t="s">
+        <v>139</v>
+      </c>
+      <c r="N47" t="s">
+        <v>219</v>
+      </c>
+      <c r="O47" t="s">
         <v>216</v>
       </c>
-      <c r="E47" t="s">
-        <v>218</v>
-      </c>
-      <c r="F47" t="s">
-        <v>228</v>
-      </c>
-      <c r="G47" t="s">
-        <v>229</v>
-      </c>
-      <c r="H47" t="s">
-        <v>230</v>
-      </c>
-      <c r="I47" t="s">
-        <v>231</v>
-      </c>
-      <c r="J47" t="s">
-        <v>115</v>
-      </c>
-      <c r="K47" s="9">
-        <v>1.3289000000000001E-8</v>
-      </c>
-      <c r="L47" t="s">
-        <v>232</v>
-      </c>
-      <c r="M47" t="s">
-        <v>140</v>
-      </c>
-      <c r="N47" t="s">
+      <c r="P47" t="s">
         <v>220</v>
       </c>
-      <c r="O47" t="s">
-        <v>217</v>
-      </c>
-      <c r="P47" t="s">
+      <c r="Q47" t="s">
         <v>221</v>
       </c>
-      <c r="Q47" t="s">
-        <v>222</v>
-      </c>
       <c r="R47" t="s">
-        <v>139</v>
-      </c>
-      <c r="S47" s="9">
+        <v>138</v>
+      </c>
+      <c r="S47" s="6">
         <v>1.6176000000000001E-11</v>
       </c>
       <c r="T47" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48" spans="2:24">
       <c r="B48" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C48" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49" spans="2:21">
       <c r="B49" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D49" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F49" t="s">
+        <v>232</v>
+      </c>
+      <c r="G49" t="s">
         <v>233</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
+        <v>117</v>
+      </c>
+      <c r="I49" t="s">
+        <v>114</v>
+      </c>
+      <c r="J49" s="6">
+        <v>1.9106000000000001</v>
+      </c>
+      <c r="K49" t="s">
         <v>234</v>
       </c>
-      <c r="H49" t="s">
-        <v>118</v>
-      </c>
-      <c r="I49" t="s">
-        <v>115</v>
-      </c>
-      <c r="J49" s="9">
-        <v>1.9106000000000001</v>
-      </c>
-      <c r="K49" t="s">
-        <v>235</v>
-      </c>
       <c r="L49" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="50" spans="2:21">
       <c r="B50" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D50" t="s">
+        <v>232</v>
+      </c>
+      <c r="E50" t="s">
+        <v>235</v>
+      </c>
+      <c r="F50" t="s">
+        <v>132</v>
+      </c>
+      <c r="G50" t="s">
+        <v>115</v>
+      </c>
+      <c r="H50" t="s">
+        <v>180</v>
+      </c>
+      <c r="I50" t="s">
+        <v>118</v>
+      </c>
+      <c r="J50" t="s">
+        <v>236</v>
+      </c>
+      <c r="K50" t="s">
         <v>233</v>
       </c>
-      <c r="E50" t="s">
-        <v>236</v>
-      </c>
-      <c r="F50" t="s">
-        <v>133</v>
-      </c>
-      <c r="G50" t="s">
-        <v>116</v>
-      </c>
-      <c r="H50" t="s">
-        <v>181</v>
-      </c>
-      <c r="I50" t="s">
-        <v>119</v>
-      </c>
-      <c r="J50" t="s">
-        <v>237</v>
-      </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
+        <v>117</v>
+      </c>
+      <c r="M50" t="s">
+        <v>114</v>
+      </c>
+      <c r="N50" s="6">
+        <v>1.1914</v>
+      </c>
+      <c r="O50" t="s">
         <v>234</v>
       </c>
-      <c r="L50" t="s">
-        <v>118</v>
-      </c>
-      <c r="M50" t="s">
-        <v>115</v>
-      </c>
-      <c r="N50" s="9">
-        <v>1.1914</v>
-      </c>
-      <c r="O50" t="s">
-        <v>235</v>
-      </c>
       <c r="P50" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="2:21">
       <c r="B51" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C51" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="52" spans="2:21">
       <c r="B52" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C52" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D52" t="s">
+        <v>237</v>
+      </c>
+      <c r="E52" t="s">
+        <v>138</v>
+      </c>
+      <c r="F52" t="s">
         <v>238</v>
       </c>
-      <c r="E52" t="s">
-        <v>139</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>239</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>240</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
+        <v>141</v>
+      </c>
+      <c r="J52" t="s">
         <v>241</v>
       </c>
-      <c r="I52" t="s">
-        <v>142</v>
-      </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
+        <v>115</v>
+      </c>
+      <c r="L52" t="s">
         <v>242</v>
       </c>
-      <c r="K52" t="s">
-        <v>116</v>
-      </c>
-      <c r="L52" t="s">
+      <c r="M52" t="s">
         <v>243</v>
       </c>
-      <c r="M52" t="s">
+      <c r="N52" t="s">
+        <v>135</v>
+      </c>
+      <c r="O52" t="s">
         <v>244</v>
       </c>
-      <c r="N52" t="s">
-        <v>136</v>
-      </c>
-      <c r="O52" t="s">
+      <c r="P52" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q52" t="s">
         <v>245</v>
       </c>
-      <c r="P52" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>246</v>
-      </c>
       <c r="R52" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="S52" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" spans="2:21">
       <c r="B53" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C53" t="s">
+        <v>246</v>
+      </c>
+      <c r="D53" t="s">
         <v>247</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" s="14">
+        <v>0</v>
+      </c>
+      <c r="F53" t="s">
         <v>248</v>
       </c>
-      <c r="E53" s="17">
-        <v>0</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>249</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>250</v>
-      </c>
-      <c r="H53" t="s">
-        <v>251</v>
       </c>
       <c r="I53">
         <v>100</v>
       </c>
       <c r="J53" t="s">
+        <v>251</v>
+      </c>
+      <c r="K53" s="14">
+        <v>2.92E-2</v>
+      </c>
+      <c r="L53" t="s">
         <v>252</v>
       </c>
-      <c r="K53" s="17">
-        <v>2.92E-2</v>
-      </c>
-      <c r="L53" t="s">
-        <v>253</v>
-      </c>
       <c r="M53" t="s">
-        <v>252</v>
-      </c>
-      <c r="N53" s="17">
+        <v>251</v>
+      </c>
+      <c r="N53" s="14">
         <v>0.9708</v>
       </c>
       <c r="O53" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="54" spans="2:21">
       <c r="B54" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C54" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="55" spans="2:21">
       <c r="B55" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C55" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D55" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E55" t="s">
+        <v>117</v>
+      </c>
+      <c r="F55" t="s">
+        <v>141</v>
+      </c>
+      <c r="G55" t="s">
+        <v>253</v>
+      </c>
+      <c r="H55" t="s">
+        <v>142</v>
+      </c>
+      <c r="I55" t="s">
         <v>118</v>
       </c>
-      <c r="F55" t="s">
-        <v>142</v>
-      </c>
-      <c r="G55" t="s">
+      <c r="J55" t="s">
         <v>254</v>
       </c>
-      <c r="H55" t="s">
-        <v>143</v>
-      </c>
-      <c r="I55" t="s">
-        <v>119</v>
-      </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>255</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>256</v>
       </c>
-      <c r="L55" t="s">
+      <c r="M55" t="s">
         <v>257</v>
       </c>
-      <c r="M55" t="s">
-        <v>258</v>
-      </c>
       <c r="N55" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O55" t="s">
+        <v>155</v>
+      </c>
+      <c r="P55" t="s">
         <v>156</v>
       </c>
-      <c r="P55" t="s">
-        <v>157</v>
-      </c>
       <c r="Q55" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R55" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S55" t="s">
-        <v>115</v>
-      </c>
-      <c r="T55" s="9">
+        <v>114</v>
+      </c>
+      <c r="T55" s="6">
         <v>2.6074999999999999</v>
       </c>
       <c r="U55" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="56" spans="2:21">
       <c r="B56" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C56" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D56" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E56" t="s">
+        <v>117</v>
+      </c>
+      <c r="F56" t="s">
+        <v>141</v>
+      </c>
+      <c r="G56" t="s">
+        <v>253</v>
+      </c>
+      <c r="H56" t="s">
+        <v>142</v>
+      </c>
+      <c r="I56" t="s">
         <v>118</v>
       </c>
-      <c r="F56" t="s">
-        <v>142</v>
-      </c>
-      <c r="G56" t="s">
+      <c r="J56" t="s">
         <v>254</v>
       </c>
-      <c r="H56" t="s">
-        <v>143</v>
-      </c>
-      <c r="I56" t="s">
-        <v>119</v>
-      </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>255</v>
       </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>256</v>
       </c>
-      <c r="L56" t="s">
+      <c r="M56" t="s">
         <v>257</v>
       </c>
-      <c r="M56" t="s">
+      <c r="N56" t="s">
+        <v>241</v>
+      </c>
+      <c r="O56" t="s">
+        <v>155</v>
+      </c>
+      <c r="P56" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q56" t="s">
         <v>258</v>
       </c>
-      <c r="N56" t="s">
-        <v>242</v>
-      </c>
-      <c r="O56" t="s">
+      <c r="R56" t="s">
         <v>156</v>
       </c>
-      <c r="P56" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>259</v>
-      </c>
-      <c r="R56" t="s">
-        <v>157</v>
-      </c>
       <c r="S56" t="s">
-        <v>115</v>
-      </c>
-      <c r="T56" s="9">
+        <v>114</v>
+      </c>
+      <c r="T56" s="6">
         <v>2.6074999999999999</v>
       </c>
       <c r="U56" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57" spans="2:21">
       <c r="B57" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C57" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="58" spans="2:21">
       <c r="B58" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D58" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E58" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F58" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G58" t="s">
+        <v>141</v>
+      </c>
+      <c r="H58" t="s">
+        <v>253</v>
+      </c>
+      <c r="I58" t="s">
         <v>142</v>
       </c>
-      <c r="H58" t="s">
-        <v>254</v>
-      </c>
-      <c r="I58" t="s">
-        <v>143</v>
-      </c>
       <c r="J58" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K58" t="s">
-        <v>115</v>
-      </c>
-      <c r="L58" s="18">
+        <v>114</v>
+      </c>
+      <c r="L58" s="15">
         <v>3.0609999999999999</v>
       </c>
       <c r="M58" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="59" spans="2:21">
       <c r="B59" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C59" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="60" spans="2:21">
       <c r="B60" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="63" spans="2:21">
       <c r="B63" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C63" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D63" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E63" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="F63" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="G63" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H63" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="I63" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J63" t="s">
+        <v>222</v>
+      </c>
+      <c r="K63" t="s">
         <v>223</v>
       </c>
-      <c r="K63" t="s">
-        <v>224</v>
-      </c>
       <c r="L63" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M63">
         <v>99</v>
       </c>
       <c r="N63" t="s">
+        <v>207</v>
+      </c>
+      <c r="O63" t="s">
         <v>208</v>
       </c>
-      <c r="O63" t="s">
-        <v>209</v>
-      </c>
       <c r="P63" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q63" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="65" spans="2:25">
       <c r="B65" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C65" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D65" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E65" t="s">
+        <v>220</v>
+      </c>
+      <c r="F65" t="s">
         <v>221</v>
       </c>
-      <c r="F65" t="s">
-        <v>222</v>
-      </c>
-      <c r="G65" s="20">
+      <c r="G65" s="17">
         <v>0.68</v>
       </c>
       <c r="H65" t="s">
-        <v>209</v>
-      </c>
-      <c r="I65" s="20">
+        <v>208</v>
+      </c>
+      <c r="I65" s="17">
         <v>0.95</v>
       </c>
       <c r="J65" t="s">
-        <v>209</v>
-      </c>
-      <c r="K65" s="20">
+        <v>208</v>
+      </c>
+      <c r="K65" s="17">
         <v>0.99</v>
       </c>
       <c r="L65" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M65" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="67" spans="2:25">
       <c r="B67" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C67">
         <v>0.98636000000000001</v>
@@ -4456,7 +4704,7 @@
         <v>0.98548999999999998</v>
       </c>
       <c r="F67" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G67">
         <v>0.98724000000000001</v>
@@ -4465,7 +4713,7 @@
         <v>0.98463000000000001</v>
       </c>
       <c r="I67" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J67">
         <v>0.98809999999999998</v>
@@ -4474,7 +4722,7 @@
         <v>0.98406000000000005</v>
       </c>
       <c r="L67" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M67">
         <v>0.98867000000000005</v>
@@ -4482,7 +4730,7 @@
     </row>
     <row r="68" spans="2:25">
       <c r="B68" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C68">
         <v>0.98631999999999997</v>
@@ -4494,7 +4742,7 @@
         <v>0.98543999999999998</v>
       </c>
       <c r="F68" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G68">
         <v>0.98719000000000001</v>
@@ -4503,7 +4751,7 @@
         <v>0.98458000000000001</v>
       </c>
       <c r="I68" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J68">
         <v>0.98806000000000005</v>
@@ -4512,7 +4760,7 @@
         <v>0.98401000000000005</v>
       </c>
       <c r="L68" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M68">
         <v>0.98863000000000001</v>
@@ -4520,10 +4768,10 @@
     </row>
     <row r="69" spans="2:25">
       <c r="B69" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C69" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="D69">
         <v>0.98668999999999996</v>
@@ -4535,7 +4783,7 @@
         <v>0.98597000000000001</v>
       </c>
       <c r="G69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H69">
         <v>0.98741999999999996</v>
@@ -4544,7 +4792,7 @@
         <v>0.98524999999999996</v>
       </c>
       <c r="J69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K69">
         <v>0.98812999999999995</v>
@@ -4553,7 +4801,7 @@
         <v>0.98477999999999999</v>
       </c>
       <c r="M69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N69">
         <v>0.98860000000000003</v>
@@ -4561,7 +4809,7 @@
     </row>
     <row r="70" spans="2:25">
       <c r="B70" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C70">
         <v>0.98638000000000003</v>
@@ -4573,7 +4821,7 @@
         <v>0.98550000000000004</v>
       </c>
       <c r="F70" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G70">
         <v>0.98726000000000003</v>
@@ -4582,7 +4830,7 @@
         <v>0.98463999999999996</v>
       </c>
       <c r="I70" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J70">
         <v>0.98812999999999995</v>
@@ -4591,7 +4839,7 @@
         <v>0.98407</v>
       </c>
       <c r="L70" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M70">
         <v>0.98870000000000002</v>
@@ -4602,10 +4850,10 @@
     </row>
     <row r="71" spans="2:25">
       <c r="B71" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C71" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="D71">
         <v>0.98658999999999997</v>
@@ -4617,7 +4865,7 @@
         <v>0.98589000000000004</v>
       </c>
       <c r="G71" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H71">
         <v>0.98728000000000005</v>
@@ -4626,7 +4874,7 @@
         <v>0.98521000000000003</v>
       </c>
       <c r="J71" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K71">
         <v>0.98797000000000001</v>
@@ -4635,7 +4883,7 @@
         <v>0.98475000000000001</v>
       </c>
       <c r="M71" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N71">
         <v>0.98841999999999997</v>
@@ -4646,10 +4894,10 @@
     </row>
     <row r="72" spans="2:25">
       <c r="B72" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C72" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="D72">
         <v>0.98660000000000003</v>
@@ -4661,7 +4909,7 @@
         <v>0.98590999999999995</v>
       </c>
       <c r="G72" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H72">
         <v>0.98729</v>
@@ -4670,7 +4918,7 @@
         <v>0.98521999999999998</v>
       </c>
       <c r="J72" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K72">
         <v>0.98797999999999997</v>
@@ -4679,7 +4927,7 @@
         <v>0.98477000000000003</v>
       </c>
       <c r="M72" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N72">
         <v>0.98843000000000003</v>
@@ -4690,10 +4938,10 @@
     </row>
     <row r="73" spans="2:25">
       <c r="B73" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C73" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="D73">
         <v>0.98660000000000003</v>
@@ -4705,7 +4953,7 @@
         <v>0.9859</v>
       </c>
       <c r="G73" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H73">
         <v>0.98729999999999996</v>
@@ -4714,7 +4962,7 @@
         <v>0.98521000000000003</v>
       </c>
       <c r="J73" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K73">
         <v>0.98799000000000003</v>
@@ -4723,7 +4971,7 @@
         <v>0.98475999999999997</v>
       </c>
       <c r="M73" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N73">
         <v>0.98843999999999999</v>
@@ -4731,116 +4979,116 @@
     </row>
     <row r="76" spans="2:25">
       <c r="B76" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C76" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D76" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E76" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F76" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="G76" t="s">
+        <v>110</v>
+      </c>
+      <c r="H76" t="s">
+        <v>283</v>
+      </c>
+      <c r="I76" t="s">
+        <v>126</v>
+      </c>
+      <c r="J76" t="s">
+        <v>115</v>
+      </c>
+      <c r="K76" t="s">
+        <v>284</v>
+      </c>
+      <c r="L76" t="s">
+        <v>285</v>
+      </c>
+      <c r="M76" t="s">
+        <v>115</v>
+      </c>
+      <c r="N76" t="s">
+        <v>110</v>
+      </c>
+      <c r="O76" t="s">
         <v>111</v>
       </c>
-      <c r="H76" t="s">
-        <v>291</v>
-      </c>
-      <c r="I76" t="s">
-        <v>127</v>
-      </c>
-      <c r="J76" t="s">
-        <v>116</v>
-      </c>
-      <c r="K76" t="s">
-        <v>292</v>
-      </c>
-      <c r="L76" t="s">
-        <v>293</v>
-      </c>
-      <c r="M76" t="s">
-        <v>116</v>
-      </c>
-      <c r="N76" t="s">
-        <v>111</v>
-      </c>
-      <c r="O76" t="s">
-        <v>112</v>
-      </c>
       <c r="P76" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q76" t="s">
+        <v>222</v>
+      </c>
+      <c r="R76" t="s">
         <v>223</v>
       </c>
-      <c r="R76" t="s">
-        <v>224</v>
-      </c>
       <c r="S76" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T76">
         <v>99</v>
       </c>
       <c r="U76" t="s">
+        <v>207</v>
+      </c>
+      <c r="V76" t="s">
         <v>208</v>
       </c>
-      <c r="V76" t="s">
-        <v>209</v>
-      </c>
       <c r="W76" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="X76" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="Y76" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="78" spans="2:25">
       <c r="B78" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C78" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D78" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E78" t="s">
+        <v>220</v>
+      </c>
+      <c r="F78" t="s">
         <v>221</v>
       </c>
-      <c r="F78" t="s">
-        <v>222</v>
-      </c>
-      <c r="G78" s="20">
+      <c r="G78" s="17">
         <v>0.68</v>
       </c>
       <c r="H78" t="s">
-        <v>209</v>
-      </c>
-      <c r="I78" s="20">
+        <v>208</v>
+      </c>
+      <c r="I78" s="17">
         <v>0.95</v>
       </c>
       <c r="J78" t="s">
-        <v>209</v>
-      </c>
-      <c r="K78" s="20">
+        <v>208</v>
+      </c>
+      <c r="K78" s="17">
         <v>0.99</v>
       </c>
       <c r="L78" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="80" spans="2:25">
       <c r="B80" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C80">
         <v>0.98650000000000004</v>
@@ -4852,7 +5100,7 @@
         <v>0.98563000000000001</v>
       </c>
       <c r="F80" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G80">
         <v>0.98738000000000004</v>
@@ -4861,7 +5109,7 @@
         <v>0.98475000000000001</v>
       </c>
       <c r="I80" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J80">
         <v>0.98826000000000003</v>
@@ -4870,7 +5118,7 @@
         <v>0.98418000000000005</v>
       </c>
       <c r="L80" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M80">
         <v>0.98882999999999999</v>
@@ -4878,7 +5126,7 @@
     </row>
     <row r="81" spans="2:20">
       <c r="B81" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C81">
         <v>0.98646</v>
@@ -4890,7 +5138,7 @@
         <v>0.98558000000000001</v>
       </c>
       <c r="F81" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G81">
         <v>0.98734</v>
@@ -4899,7 +5147,7 @@
         <v>0.98470999999999997</v>
       </c>
       <c r="I81" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J81">
         <v>0.98821999999999999</v>
@@ -4908,7 +5156,7 @@
         <v>0.98412999999999995</v>
       </c>
       <c r="L81" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M81">
         <v>0.98878999999999995</v>
@@ -4916,10 +5164,10 @@
     </row>
     <row r="82" spans="2:20">
       <c r="B82" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C82" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="D82">
         <v>0.98682000000000003</v>
@@ -4931,7 +5179,7 @@
         <v>0.98609000000000002</v>
       </c>
       <c r="G82" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H82">
         <v>0.98755000000000004</v>
@@ -4940,7 +5188,7 @@
         <v>0.98536999999999997</v>
       </c>
       <c r="J82" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K82">
         <v>0.98828000000000005</v>
@@ -4949,7 +5197,7 @@
         <v>0.98489000000000004</v>
       </c>
       <c r="M82" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N82">
         <v>0.98875000000000002</v>
@@ -4957,10 +5205,10 @@
     </row>
     <row r="83" spans="2:20">
       <c r="B83" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C83" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="D83">
         <v>0.98673</v>
@@ -4972,7 +5220,7 @@
         <v>0.98602999999999996</v>
       </c>
       <c r="G83" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H83">
         <v>0.98743999999999998</v>
@@ -4981,7 +5229,7 @@
         <v>0.98533000000000004</v>
       </c>
       <c r="J83" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K83">
         <v>0.98814000000000002</v>
@@ -4990,7 +5238,7 @@
         <v>0.98487000000000002</v>
       </c>
       <c r="M83" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N83">
         <v>0.98860000000000003</v>
@@ -4998,250 +5246,250 @@
     </row>
     <row r="86" spans="2:20">
       <c r="B86" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C86" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D86" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E86" t="s">
+        <v>228</v>
+      </c>
+      <c r="F86" t="s">
         <v>229</v>
       </c>
-      <c r="F86" t="s">
-        <v>230</v>
-      </c>
       <c r="G86" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="H86" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="I86" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J86" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="K86" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L86" t="s">
+        <v>222</v>
+      </c>
+      <c r="M86" t="s">
         <v>223</v>
       </c>
-      <c r="M86" t="s">
-        <v>224</v>
-      </c>
       <c r="N86" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O86">
         <v>99</v>
       </c>
       <c r="P86" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q86" t="s">
         <v>208</v>
       </c>
-      <c r="Q86" t="s">
-        <v>209</v>
-      </c>
       <c r="R86" t="s">
+        <v>225</v>
+      </c>
+      <c r="S86" t="s">
         <v>226</v>
       </c>
-      <c r="S86" t="s">
-        <v>227</v>
-      </c>
       <c r="T86" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="88" spans="2:20">
       <c r="B88" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C88" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D88" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="E88" t="s">
-        <v>299</v>
-      </c>
-      <c r="F88" s="20">
+        <v>291</v>
+      </c>
+      <c r="F88" s="17">
         <v>0.68</v>
       </c>
       <c r="G88" t="s">
-        <v>209</v>
-      </c>
-      <c r="H88" s="20">
+        <v>208</v>
+      </c>
+      <c r="H88" s="17">
         <v>0.95</v>
       </c>
       <c r="I88" t="s">
-        <v>209</v>
-      </c>
-      <c r="J88" s="20">
+        <v>208</v>
+      </c>
+      <c r="J88" s="17">
         <v>0.99</v>
       </c>
       <c r="K88" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L88" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="90" spans="2:20">
       <c r="B90" t="s">
-        <v>279</v>
-      </c>
-      <c r="C90" s="9">
+        <v>271</v>
+      </c>
+      <c r="C90" s="6">
         <v>1.3230900000000001E-8</v>
       </c>
-      <c r="D90" s="9">
+      <c r="D90" s="6">
         <v>1.6141499999999999E-11</v>
       </c>
-      <c r="E90" s="9">
+      <c r="E90" s="6">
         <v>1.3215E-8</v>
       </c>
       <c r="F90" t="s">
-        <v>133</v>
-      </c>
-      <c r="G90" s="9">
+        <v>132</v>
+      </c>
+      <c r="G90" s="6">
         <v>1.3246999999999999E-8</v>
       </c>
-      <c r="H90" s="9">
+      <c r="H90" s="6">
         <v>1.3199E-8</v>
       </c>
       <c r="I90" t="s">
-        <v>133</v>
-      </c>
-      <c r="J90" s="9">
+        <v>132</v>
+      </c>
+      <c r="J90" s="6">
         <v>1.3262999999999999E-8</v>
       </c>
-      <c r="K90" s="9">
+      <c r="K90" s="6">
         <v>1.3188E-8</v>
       </c>
       <c r="L90" t="s">
-        <v>133</v>
-      </c>
-      <c r="M90" s="9">
+        <v>132</v>
+      </c>
+      <c r="M90" s="6">
         <v>1.3274E-8</v>
       </c>
     </row>
     <row r="91" spans="2:20">
       <c r="B91" t="s">
-        <v>280</v>
-      </c>
-      <c r="C91" s="9">
+        <v>272</v>
+      </c>
+      <c r="C91" s="6">
         <v>1.3231699999999999E-8</v>
       </c>
-      <c r="D91" s="9">
+      <c r="D91" s="6">
         <v>1.6075500000000001E-11</v>
       </c>
-      <c r="E91" s="9">
+      <c r="E91" s="6">
         <v>1.3216000000000001E-8</v>
       </c>
       <c r="F91" t="s">
-        <v>133</v>
-      </c>
-      <c r="G91" s="9">
+        <v>132</v>
+      </c>
+      <c r="G91" s="6">
         <v>1.3248000000000001E-8</v>
       </c>
-      <c r="H91" s="9">
+      <c r="H91" s="6">
         <v>1.3200000000000001E-8</v>
       </c>
       <c r="I91" t="s">
-        <v>133</v>
-      </c>
-      <c r="J91" s="9">
+        <v>132</v>
+      </c>
+      <c r="J91" s="6">
         <v>1.3264000000000001E-8</v>
       </c>
-      <c r="K91" s="9">
+      <c r="K91" s="6">
         <v>1.3189E-8</v>
       </c>
       <c r="L91" t="s">
-        <v>133</v>
-      </c>
-      <c r="M91" s="9">
+        <v>132</v>
+      </c>
+      <c r="M91" s="6">
         <v>1.3274E-8</v>
       </c>
     </row>
     <row r="92" spans="2:20">
       <c r="B92" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C92" t="s">
-        <v>282</v>
-      </c>
-      <c r="D92" s="9">
+        <v>274</v>
+      </c>
+      <c r="D92" s="6">
         <v>1.3270700000000001E-8</v>
       </c>
-      <c r="E92" s="9">
+      <c r="E92" s="6">
         <v>1.44027E-11</v>
       </c>
-      <c r="F92" s="9">
+      <c r="F92" s="6">
         <v>1.3256E-8</v>
       </c>
       <c r="G92" t="s">
-        <v>133</v>
-      </c>
-      <c r="H92" s="9">
+        <v>132</v>
+      </c>
+      <c r="H92" s="6">
         <v>1.3285E-8</v>
       </c>
-      <c r="I92" s="9">
+      <c r="I92" s="6">
         <v>1.3242E-8</v>
       </c>
       <c r="J92" t="s">
-        <v>133</v>
-      </c>
-      <c r="K92" s="9">
+        <v>132</v>
+      </c>
+      <c r="K92" s="6">
         <v>1.3299000000000001E-8</v>
       </c>
-      <c r="L92" s="9">
+      <c r="L92" s="6">
         <v>1.3233E-8</v>
       </c>
       <c r="M92" t="s">
-        <v>133</v>
-      </c>
-      <c r="N92" s="9">
+        <v>132</v>
+      </c>
+      <c r="N92" s="6">
         <v>1.3309E-8</v>
       </c>
     </row>
     <row r="93" spans="2:20">
       <c r="B93" t="s">
-        <v>283</v>
-      </c>
-      <c r="C93" s="9">
+        <v>275</v>
+      </c>
+      <c r="C93" s="6">
         <v>1.3234E-8</v>
       </c>
-      <c r="D93" s="9">
+      <c r="D93" s="6">
         <v>1.6105699999999999E-11</v>
       </c>
-      <c r="E93" s="9">
+      <c r="E93" s="6">
         <v>1.3218E-8</v>
       </c>
       <c r="F93" t="s">
-        <v>133</v>
-      </c>
-      <c r="G93" s="9">
+        <v>132</v>
+      </c>
+      <c r="G93" s="6">
         <v>1.325E-8</v>
       </c>
-      <c r="H93" s="9">
+      <c r="H93" s="6">
         <v>1.3202E-8</v>
       </c>
       <c r="I93" t="s">
-        <v>133</v>
-      </c>
-      <c r="J93" s="9">
+        <v>132</v>
+      </c>
+      <c r="J93" s="6">
         <v>1.3265999999999999E-8</v>
       </c>
-      <c r="K93" s="9">
+      <c r="K93" s="6">
         <v>1.3191E-8</v>
       </c>
       <c r="L93" t="s">
-        <v>133</v>
-      </c>
-      <c r="M93" s="9">
+        <v>132</v>
+      </c>
+      <c r="M93" s="6">
         <v>1.3277E-8</v>
       </c>
       <c r="N93">
@@ -5250,42 +5498,42 @@
     </row>
     <row r="94" spans="2:20">
       <c r="B94" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C94" t="s">
-        <v>285</v>
-      </c>
-      <c r="D94" s="9">
+        <v>277</v>
+      </c>
+      <c r="D94" s="6">
         <v>1.32885E-8</v>
       </c>
-      <c r="E94" s="9">
+      <c r="E94" s="6">
         <v>1.6159899999999999E-11</v>
       </c>
-      <c r="F94" s="9">
+      <c r="F94" s="6">
         <v>1.3272E-8</v>
       </c>
       <c r="G94" t="s">
-        <v>133</v>
-      </c>
-      <c r="H94" s="9">
+        <v>132</v>
+      </c>
+      <c r="H94" s="6">
         <v>1.3305000000000001E-8</v>
       </c>
-      <c r="I94" s="9">
+      <c r="I94" s="6">
         <v>1.3256E-8</v>
       </c>
       <c r="J94" t="s">
-        <v>133</v>
-      </c>
-      <c r="K94" s="9">
+        <v>132</v>
+      </c>
+      <c r="K94" s="6">
         <v>1.3321000000000001E-8</v>
       </c>
-      <c r="L94" s="9">
+      <c r="L94" s="6">
         <v>1.3246E-8</v>
       </c>
       <c r="M94" t="s">
-        <v>133</v>
-      </c>
-      <c r="N94" s="9">
+        <v>132</v>
+      </c>
+      <c r="N94" s="6">
         <v>1.3331E-8</v>
       </c>
       <c r="O94">
@@ -5294,42 +5542,42 @@
     </row>
     <row r="95" spans="2:20">
       <c r="B95" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C95" t="s">
-        <v>285</v>
-      </c>
-      <c r="D95" s="9">
+        <v>277</v>
+      </c>
+      <c r="D95" s="6">
         <v>1.32892E-8</v>
       </c>
-      <c r="E95" s="9">
+      <c r="E95" s="6">
         <v>1.6158100000000001E-11</v>
       </c>
-      <c r="F95" s="9">
+      <c r="F95" s="6">
         <v>1.3273000000000001E-8</v>
       </c>
       <c r="G95" t="s">
-        <v>133</v>
-      </c>
-      <c r="H95" s="9">
+        <v>132</v>
+      </c>
+      <c r="H95" s="6">
         <v>1.3305000000000001E-8</v>
       </c>
-      <c r="I95" s="9">
+      <c r="I95" s="6">
         <v>1.3256999999999999E-8</v>
       </c>
       <c r="J95" t="s">
-        <v>133</v>
-      </c>
-      <c r="K95" s="9">
+        <v>132</v>
+      </c>
+      <c r="K95" s="6">
         <v>1.3321000000000001E-8</v>
       </c>
-      <c r="L95" s="9">
+      <c r="L95" s="6">
         <v>1.3246999999999999E-8</v>
       </c>
       <c r="M95" t="s">
-        <v>133</v>
-      </c>
-      <c r="N95" s="9">
+        <v>132</v>
+      </c>
+      <c r="N95" s="6">
         <v>1.3332E-8</v>
       </c>
       <c r="O95">
@@ -5338,278 +5586,278 @@
     </row>
     <row r="96" spans="2:20">
       <c r="B96" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C96" t="s">
-        <v>285</v>
-      </c>
-      <c r="D96" s="9">
+        <v>277</v>
+      </c>
+      <c r="D96" s="6">
         <v>1.32892E-8</v>
       </c>
-      <c r="E96" s="9">
+      <c r="E96" s="6">
         <v>1.6176500000000002E-11</v>
       </c>
-      <c r="F96" s="9">
+      <c r="F96" s="6">
         <v>1.3273000000000001E-8</v>
       </c>
       <c r="G96" t="s">
-        <v>133</v>
-      </c>
-      <c r="H96" s="9">
+        <v>132</v>
+      </c>
+      <c r="H96" s="6">
         <v>1.3305000000000001E-8</v>
       </c>
-      <c r="I96" s="9">
+      <c r="I96" s="6">
         <v>1.3256999999999999E-8</v>
       </c>
       <c r="J96" t="s">
-        <v>133</v>
-      </c>
-      <c r="K96" s="9">
+        <v>132</v>
+      </c>
+      <c r="K96" s="6">
         <v>1.3321000000000001E-8</v>
       </c>
-      <c r="L96" s="9">
+      <c r="L96" s="6">
         <v>1.3246E-8</v>
       </c>
       <c r="M96" t="s">
-        <v>133</v>
-      </c>
-      <c r="N96" s="9">
+        <v>132</v>
+      </c>
+      <c r="N96" s="6">
         <v>1.3332E-8</v>
       </c>
     </row>
     <row r="98" spans="1:22">
       <c r="B98" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C98" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="D98" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E98" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F98" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="G98" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="100" spans="1:22">
       <c r="B100" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C100" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D100" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E100" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="102" spans="1:22">
       <c r="B102" t="s">
         <v>88</v>
       </c>
-      <c r="C102" s="9">
+      <c r="C102" s="6">
         <v>0.62302800000000003</v>
       </c>
-      <c r="D102" s="9">
+      <c r="D102" s="6">
         <v>5.5873100000000002E-2</v>
       </c>
-      <c r="E102" s="9">
+      <c r="E102" s="6">
         <v>0.32109900000000002</v>
       </c>
-      <c r="F102" s="9">
+      <c r="F102" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:22">
       <c r="B103" t="s">
-        <v>304</v>
-      </c>
-      <c r="C103" s="9">
+        <v>296</v>
+      </c>
+      <c r="C103" s="6">
         <v>2.1237700000000002E-8</v>
       </c>
-      <c r="D103" s="9">
+      <c r="D103" s="6">
         <v>2.3681599999999999E-7</v>
       </c>
-      <c r="E103" s="9">
+      <c r="E103" s="6">
         <v>4.1207400000000001E-8</v>
       </c>
-      <c r="F103" s="9">
+      <c r="F103" s="6">
         <v>1.3231699999999999E-8</v>
       </c>
     </row>
     <row r="104" spans="1:22">
       <c r="B104" t="s">
-        <v>305</v>
-      </c>
-      <c r="C104" s="9">
+        <v>297</v>
+      </c>
+      <c r="C104" s="6">
         <v>2.133E-8</v>
       </c>
-      <c r="D104" s="9">
+      <c r="D104" s="6">
         <v>2.37846E-7</v>
       </c>
-      <c r="E104" s="9">
+      <c r="E104" s="6">
         <v>4.1386499999999998E-8</v>
       </c>
-      <c r="F104" s="9">
+      <c r="F104" s="6">
         <v>1.32892E-8</v>
       </c>
     </row>
     <row r="106" spans="1:22">
       <c r="A106" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B106" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C106" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D106" t="s">
+        <v>217</v>
+      </c>
+      <c r="E106" t="s">
         <v>218</v>
       </c>
-      <c r="E106" t="s">
-        <v>219</v>
-      </c>
       <c r="F106" t="s">
+        <v>110</v>
+      </c>
+      <c r="G106" t="s">
         <v>111</v>
       </c>
-      <c r="G106" t="s">
-        <v>112</v>
-      </c>
       <c r="H106" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I106">
         <v>10</v>
       </c>
       <c r="J106" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="K106" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="L106" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="108" spans="1:22">
       <c r="B108" t="s">
+        <v>134</v>
+      </c>
+      <c r="C108" t="s">
+        <v>142</v>
+      </c>
+      <c r="D108" t="s">
+        <v>153</v>
+      </c>
+      <c r="E108" t="s">
+        <v>138</v>
+      </c>
+      <c r="F108" t="s">
+        <v>180</v>
+      </c>
+      <c r="G108" t="s">
+        <v>110</v>
+      </c>
+      <c r="H108" t="s">
+        <v>302</v>
+      </c>
+      <c r="I108" t="s">
         <v>135</v>
       </c>
-      <c r="C108" t="s">
-        <v>143</v>
-      </c>
-      <c r="D108" t="s">
-        <v>154</v>
-      </c>
-      <c r="E108" t="s">
-        <v>139</v>
-      </c>
-      <c r="F108" t="s">
-        <v>181</v>
-      </c>
-      <c r="G108" t="s">
-        <v>111</v>
-      </c>
-      <c r="H108" t="s">
-        <v>310</v>
-      </c>
-      <c r="I108" t="s">
-        <v>136</v>
-      </c>
       <c r="J108" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="K108" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L108" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M108" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="N108" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="O108" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P108" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="109" spans="1:22">
       <c r="B109" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C109" t="s">
+        <v>300</v>
+      </c>
+      <c r="D109" t="s">
+        <v>305</v>
+      </c>
+      <c r="E109" t="s">
+        <v>306</v>
+      </c>
+      <c r="F109" t="s">
+        <v>307</v>
+      </c>
+      <c r="G109" t="s">
         <v>308</v>
       </c>
-      <c r="D109" t="s">
-        <v>313</v>
-      </c>
-      <c r="E109" t="s">
-        <v>314</v>
-      </c>
-      <c r="F109" t="s">
-        <v>315</v>
-      </c>
-      <c r="G109" t="s">
-        <v>316</v>
-      </c>
       <c r="H109" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="I109" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="J109" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="K109" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="L109" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="M109" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="N109" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="O109" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="P109" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="Q109" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="R109" t="s">
-        <v>317</v>
-      </c>
-      <c r="S109" s="20">
+        <v>309</v>
+      </c>
+      <c r="S109" s="17">
         <v>0.95</v>
       </c>
       <c r="T109" t="s">
-        <v>209</v>
-      </c>
-      <c r="U109" s="20">
+        <v>208</v>
+      </c>
+      <c r="U109" s="17">
         <v>0.99</v>
       </c>
       <c r="V109" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="111" spans="1:22">
@@ -5620,7 +5868,7 @@
         <v>200</v>
       </c>
       <c r="D111" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E111">
         <v>0.98640000000000005</v>
@@ -5641,7 +5889,7 @@
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="K111" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="L111">
         <v>0.98660000000000003</v>
@@ -5650,10 +5898,10 @@
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="N111" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="O111" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
     </row>
     <row r="112" spans="1:22">
@@ -5664,7 +5912,7 @@
         <v>100</v>
       </c>
       <c r="D112" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E112">
         <v>0.98640000000000005</v>
@@ -5685,7 +5933,7 @@
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="K112" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="L112">
         <v>0.98660999999999999</v>
@@ -5694,10 +5942,10 @@
         <v>7.3999999999999999E-4</v>
       </c>
       <c r="N112" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="O112" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
     </row>
     <row r="113" spans="2:15">
@@ -5708,7 +5956,7 @@
         <v>50</v>
       </c>
       <c r="D113" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E113">
         <v>0.98640000000000005</v>
@@ -5729,7 +5977,7 @@
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="K113" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="L113">
         <v>0.98668999999999996</v>
@@ -5738,10 +5986,10 @@
         <v>7.6999999999999996E-4</v>
       </c>
       <c r="N113" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="O113" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
     </row>
     <row r="114" spans="2:15">
@@ -5752,7 +6000,7 @@
         <v>40</v>
       </c>
       <c r="D114" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E114">
         <v>0.98640000000000005</v>
@@ -5773,7 +6021,7 @@
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="K114" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="L114">
         <v>0.98677000000000004</v>
@@ -5782,10 +6030,10 @@
         <v>7.3999999999999999E-4</v>
       </c>
       <c r="N114" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="O114" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
     </row>
     <row r="115" spans="2:15">
@@ -5796,7 +6044,7 @@
         <v>25</v>
       </c>
       <c r="D115" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E115">
         <v>0.98640000000000005</v>
@@ -5817,7 +6065,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="K115" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="L115">
         <v>0.98660000000000003</v>
@@ -5826,10 +6074,10 @@
         <v>8.5999999999999998E-4</v>
       </c>
       <c r="N115" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="O115" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
     </row>
     <row r="116" spans="2:15">
@@ -5840,7 +6088,7 @@
         <v>20</v>
       </c>
       <c r="D116" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E116">
         <v>0.98640000000000005</v>
@@ -5861,7 +6109,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="K116" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="L116">
         <v>0.98655999999999999</v>
@@ -5870,10 +6118,10 @@
         <v>8.5999999999999998E-4</v>
       </c>
       <c r="N116" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="O116" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
     </row>
     <row r="117" spans="2:15">
@@ -5884,7 +6132,7 @@
         <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E117">
         <v>0.98640000000000005</v>
@@ -5905,7 +6153,7 @@
         <v>1E-3</v>
       </c>
       <c r="K117" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="L117">
         <v>0.98631999999999997</v>
@@ -5914,10 +6162,10 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="N117" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="O117" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
     </row>
     <row r="118" spans="2:15">
@@ -5928,7 +6176,7 @@
         <v>8</v>
       </c>
       <c r="D118" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E118">
         <v>0.98640000000000005</v>
@@ -5949,7 +6197,7 @@
         <v>1E-3</v>
       </c>
       <c r="K118" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="L118">
         <v>0.98628000000000005</v>
@@ -5958,10 +6206,10 @@
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="N118" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="O118" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
     </row>
     <row r="119" spans="2:15">
@@ -5972,7 +6220,7 @@
         <v>5</v>
       </c>
       <c r="D119" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E119">
         <v>0.98640000000000005</v>
@@ -5993,7 +6241,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="K119" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="L119">
         <v>0.98638000000000003</v>
@@ -6002,10 +6250,10 @@
         <v>6.7000000000000002E-4</v>
       </c>
       <c r="N119" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="O119" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
     </row>
     <row r="120" spans="2:15">
@@ -6016,7 +6264,7 @@
         <v>4</v>
       </c>
       <c r="D120" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E120">
         <v>0.98640000000000005</v>
@@ -6037,7 +6285,7 @@
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="K120" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="L120">
         <v>0.98946999999999996</v>
@@ -6046,15 +6294,15 @@
         <v>1.3600000000000001E-3</v>
       </c>
       <c r="N120" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="O120" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
     </row>
     <row r="121" spans="2:15">
       <c r="B121" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -6068,19 +6316,56 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.20703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.62890625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7890625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" location="Index!A1" display="Index"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
@@ -6089,7 +6374,8 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="25.7890625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.62890625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.89453125" customWidth="1"/>
     <col min="6" max="6" width="10.3671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6108,97 +6394,161 @@
         <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>365</v>
+        <v>426</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="B12" s="9"/>
+      <c r="B12" s="6"/>
       <c r="C12" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D12" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E12" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F12" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="B13" s="9"/>
+      <c r="B13" s="6"/>
       <c r="C13" t="s">
-        <v>326</v>
+        <v>367</v>
       </c>
       <c r="D13" t="s">
-        <v>268</v>
-      </c>
-      <c r="E13">
-        <v>18.8</v>
+        <v>366</v>
+      </c>
+      <c r="E13" s="21">
+        <v>1.176E-3</v>
       </c>
       <c r="F13" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="B14" s="9"/>
-      <c r="C14" t="s">
+      <c r="B14" s="6"/>
+      <c r="D14" t="s">
+        <v>368</v>
+      </c>
+      <c r="E14" s="21">
+        <v>8.2051000000000004E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" s="6"/>
+      <c r="D15" t="s">
+        <v>369</v>
+      </c>
+      <c r="E15" s="22">
+        <v>3.3620999999999998E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="D16" t="s">
+        <v>370</v>
+      </c>
+      <c r="E16" s="22">
+        <v>6.2210000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="6"/>
+      <c r="D17" t="s">
+        <v>371</v>
+      </c>
+      <c r="E17" s="22">
+        <v>2.5160999999999998E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="D18" t="s">
+        <v>372</v>
+      </c>
+      <c r="E18" s="21">
+        <v>9.9604999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="D19" t="s">
+        <v>373</v>
+      </c>
+      <c r="E19" s="21">
+        <v>2.7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="C20" t="s">
+        <v>374</v>
+      </c>
+      <c r="D20" t="s">
+        <v>378</v>
+      </c>
+      <c r="E20" s="20">
+        <v>70.2</v>
+      </c>
+      <c r="F20" t="s">
         <v>265</v>
       </c>
-      <c r="D14" t="s">
-        <v>268</v>
-      </c>
-      <c r="E14" s="23">
-        <v>15</v>
-      </c>
-      <c r="F14" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="B15" s="9"/>
-      <c r="C15" t="s">
-        <v>271</v>
-      </c>
-      <c r="D15" t="s">
-        <v>270</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="F15" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="C16" t="s">
-        <v>271</v>
-      </c>
-      <c r="D16" t="s">
-        <v>273</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="F16" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="9"/>
-      <c r="C17" t="s">
-        <v>324</v>
-      </c>
-      <c r="D17" t="s">
-        <v>325</v>
-      </c>
-      <c r="E17" s="14">
-        <f>E15+5</f>
-        <v>9.9349999999999987</v>
-      </c>
-      <c r="F17" t="s">
-        <v>272</v>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="C21" t="s">
+        <v>375</v>
+      </c>
+      <c r="D21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="20">
+        <v>12.7</v>
+      </c>
+      <c r="F21" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="C22" t="s">
+        <v>376</v>
+      </c>
+      <c r="D22" t="s">
+        <v>377</v>
+      </c>
+      <c r="E22" s="20">
+        <v>80</v>
+      </c>
+      <c r="F22" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="C23" t="s">
+        <v>379</v>
+      </c>
+      <c r="D23" t="s">
+        <v>380</v>
+      </c>
+      <c r="E23" s="20">
+        <v>4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="C24" t="s">
+        <v>381</v>
+      </c>
+      <c r="D24" t="s">
+        <v>382</v>
+      </c>
+      <c r="E24" s="20">
+        <v>0.15</v>
+      </c>
+      <c r="F24" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -6208,230 +6558,379 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H25" sqref="H18:H25"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.62890625" customWidth="1"/>
-    <col min="2" max="2" width="29.578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.47265625" customWidth="1"/>
+    <col min="1" max="1" width="6.578125" customWidth="1"/>
+    <col min="2" max="2" width="29.578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="8.83984375" style="23"/>
+    <col min="7" max="7" width="12.47265625" style="23" customWidth="1"/>
     <col min="8" max="8" width="41.83984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="9" spans="1:2">
+      <c r="B9" s="23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:2">
+      <c r="B10" s="24" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:2">
+      <c r="B11" s="25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:2">
+      <c r="B12" s="26" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="C17" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>366</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="19" t="str">
+      <c r="A18" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="16" t="str">
         <f>A18&amp;" "&amp;C18&amp;" "&amp;D18&amp;" "&amp;E18&amp;" "&amp;F18&amp;" "&amp;G18&amp;" "&amp;B18</f>
-        <v>c      UO2F2 Sol'n cylinder</v>
+        <v>c      Solution</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="19">
+      <c r="A19" s="16">
         <v>1</v>
       </c>
-      <c r="B19" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="24" t="s">
-        <v>373</v>
-      </c>
-      <c r="H19" s="19" t="str">
+      <c r="B19" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18">
+        <f>General!E21/2</f>
+        <v>6.35</v>
+      </c>
+      <c r="H19" s="16" t="str">
         <f>A19&amp;" "&amp;C19&amp;" "&amp;D19&amp;" "&amp;E19&amp;" "&amp;F19&amp;" "&amp;G19&amp;" "&amp;B19</f>
-        <v>1 cz    20.12 $ UO2F2 Soln</v>
+        <v>1 cz    6.35 $ soln radius</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="19">
+      <c r="A20" s="16">
         <v>2</v>
       </c>
-      <c r="B20" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="D20" s="19">
-        <v>0</v>
-      </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="19" t="str">
+      <c r="B20" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18">
+        <v>6.5</v>
+      </c>
+      <c r="H20" s="16" t="str">
         <f>A20&amp;" "&amp;C20&amp;" "&amp;D20&amp;" "&amp;E20&amp;" "&amp;F20&amp;" "&amp;G20&amp;" "&amp;B20</f>
-        <v>2 pz 0    $ Bottom of soln cylinder</v>
+        <v>2 cz    6.5 $ casing radius</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="19">
+      <c r="A21" s="16">
         <v>3</v>
       </c>
-      <c r="B21" s="19" t="s">
-        <v>371</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>372</v>
-      </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="19" t="str">
+      <c r="B21" s="18" t="s">
+        <v>393</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="G21" s="18"/>
+      <c r="H21" s="16" t="str">
         <f>A21&amp;" "&amp;C21&amp;" "&amp;D21&amp;" "&amp;E21&amp;" "&amp;F21&amp;" "&amp;G21&amp;" "&amp;B21</f>
-        <v>3 pz 100    $ Top of soln cylinder</v>
+        <v>3 pz   80  $ top of container</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" t="s">
-        <v>260</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>374</v>
-      </c>
-      <c r="G22" s="23"/>
-      <c r="H22" s="19" t="str">
-        <f t="shared" ref="H22:H25" si="0">A22&amp;" "&amp;C22&amp;" "&amp;D22&amp;" "&amp;E22&amp;" "&amp;F22&amp;" "&amp;G22&amp;" "&amp;B22</f>
-        <v>c      Case</v>
+      <c r="A22" s="19">
+        <v>4</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>351</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>399</v>
+      </c>
+      <c r="H22" s="16" t="str">
+        <f t="shared" ref="H22:H39" si="0">A22&amp;" "&amp;C22&amp;" "&amp;D22&amp;" "&amp;E22&amp;" "&amp;F22&amp;" "&amp;G22&amp;" "&amp;B22</f>
+        <v>4 pz   70.2  $ top of solution</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="19">
-        <v>4</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>375</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="G23" s="25">
-        <f>G19+0.1587</f>
-        <v>20.278700000000001</v>
-      </c>
-      <c r="H23" s="19" t="str">
+      <c r="A23" s="16">
+        <v>5</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="H23" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>4 cz    20.2787 $ Case</v>
+        <v>5 pz   0  $ bottom of solution</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="19">
-        <v>5</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>332</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="D24">
-        <v>-0.15870000000000001</v>
-      </c>
-      <c r="G24" s="23"/>
-      <c r="H24" s="19" t="str">
+      <c r="A24" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="H24" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>5 pz -0.1587    $ U Reflector bottom</v>
+        <v>c      Container</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="19">
+      <c r="A25" s="16">
         <v>6</v>
       </c>
-      <c r="B25" s="22" t="s">
-        <v>333</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="G25" s="23"/>
-      <c r="H25" s="19" t="str">
+      <c r="B25" s="28" t="s">
+        <v>395</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="H25" s="16" t="str">
+        <f>A25&amp;" "&amp;C25&amp;" "&amp;D25&amp;" "&amp;E25&amp;" "&amp;F25&amp;" "&amp;G25&amp;" "&amp;B25</f>
+        <v>6 pz   -0.15  $ bottom of container</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="16">
+        <v>7</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>398</v>
+      </c>
+      <c r="H26" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>6 pz 110    $ U Reflector top</v>
+        <v>7 pz   -20.15  $ bottom of tank</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="H27" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>c       Sides of tank</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="16">
+        <v>8</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>403</v>
+      </c>
+      <c r="H28" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>8 px -16.5    $ side of tank</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="16">
+        <v>9</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="H29" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>9 px 43.5    $ side of tank</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="16">
+        <v>10</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>407</v>
+      </c>
+      <c r="H30" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>10 py -26.5    $ side of tank</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="16">
+        <v>11</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="H31" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>11 py 26.5    $ side of tank</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="H32" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">      </v>
+      </c>
+    </row>
+    <row r="33" spans="8:8">
+      <c r="H33" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">      </v>
+      </c>
+    </row>
+    <row r="34" spans="8:8">
+      <c r="H34" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">      </v>
+      </c>
+    </row>
+    <row r="35" spans="8:8">
+      <c r="H35" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">      </v>
+      </c>
+    </row>
+    <row r="36" spans="8:8">
+      <c r="H36" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">      </v>
+      </c>
+    </row>
+    <row r="37" spans="8:8">
+      <c r="H37" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">      </v>
+      </c>
+    </row>
+    <row r="38" spans="8:8">
+      <c r="H38" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">      </v>
+      </c>
+    </row>
+    <row r="39" spans="8:8">
+      <c r="H39" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">      </v>
       </c>
     </row>
   </sheetData>
@@ -6441,194 +6940,224 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="H26" sqref="H20:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="15.83984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.9453125" customWidth="1"/>
-    <col min="7" max="7" width="9.7890625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83984375" style="10"/>
+    <col min="4" max="4" width="12.9453125" style="10" customWidth="1"/>
+    <col min="5" max="6" width="17.3671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7890625" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="I2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="H19" s="6" t="s">
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="C20" s="10">
+        <v>1</v>
+      </c>
+      <c r="D20" s="10">
+        <f>General!E18</f>
+        <v>9.9604999999999999E-2</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
-        <v>260</v>
-      </c>
-      <c r="B20" t="s">
-        <v>261</v>
       </c>
       <c r="H20" t="str">
         <f>A20&amp;" "&amp;C20&amp;" "&amp;D20&amp;" "&amp;E20&amp;" "&amp;F20&amp;" "&amp;G20&amp;" "&amp;B20</f>
-        <v>c      Cylinder</v>
+        <v>1 1 0.099605 -1 -4 5 u=3 imp:n=1 $ canister</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>380</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" s="26">
-        <v>9.6586000000000005E-2</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="G21" t="s">
-        <v>108</v>
+        <v>2</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" ref="H21:H26" si="0">A21&amp;" "&amp;C21&amp;" "&amp;D21&amp;" "&amp;E21&amp;" "&amp;F21&amp;" "&amp;G21&amp;" "&amp;B21</f>
-        <v>1 1 0.096586 -1 3 -4  imp:n=1 $ Solution</v>
+        <v>2 0  -1 4 u=3 imp:n=1 $ void region</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" t="s">
-        <v>260</v>
-      </c>
-      <c r="B22" t="s">
-        <v>381</v>
-      </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="13"/>
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>107</v>
+      </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
-        <v>c      Void + Al container</v>
+        <v>3 2 -2.7 1:-5 u=3 imp:n=1 $ Al container</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
-        <v>2</v>
-      </c>
-      <c r="B23" t="s">
-        <v>377</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="G23" t="s">
-        <v>108</v>
+        <v>4</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
-        <v>2 0  -1 4 -5  imp:n=1 $ Void top</v>
+        <v xml:space="preserve">4 0  -2 -3 6 fill=3 imp:n=1 </v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
-        <v>3</v>
-      </c>
-      <c r="B24" t="s">
-        <v>382</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24">
-        <v>-2.7</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="G24" t="s">
-        <v>108</v>
+        <v>5</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="0"/>
-        <v>3 2 -2.7 (1 -2 -5 3):(-2 -3 6)  imp:n=1 $ Container</v>
+        <v xml:space="preserve">5    like 4 but trcl (17 0 0) imp:n=1 </v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" t="s">
-        <v>260</v>
-      </c>
-      <c r="B25" t="s">
-        <v>262</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="13"/>
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>107</v>
+      </c>
       <c r="H25" t="str">
         <f t="shared" si="0"/>
-        <v>c      Universe</v>
+        <v xml:space="preserve">6 3 -1.0 10 -11 8 -9 7 -3 #4 #5  imp:n=1 </v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26">
-        <v>999</v>
-      </c>
-      <c r="B26" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>384</v>
-      </c>
-      <c r="G26" t="s">
-        <v>109</v>
+        <v>7</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="0"/>
-        <v>999 0  2:5:-6  imp:n=0 $ Void Universe</v>
+        <v xml:space="preserve">7 0  -10:11:-8:9:-7:3  imp:n=0 </v>
       </c>
     </row>
   </sheetData>
@@ -6636,8 +7165,9 @@
     <hyperlink ref="A2" location="Index!A1" display="Index"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -6646,7 +7176,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6740,33 +7270,33 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="72">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6780,7 +7310,7 @@
       <c r="C18">
         <v>5000</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="5">
         <v>1</v>
       </c>
       <c r="E18">
@@ -6809,7 +7339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
@@ -6881,31 +7411,31 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="I26" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6914,7 +7444,7 @@
         <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -6923,11 +7453,20 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>50</v>
+        <v>35</v>
+      </c>
+      <c r="F27">
+        <v>17</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>35</v>
       </c>
       <c r="I27" t="str">
-        <f>A27&amp;" "&amp;C27&amp;" "&amp;D27&amp;" "&amp;E27&amp;" "&amp;B27</f>
-        <v>ksrc 0 0 50 $ 1 point source @ (0,0,50)</v>
+        <f>A27&amp;" "&amp;C27&amp;" "&amp;D27&amp;" "&amp;E27&amp;" "&amp;F27&amp;" "&amp;G27&amp;" "&amp;H27&amp;" "&amp;B27</f>
+        <v>ksrc 0 0 35 17 0 35 $ 2 point sources @ (0,0,50) &amp; (17,0,35)</v>
       </c>
     </row>
   </sheetData>
@@ -6942,14 +7481,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
+    <col min="2" max="2" width="18.41796875" customWidth="1"/>
     <col min="3" max="3" width="11.47265625" customWidth="1"/>
     <col min="4" max="4" width="18.83984375" customWidth="1"/>
     <col min="5" max="5" width="15.3125" customWidth="1"/>
@@ -6983,394 +7523,615 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="str">
-        <f>A33</f>
+        <f>A44</f>
         <v>m1</v>
       </c>
-      <c r="B11" t="s">
-        <v>400</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
+      <c r="B11" t="str">
+        <f>C17</f>
+        <v>Material 1 - UO2F2</v>
       </c>
       <c r="E11" t="str">
-        <f>A11&amp;" "&amp;B33&amp;" "&amp;D11&amp;" "&amp;B11</f>
-        <v>m1 1001.62c 0.057058 8016.62c 0.032929 9019.62c 0.0043996 92238.66c 0.0020909 92235.66c 0.00010889 1 $ UO2F2</v>
+        <f>A11&amp;" "&amp;B44&amp;" "&amp;D11&amp;" "&amp;" "&amp;"$"&amp;" "&amp;B11</f>
+        <v>m1 1001.62c 0.06221 8016.62c 0.033621 9019.62c 0.0025161 92238.66c 0.001176 92235.66c 0.000082051   $ Material 1 - UO2F2</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="str">
-        <f>A34</f>
+        <f>A45</f>
         <v>m2</v>
       </c>
-      <c r="B12" t="s">
-        <v>399</v>
+      <c r="B12" t="str">
+        <f>C25</f>
+        <v>Material 2 - Al Case</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" ref="E12:E13" si="0">A12&amp;" "&amp;B34&amp;" "&amp;D12&amp;" "&amp;B12</f>
-        <v>m2 13027.62c   $ Al Case</v>
+        <f t="shared" ref="E12:E15" si="0">A12&amp;" "&amp;B45&amp;" "&amp;D12&amp;" "&amp;" "&amp;"$"&amp;" "&amp;B12</f>
+        <v>m2 13027.62c 1   $ Material 2 - Al Case</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="str">
-        <f>A35</f>
+        <f>A46</f>
         <v>mt1</v>
       </c>
-      <c r="B13" t="s">
-        <v>398</v>
+      <c r="B13" t="str">
+        <f>C29</f>
+        <v>Light Water</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
-        <v>mt1 lwtr.60t  $ Light Water</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
+        <v>mt1 lwtr.60t   $ Light Water</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="str">
+        <f>A47</f>
+        <v>m3</v>
+      </c>
+      <c r="B14" t="str">
+        <f>C33</f>
+        <v>Material 3 - H2O (water)</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>m3 1001.62c 2 8016.62c 1   $ Material 3 - H2O (water)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="str">
+        <f>A48</f>
+        <v>mt3</v>
+      </c>
+      <c r="B15" t="str">
+        <f>C38</f>
+        <v>Light Water</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>mt3 lwtr.60t   $ Light Water</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="6" t="s">
+      <c r="B17" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C17" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B18" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C18" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D18" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E18" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F18" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G18" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H18" s="9" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
-        <v>388</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>387</v>
-      </c>
-      <c r="E18" t="s">
-        <v>386</v>
-      </c>
-      <c r="F18" t="str">
-        <f>C18&amp;D18&amp;$F$16</f>
-        <v>1001</v>
-      </c>
-      <c r="G18" s="10">
-        <v>5.7057999999999998E-2</v>
-      </c>
-      <c r="H18" t="str">
-        <f>F18&amp;E18&amp;" "&amp;G18</f>
-        <v>1001.62c 0.057058</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>389</v>
+        <v>355</v>
       </c>
       <c r="C19">
-        <v>8</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>390</v>
+        <v>1</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>354</v>
       </c>
       <c r="E19" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="F19" t="str">
-        <f>C19&amp;D19&amp;$F$16</f>
-        <v>8016</v>
-      </c>
-      <c r="G19" s="9">
-        <v>3.2929E-2</v>
+        <f>C19&amp;D19&amp;$F$17</f>
+        <v>1001</v>
+      </c>
+      <c r="G19" s="7">
+        <v>6.2210000000000001E-2</v>
       </c>
       <c r="H19" t="str">
         <f>F19&amp;E19&amp;" "&amp;G19</f>
-        <v>8016.62c 0.032929</v>
+        <v>1001.62c 0.06221</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>391</v>
+        <v>356</v>
       </c>
       <c r="C20">
-        <v>9</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>392</v>
+        <v>8</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>357</v>
       </c>
       <c r="E20" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="F20" t="str">
-        <f>C20&amp;D20&amp;$F$16</f>
-        <v>9019</v>
-      </c>
-      <c r="G20" s="9">
-        <v>4.3996E-3</v>
+        <f>C20&amp;D20&amp;$F$17</f>
+        <v>8016</v>
+      </c>
+      <c r="G20" s="6">
+        <v>3.3620999999999998E-2</v>
       </c>
       <c r="H20" t="str">
-        <f t="shared" ref="H20:H22" si="1">F20&amp;E20&amp;" "&amp;G20</f>
-        <v>9019.62c 0.0043996</v>
+        <f>F20&amp;E20&amp;" "&amp;G20</f>
+        <v>8016.62c 0.033621</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>329</v>
+        <v>358</v>
       </c>
       <c r="C21">
-        <v>92</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>328</v>
+        <v>9</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>359</v>
       </c>
       <c r="E21" t="s">
-        <v>101</v>
+        <v>353</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" ref="F21:F22" si="2">C21&amp;D21&amp;$F$16</f>
-        <v>92238</v>
-      </c>
-      <c r="G21" s="9">
-        <v>2.0909000000000001E-3</v>
+        <f>C21&amp;D21&amp;$F$17</f>
+        <v>9019</v>
+      </c>
+      <c r="G21" s="6">
+        <v>2.5160999999999998E-3</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" si="1"/>
-        <v>92238.66c 0.0020909</v>
+        <f t="shared" ref="H21:H23" si="1">F21&amp;E21&amp;" "&amp;G21</f>
+        <v>9019.62c 0.0025161</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="C22">
         <v>92</v>
       </c>
-      <c r="D22" s="14" t="s">
-        <v>331</v>
+      <c r="D22" s="11" t="s">
+        <v>315</v>
       </c>
       <c r="E22" t="s">
         <v>101</v>
       </c>
       <c r="F22" t="str">
+        <f t="shared" ref="F22:F23" si="2">C22&amp;D22&amp;$F$17</f>
+        <v>92238</v>
+      </c>
+      <c r="G22" s="6">
+        <v>1.176E-3</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="1"/>
+        <v>92238.66c 0.001176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>317</v>
+      </c>
+      <c r="C23">
+        <v>92</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="E23" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" t="str">
         <f t="shared" si="2"/>
         <v>92235</v>
       </c>
-      <c r="G22" s="9">
-        <v>1.0889E-4</v>
-      </c>
-      <c r="H22" t="str">
+      <c r="G23" s="6">
+        <v>8.2051000000000004E-5</v>
+      </c>
+      <c r="H23" t="str">
         <f t="shared" si="1"/>
-        <v>92235.66c 0.00010889</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="D23" s="14"/>
-      <c r="F23" s="10"/>
+        <v>92235.66c 0.000082051</v>
+      </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" t="s">
-        <v>327</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>403</v>
-      </c>
+      <c r="D24" s="11"/>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="6" t="s">
+      <c r="A25" t="s">
+        <v>314</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C25" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B26" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C26" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D26" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E26" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F26" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G26" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="H25" s="12" t="s">
+      <c r="H26" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26">
+    <row r="27" spans="1:8">
+      <c r="A27">
         <v>1</v>
       </c>
-      <c r="B26" t="s">
-        <v>396</v>
-      </c>
-      <c r="C26">
+      <c r="B27" t="s">
+        <v>363</v>
+      </c>
+      <c r="C27">
         <v>13</v>
       </c>
-      <c r="D26" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="E26" t="s">
-        <v>386</v>
-      </c>
-      <c r="F26" t="str">
-        <f>C26&amp;D26&amp;$F$16</f>
+      <c r="D27" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="E27" t="s">
+        <v>353</v>
+      </c>
+      <c r="F27" t="str">
+        <f>C27&amp;D27&amp;$F$17</f>
         <v>13027</v>
       </c>
-      <c r="G26" s="10"/>
-      <c r="H26" t="str">
-        <f>F26&amp;E26&amp;" "&amp;G26</f>
-        <v xml:space="preserve">13027.62c </v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" t="s">
-        <v>393</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>402</v>
+      <c r="G27" s="7">
+        <v>1</v>
+      </c>
+      <c r="H27" t="str">
+        <f>F27&amp;E27&amp;" "&amp;G27</f>
+        <v>13027.62c 1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="6" t="s">
+      <c r="A29" t="s">
+        <v>360</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C29" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B30" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C30" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D30" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E30" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F30" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G30" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="H29" s="12" t="s">
+      <c r="H30" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30">
+    <row r="31" spans="1:8">
+      <c r="A31">
         <v>1</v>
       </c>
-      <c r="B30" t="s">
-        <v>395</v>
-      </c>
-      <c r="D30" s="14"/>
-      <c r="E30" t="s">
-        <v>385</v>
-      </c>
-      <c r="F30" t="str">
-        <f>C30&amp;D30&amp;$F$16</f>
+      <c r="B31" t="s">
+        <v>362</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" t="s">
+        <v>352</v>
+      </c>
+      <c r="F31" t="str">
+        <f>C31&amp;D31&amp;$F$17</f>
         <v/>
       </c>
-      <c r="G30" s="10"/>
-      <c r="H30" t="s">
-        <v>394</v>
+      <c r="G31" s="7"/>
+      <c r="H31" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="6" t="s">
+      <c r="D32" s="11"/>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>427</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C33" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>355</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="E35" t="s">
+        <v>353</v>
+      </c>
+      <c r="F35" t="str">
+        <f>C35&amp;D35&amp;$F$17</f>
+        <v>1001</v>
+      </c>
+      <c r="G35" s="11">
+        <v>2</v>
+      </c>
+      <c r="H35" t="str">
+        <f>F35&amp;E35&amp;" "&amp;G35</f>
+        <v>1001.62c 2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>356</v>
+      </c>
+      <c r="C36">
+        <v>8</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="E36" t="s">
+        <v>353</v>
+      </c>
+      <c r="F36" t="str">
+        <f>C36&amp;D36&amp;$F$17</f>
+        <v>8016</v>
+      </c>
+      <c r="G36" s="11">
+        <v>1</v>
+      </c>
+      <c r="H36" t="str">
+        <f>F36&amp;E36&amp;" "&amp;G36</f>
+        <v>8016.62c 1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="D37" s="11"/>
+      <c r="G37" s="11"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>428</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C38" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>362</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" t="s">
+        <v>352</v>
+      </c>
+      <c r="F40" t="str">
+        <f>C40&amp;D40&amp;$F$17</f>
+        <v/>
+      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="D41" s="11"/>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="str">
-        <f>A16</f>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="str">
+        <f>A17</f>
         <v>m1</v>
       </c>
-      <c r="B33" t="str">
-        <f>H18&amp;" "&amp;H19&amp;" "&amp;H20&amp;" "&amp;H21&amp;" "&amp;H22</f>
-        <v>1001.62c 0.057058 8016.62c 0.032929 9019.62c 0.0043996 92238.66c 0.0020909 92235.66c 0.00010889</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="str">
-        <f>A24</f>
+      <c r="B44" t="str">
+        <f>H19&amp;" "&amp;H20&amp;" "&amp;H21&amp;" "&amp;H22&amp;" "&amp;H23</f>
+        <v>1001.62c 0.06221 8016.62c 0.033621 9019.62c 0.0025161 92238.66c 0.001176 92235.66c 0.000082051</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="str">
+        <f>A25</f>
         <v>m2</v>
       </c>
-      <c r="B34" t="str">
-        <f>H26</f>
-        <v xml:space="preserve">13027.62c </v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="str">
-        <f>A28</f>
+      <c r="B45" t="str">
+        <f>H27</f>
+        <v>13027.62c 1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="str">
+        <f>A29</f>
         <v>mt1</v>
       </c>
-      <c r="B35" t="str">
-        <f>H30</f>
+      <c r="B46" t="str">
+        <f>H31</f>
+        <v>lwtr.60t</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="str">
+        <f>A33</f>
+        <v>m3</v>
+      </c>
+      <c r="B47" t="str">
+        <f>H35&amp;" "&amp;H36</f>
+        <v>1001.62c 2 8016.62c 1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="str">
+        <f>A38</f>
+        <v>mt3</v>
+      </c>
+      <c r="B48" t="str">
+        <f>H40</f>
         <v>lwtr.60t</v>
       </c>
     </row>

--- a/MCNP Example Runs/Ex4-3/Ex4-3.xlsx
+++ b/MCNP Example Runs/Ex4-3/Ex4-3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14388" windowHeight="3960" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14388" windowHeight="3960" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="6" r:id="rId1"/>
@@ -525,7 +525,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="454">
   <si>
     <t>Index</t>
   </si>
@@ -814,9 +814,6 @@
     <t>Element</t>
   </si>
   <si>
-    <t>Pu</t>
-  </si>
-  <si>
     <t>A-number</t>
   </si>
   <si>
@@ -1492,90 +1489,6 @@
     <t>Top View</t>
   </si>
   <si>
-    <t>Ex2-5:</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>metal</t>
-  </si>
-  <si>
-    <t>cylinder</t>
-  </si>
-  <si>
-    <t>U-reflector</t>
-  </si>
-  <si>
-    <t>#2</t>
-  </si>
-  <si>
-    <t>0.98730,</t>
-  </si>
-  <si>
-    <t>0.98799,</t>
-  </si>
-  <si>
-    <t>0.98521-0.98799</t>
-  </si>
-  <si>
-    <t>0.98476-0.98844</t>
-  </si>
-  <si>
-    <t>0.98513-0.98808</t>
-  </si>
-  <si>
-    <t>0.98465-0.98857</t>
-  </si>
-  <si>
-    <t>0.98513-0.98824</t>
-  </si>
-  <si>
-    <t>0.98461-0.98877</t>
-  </si>
-  <si>
-    <t>0.98527-0.98828</t>
-  </si>
-  <si>
-    <t>0.98475-0.98879</t>
-  </si>
-  <si>
-    <t>0.98481-0.98839</t>
-  </si>
-  <si>
-    <t>0.98417-0.98903</t>
-  </si>
-  <si>
-    <t>0.98474-0.98838</t>
-  </si>
-  <si>
-    <t>0.98407-0.98906</t>
-  </si>
-  <si>
-    <t>0.98372-0.98893</t>
-  </si>
-  <si>
-    <t>0.98247-0.99017</t>
-  </si>
-  <si>
-    <t>0.98319-0.98937</t>
-  </si>
-  <si>
-    <t>0.98144-0.99112</t>
-  </si>
-  <si>
-    <t>0.98349-0.98926</t>
-  </si>
-  <si>
-    <t>0.97972-0.99303</t>
-  </si>
-  <si>
-    <t>0.97218-1.00676</t>
-  </si>
-  <si>
-    <t>0.90288-1.07606</t>
-  </si>
-  <si>
     <t>Notes: MCNP6 Primer Ex 3-4 (v0-1)</t>
   </si>
   <si>
@@ -1829,6 +1742,153 @@
   </si>
   <si>
     <t>Material 1 - UO2F2</t>
+  </si>
+  <si>
+    <t>mcnp6 cmd prompt</t>
+  </si>
+  <si>
+    <t>MCNP version</t>
+  </si>
+  <si>
+    <t>file name</t>
+  </si>
+  <si>
+    <t>file extension</t>
+  </si>
+  <si>
+    <t>Ex4-3</t>
+  </si>
+  <si>
+    <t>.i</t>
+  </si>
+  <si>
+    <t>multithread number</t>
+  </si>
+  <si>
+    <t>cmd line</t>
+  </si>
+  <si>
+    <t>mcnp6</t>
+  </si>
+  <si>
+    <t>$ void universe</t>
+  </si>
+  <si>
+    <t>Repeated</t>
+  </si>
+  <si>
+    <t>structures,</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>cylinders</t>
+  </si>
+  <si>
+    <t>print</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>off:</t>
+  </si>
+  <si>
+    <t>cannot</t>
+  </si>
+  <si>
+    <t>determine</t>
+  </si>
+  <si>
+    <t>repeated</t>
+  </si>
+  <si>
+    <t>structures</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>lattice</t>
+  </si>
+  <si>
+    <t>elements</t>
+  </si>
+  <si>
+    <t>sampled.</t>
+  </si>
+  <si>
+    <t>0.58418,</t>
+  </si>
+  <si>
+    <t>0.58480,</t>
+  </si>
+  <si>
+    <t>0.58234-0.58480</t>
+  </si>
+  <si>
+    <t>0.58193-0.58520</t>
+  </si>
+  <si>
+    <t>0.58225-0.58493</t>
+  </si>
+  <si>
+    <t>0.58182-0.58537</t>
+  </si>
+  <si>
+    <t>0.58253-0.58461</t>
+  </si>
+  <si>
+    <t>0.58218-0.58495</t>
+  </si>
+  <si>
+    <t>0.58247-0.58476</t>
+  </si>
+  <si>
+    <t>0.58208-0.58515</t>
+  </si>
+  <si>
+    <t>0.58261-0.58467</t>
+  </si>
+  <si>
+    <t>0.58223-0.58505</t>
+  </si>
+  <si>
+    <t>0.58257-0.58491</t>
+  </si>
+  <si>
+    <t>0.58213-0.58535</t>
+  </si>
+  <si>
+    <t>0.58227-0.58521</t>
+  </si>
+  <si>
+    <t>0.58157-0.58592</t>
+  </si>
+  <si>
+    <t>0.58132-0.58565</t>
+  </si>
+  <si>
+    <t>0.58009-0.58688</t>
+  </si>
+  <si>
+    <t>0.58029-0.58739</t>
+  </si>
+  <si>
+    <t>0.57565-0.59203</t>
+  </si>
+  <si>
+    <t>0.57692-0.59021</t>
+  </si>
+  <si>
+    <t>0.55030-0.61683</t>
+  </si>
+  <si>
+    <t>std deviation</t>
+  </si>
+  <si>
+    <t>k_eff</t>
   </si>
 </sst>
 </file>
@@ -1838,7 +1898,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000E+00"/>
-    <numFmt numFmtId="168" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="166" formatCode="0.0000E+00"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -1983,7 +2043,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -2017,8 +2077,8 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2040,6 +2100,8 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -2671,17 +2733,17 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>601981</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>43891</xdr:rowOff>
+      <xdr:colOff>609981</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2694,8 +2756,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1" y="914400"/>
-          <a:ext cx="2522220" cy="2421331"/>
+          <a:off x="1" y="914401"/>
+          <a:ext cx="2530220" cy="2617469"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2707,19 +2769,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>175521</xdr:rowOff>
+      <xdr:colOff>603713</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2732,8 +2794,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3840481" y="914400"/>
-          <a:ext cx="2491739" cy="2370081"/>
+          <a:off x="3840480" y="914400"/>
+          <a:ext cx="2523953" cy="2583180"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3082,7 +3144,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -3209,14 +3271,14 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3226,10 +3288,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>318</v>
+      </c>
+      <c r="G4" t="s">
         <v>319</v>
-      </c>
-      <c r="G4" t="s">
-        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -3243,10 +3305,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y121"/>
+  <dimension ref="A1:Y123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="Q46" sqref="Q46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3259,11 +3321,25 @@
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="D2" s="2">
+        <f>J46</f>
+        <v>0.58357000000000003</v>
+      </c>
+      <c r="E2" s="2">
+        <f>Q46</f>
+        <v>6.2E-4</v>
+      </c>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
@@ -3272,3045 +3348,3155 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" t="s">
         <v>110</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>111</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>409</v>
+      </c>
+      <c r="E10" t="s">
+        <v>415</v>
+      </c>
+      <c r="F10" t="s">
+        <v>416</v>
+      </c>
+      <c r="G10" t="s">
+        <v>417</v>
+      </c>
+      <c r="H10" t="s">
+        <v>418</v>
+      </c>
+      <c r="I10" t="s">
         <v>112</v>
       </c>
-      <c r="D10" t="s">
-        <v>321</v>
-      </c>
-      <c r="E10" t="s">
-        <v>322</v>
-      </c>
-      <c r="F10" t="s">
-        <v>95</v>
-      </c>
-      <c r="G10" t="s">
-        <v>323</v>
-      </c>
-      <c r="H10" t="s">
-        <v>324</v>
-      </c>
-      <c r="I10" t="s">
-        <v>139</v>
-      </c>
       <c r="J10" t="s">
-        <v>325</v>
-      </c>
-      <c r="K10" t="s">
-        <v>326</v>
-      </c>
-      <c r="L10" t="s">
         <v>113</v>
       </c>
-      <c r="M10" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="N10" s="12">
-        <v>40012</v>
-      </c>
-      <c r="O10" s="13">
-        <v>0.9140625</v>
-      </c>
+      <c r="K10" s="12">
+        <v>40043</v>
+      </c>
+      <c r="L10" s="13">
+        <v>0.55737268518518512</v>
+      </c>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="13"/>
     </row>
     <row r="13" spans="1:23">
       <c r="B13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" t="s">
         <v>115</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>116</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>117</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>118</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>119</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>120</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
+        <v>114</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13" t="s">
+        <v>118</v>
+      </c>
+      <c r="L13" t="s">
         <v>121</v>
       </c>
-      <c r="I13" t="s">
-        <v>115</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13" t="s">
-        <v>119</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>122</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>123</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>124</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>125</v>
       </c>
-      <c r="P13" t="s">
-        <v>126</v>
-      </c>
       <c r="Q13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R13" t="s">
         <v>65</v>
       </c>
       <c r="S13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:23">
       <c r="B14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" t="s">
         <v>128</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>129</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>130</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>131</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>132</v>
-      </c>
-      <c r="H14" t="s">
-        <v>133</v>
       </c>
       <c r="I14">
         <v>50</v>
       </c>
       <c r="J14" t="s">
+        <v>133</v>
+      </c>
+      <c r="K14" t="s">
         <v>134</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>135</v>
-      </c>
-      <c r="L14" t="s">
-        <v>136</v>
       </c>
       <c r="M14" t="s">
         <v>13</v>
       </c>
       <c r="N14" t="s">
+        <v>136</v>
+      </c>
+      <c r="O14" t="s">
         <v>137</v>
-      </c>
-      <c r="O14" t="s">
-        <v>138</v>
       </c>
       <c r="P14">
         <v>250</v>
       </c>
       <c r="Q14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R14" t="s">
+        <v>138</v>
+      </c>
+      <c r="S14" t="s">
         <v>139</v>
-      </c>
-      <c r="S14" t="s">
-        <v>140</v>
       </c>
       <c r="T14">
         <v>5000</v>
       </c>
       <c r="U14" t="s">
+        <v>140</v>
+      </c>
+      <c r="V14" t="s">
         <v>141</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>142</v>
-      </c>
-      <c r="W14" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="B15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" t="s">
         <v>144</v>
       </c>
-      <c r="C15" t="s">
-        <v>129</v>
-      </c>
-      <c r="D15" t="s">
-        <v>145</v>
-      </c>
       <c r="E15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F15">
         <v>50</v>
       </c>
       <c r="G15" t="s">
+        <v>145</v>
+      </c>
+      <c r="H15" t="s">
+        <v>133</v>
+      </c>
+      <c r="I15" t="s">
+        <v>138</v>
+      </c>
+      <c r="J15">
+        <v>247363</v>
+      </c>
+      <c r="K15" t="s">
+        <v>117</v>
+      </c>
+      <c r="L15" t="s">
         <v>146</v>
       </c>
-      <c r="H15" t="s">
+      <c r="M15" t="s">
         <v>134</v>
-      </c>
-      <c r="I15" t="s">
-        <v>139</v>
-      </c>
-      <c r="J15">
-        <v>250412</v>
-      </c>
-      <c r="K15" t="s">
-        <v>118</v>
-      </c>
-      <c r="L15" t="s">
-        <v>147</v>
-      </c>
-      <c r="M15" t="s">
-        <v>135</v>
       </c>
       <c r="N15">
         <v>200</v>
       </c>
       <c r="O15" t="s">
+        <v>147</v>
+      </c>
+      <c r="P15" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>138</v>
+      </c>
+      <c r="R15">
+        <v>1001822</v>
+      </c>
+      <c r="S15" t="s">
+        <v>117</v>
+      </c>
+      <c r="T15" t="s">
         <v>148</v>
-      </c>
-      <c r="P15" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>139</v>
-      </c>
-      <c r="R15">
-        <v>1000162</v>
-      </c>
-      <c r="S15" t="s">
-        <v>118</v>
-      </c>
-      <c r="T15" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="18" spans="2:20">
       <c r="B18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" t="s">
         <v>144</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>150</v>
       </c>
-      <c r="D18" t="s">
-        <v>145</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" t="s">
         <v>151</v>
       </c>
-      <c r="F18" t="s">
-        <v>115</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>152</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
+        <v>137</v>
+      </c>
+      <c r="J18" t="s">
+        <v>109</v>
+      </c>
+      <c r="K18" t="s">
+        <v>133</v>
+      </c>
+      <c r="L18" t="s">
         <v>153</v>
-      </c>
-      <c r="I18" t="s">
-        <v>138</v>
-      </c>
-      <c r="J18" t="s">
-        <v>110</v>
-      </c>
-      <c r="K18" t="s">
-        <v>134</v>
-      </c>
-      <c r="L18" t="s">
-        <v>154</v>
       </c>
       <c r="M18" t="s">
         <v>13</v>
       </c>
       <c r="N18" t="s">
+        <v>136</v>
+      </c>
+      <c r="O18" t="s">
         <v>137</v>
       </c>
-      <c r="O18" t="s">
-        <v>138</v>
-      </c>
       <c r="P18">
-        <v>1250574</v>
+        <v>1249185</v>
       </c>
       <c r="Q18" t="s">
+        <v>116</v>
+      </c>
+      <c r="R18" t="s">
         <v>117</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
         <v>118</v>
       </c>
-      <c r="S18" t="s">
-        <v>119</v>
-      </c>
       <c r="T18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="2:20">
       <c r="B19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" t="s">
         <v>155</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19" t="s">
         <v>156</v>
       </c>
-      <c r="D19" t="s">
-        <v>139</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>157</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" t="s">
         <v>158</v>
       </c>
-      <c r="G19" t="s">
-        <v>124</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
+        <v>134</v>
+      </c>
+      <c r="J19" t="s">
         <v>159</v>
       </c>
-      <c r="I19" t="s">
-        <v>135</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L19" t="s">
+        <v>117</v>
+      </c>
+      <c r="M19" t="s">
+        <v>118</v>
+      </c>
+      <c r="N19" t="s">
         <v>160</v>
-      </c>
-      <c r="K19" t="s">
-        <v>117</v>
-      </c>
-      <c r="L19" t="s">
-        <v>118</v>
-      </c>
-      <c r="M19" t="s">
-        <v>119</v>
-      </c>
-      <c r="N19" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="22" spans="2:20">
       <c r="B22" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="23" spans="2:20">
-      <c r="B23" t="s">
-        <v>162</v>
-      </c>
-      <c r="C23" t="s">
-        <v>163</v>
-      </c>
-      <c r="D23" t="s">
-        <v>164</v>
-      </c>
-      <c r="E23" t="s">
-        <v>165</v>
-      </c>
-      <c r="F23" t="s">
-        <v>166</v>
-      </c>
-      <c r="G23" t="s">
-        <v>115</v>
-      </c>
-      <c r="H23" t="s">
-        <v>167</v>
-      </c>
-      <c r="I23" t="s">
-        <v>168</v>
-      </c>
-      <c r="J23" t="s">
-        <v>138</v>
-      </c>
-      <c r="K23" t="s">
-        <v>169</v>
+        <v>419</v>
+      </c>
+      <c r="C22" t="s">
+        <v>420</v>
+      </c>
+      <c r="D22">
+        <v>128</v>
+      </c>
+      <c r="E22" t="s">
+        <v>421</v>
+      </c>
+      <c r="F22" t="s">
+        <v>422</v>
+      </c>
+      <c r="G22" t="s">
+        <v>423</v>
+      </c>
+      <c r="H22" t="s">
+        <v>279</v>
+      </c>
+      <c r="I22" t="s">
+        <v>154</v>
+      </c>
+      <c r="J22" t="s">
+        <v>424</v>
+      </c>
+      <c r="K22" t="s">
+        <v>425</v>
+      </c>
+      <c r="L22" t="s">
+        <v>426</v>
+      </c>
+      <c r="M22" t="s">
+        <v>427</v>
+      </c>
+      <c r="N22" t="s">
+        <v>428</v>
+      </c>
+      <c r="O22" t="s">
+        <v>123</v>
+      </c>
+      <c r="P22" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="24" spans="2:20">
-      <c r="B24" t="s">
-        <v>162</v>
-      </c>
-      <c r="C24" t="s">
-        <v>170</v>
-      </c>
-      <c r="D24" s="6">
-        <v>4.2</v>
-      </c>
-      <c r="E24" t="s">
-        <v>139</v>
-      </c>
-      <c r="F24" t="s">
-        <v>171</v>
-      </c>
-      <c r="G24" t="s">
-        <v>172</v>
-      </c>
-      <c r="H24" s="6">
-        <v>3.2399999999999998E-2</v>
-      </c>
+      <c r="D24" s="6"/>
+      <c r="H24" s="6"/>
     </row>
     <row r="25" spans="2:20">
       <c r="B25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="2:20">
       <c r="B26" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" t="s">
         <v>162</v>
+      </c>
+      <c r="D26" t="s">
+        <v>163</v>
+      </c>
+      <c r="E26" t="s">
+        <v>164</v>
+      </c>
+      <c r="F26" t="s">
+        <v>165</v>
+      </c>
+      <c r="G26" t="s">
+        <v>114</v>
+      </c>
+      <c r="H26" t="s">
+        <v>166</v>
+      </c>
+      <c r="I26" t="s">
+        <v>167</v>
+      </c>
+      <c r="J26" t="s">
+        <v>137</v>
+      </c>
+      <c r="K26" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="2:20">
       <c r="B27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C27" t="s">
-        <v>173</v>
-      </c>
-      <c r="D27">
-        <v>3</v>
+        <v>169</v>
+      </c>
+      <c r="D27" s="6">
+        <v>6.44</v>
       </c>
       <c r="E27" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="F27" t="s">
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="G27" t="s">
-        <v>175</v>
-      </c>
-      <c r="H27" t="s">
-        <v>176</v>
-      </c>
-      <c r="I27" t="s">
-        <v>177</v>
-      </c>
-      <c r="J27" t="s">
-        <v>164</v>
+        <v>171</v>
+      </c>
+      <c r="H27" s="6">
+        <v>2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="28" spans="2:20">
       <c r="B28" t="s">
-        <v>162</v>
-      </c>
-      <c r="C28" t="s">
-        <v>165</v>
-      </c>
-      <c r="D28" t="s">
-        <v>178</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28" t="s">
-        <v>179</v>
-      </c>
-      <c r="G28" t="s">
-        <v>138</v>
-      </c>
-      <c r="H28" t="s">
-        <v>115</v>
-      </c>
-      <c r="I28" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="2:20">
       <c r="B29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C29" t="s">
-        <v>165</v>
-      </c>
-      <c r="D29" t="s">
-        <v>166</v>
-      </c>
-      <c r="E29" t="s">
-        <v>115</v>
-      </c>
-      <c r="F29" t="s">
-        <v>167</v>
-      </c>
-      <c r="G29" t="s">
-        <v>168</v>
-      </c>
-      <c r="H29" t="s">
-        <v>138</v>
-      </c>
-      <c r="I29" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="2:20">
       <c r="B30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C30" t="s">
-        <v>182</v>
-      </c>
-      <c r="D30" t="s">
-        <v>183</v>
+        <v>172</v>
+      </c>
+      <c r="D30">
+        <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="F30" t="s">
-        <v>184</v>
+        <v>114</v>
       </c>
       <c r="G30" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="H30" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="I30" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="J30" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="2:20">
       <c r="B31" t="s">
-        <v>162</v>
+        <v>161</v>
+      </c>
+      <c r="C31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D31" t="s">
+        <v>177</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>178</v>
+      </c>
+      <c r="G31" t="s">
+        <v>137</v>
+      </c>
+      <c r="H31" t="s">
+        <v>114</v>
+      </c>
+      <c r="I31" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="2:20">
       <c r="B32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>164</v>
       </c>
       <c r="D32" t="s">
         <v>165</v>
       </c>
       <c r="E32" t="s">
-        <v>188</v>
+        <v>114</v>
       </c>
       <c r="F32" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="G32" t="s">
-        <v>190</v>
+        <v>167</v>
+      </c>
+      <c r="H32" t="s">
+        <v>137</v>
+      </c>
+      <c r="I32" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="2:24">
       <c r="B33" t="s">
-        <v>162</v>
+        <v>161</v>
+      </c>
+      <c r="C33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D33" t="s">
+        <v>182</v>
+      </c>
+      <c r="E33" t="s">
+        <v>143</v>
+      </c>
+      <c r="F33" t="s">
+        <v>183</v>
+      </c>
+      <c r="G33" t="s">
+        <v>133</v>
+      </c>
+      <c r="H33" t="s">
+        <v>184</v>
+      </c>
+      <c r="I33" t="s">
+        <v>185</v>
+      </c>
+      <c r="J33" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="2:24">
       <c r="B34" t="s">
-        <v>115</v>
-      </c>
-      <c r="C34" t="s">
-        <v>111</v>
-      </c>
-      <c r="D34" t="s">
-        <v>138</v>
-      </c>
-      <c r="E34" t="s">
-        <v>115</v>
-      </c>
-      <c r="F34" t="s">
-        <v>191</v>
-      </c>
-      <c r="G34" t="s">
-        <v>192</v>
-      </c>
-      <c r="H34" t="s">
-        <v>166</v>
-      </c>
-      <c r="I34" t="s">
-        <v>193</v>
-      </c>
-      <c r="J34" t="s">
-        <v>194</v>
-      </c>
-      <c r="K34" t="s">
-        <v>132</v>
-      </c>
-      <c r="L34" t="s">
-        <v>115</v>
-      </c>
-      <c r="M34" t="s">
-        <v>195</v>
-      </c>
-      <c r="N34" t="s">
-        <v>196</v>
-      </c>
-      <c r="O34" t="s">
-        <v>197</v>
-      </c>
-      <c r="P34" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>198</v>
-      </c>
-      <c r="R34" t="s">
-        <v>110</v>
-      </c>
-      <c r="S34" t="s">
-        <v>176</v>
-      </c>
-      <c r="T34" t="s">
-        <v>199</v>
-      </c>
-      <c r="U34" t="s">
-        <v>200</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24">
+      <c r="B35" t="s">
+        <v>161</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>164</v>
+      </c>
+      <c r="E35" t="s">
+        <v>187</v>
+      </c>
+      <c r="F35" t="s">
+        <v>188</v>
+      </c>
+      <c r="G35" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="2:24">
       <c r="B36" t="s">
-        <v>115</v>
-      </c>
-      <c r="C36" t="s">
-        <v>201</v>
-      </c>
-      <c r="D36" t="s">
-        <v>202</v>
-      </c>
-      <c r="E36" t="s">
-        <v>176</v>
-      </c>
-      <c r="F36" t="s">
-        <v>199</v>
-      </c>
-      <c r="G36" t="s">
-        <v>203</v>
-      </c>
-      <c r="H36" t="s">
-        <v>204</v>
-      </c>
-      <c r="I36" t="s">
-        <v>205</v>
-      </c>
-      <c r="J36" t="s">
-        <v>206</v>
-      </c>
-      <c r="K36" t="s">
-        <v>115</v>
-      </c>
-      <c r="L36">
-        <v>95</v>
-      </c>
-      <c r="M36" t="s">
-        <v>207</v>
-      </c>
-      <c r="N36" t="s">
-        <v>208</v>
-      </c>
-      <c r="O36" t="s">
-        <v>209</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="2:24">
       <c r="B37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C37" t="s">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c r="D37" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
       <c r="E37" t="s">
+        <v>114</v>
+      </c>
+      <c r="F37" t="s">
+        <v>190</v>
+      </c>
+      <c r="G37" t="s">
+        <v>191</v>
+      </c>
+      <c r="H37" t="s">
+        <v>165</v>
+      </c>
+      <c r="I37" t="s">
+        <v>192</v>
+      </c>
+      <c r="J37" t="s">
+        <v>193</v>
+      </c>
+      <c r="K37" t="s">
+        <v>131</v>
+      </c>
+      <c r="L37" t="s">
+        <v>114</v>
+      </c>
+      <c r="M37" t="s">
+        <v>194</v>
+      </c>
+      <c r="N37" t="s">
+        <v>195</v>
+      </c>
+      <c r="O37" t="s">
+        <v>196</v>
+      </c>
+      <c r="P37" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>197</v>
+      </c>
+      <c r="R37" t="s">
+        <v>109</v>
+      </c>
+      <c r="S37" t="s">
+        <v>175</v>
+      </c>
+      <c r="T37" t="s">
+        <v>198</v>
+      </c>
+      <c r="U37" t="s">
         <v>199</v>
       </c>
-      <c r="F37" t="s">
+    </row>
+    <row r="39" spans="2:24">
+      <c r="B39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" t="s">
+        <v>200</v>
+      </c>
+      <c r="D39" t="s">
+        <v>201</v>
+      </c>
+      <c r="E39" t="s">
+        <v>175</v>
+      </c>
+      <c r="F39" t="s">
+        <v>198</v>
+      </c>
+      <c r="G39" t="s">
+        <v>202</v>
+      </c>
+      <c r="H39" t="s">
         <v>203</v>
       </c>
-      <c r="G37" t="s">
+      <c r="I39" t="s">
         <v>204</v>
       </c>
-      <c r="H37" t="s">
+      <c r="J39" t="s">
         <v>205</v>
       </c>
-      <c r="I37" t="s">
+      <c r="K39" t="s">
+        <v>114</v>
+      </c>
+      <c r="L39">
+        <v>95</v>
+      </c>
+      <c r="M39" t="s">
         <v>206</v>
       </c>
-      <c r="J37" t="s">
-        <v>115</v>
-      </c>
-      <c r="K37">
+      <c r="N39" t="s">
+        <v>207</v>
+      </c>
+      <c r="O39" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="40" spans="2:24">
+      <c r="B40" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" t="s">
+        <v>209</v>
+      </c>
+      <c r="D40" t="s">
+        <v>175</v>
+      </c>
+      <c r="E40" t="s">
+        <v>198</v>
+      </c>
+      <c r="F40" t="s">
+        <v>202</v>
+      </c>
+      <c r="G40" t="s">
+        <v>203</v>
+      </c>
+      <c r="H40" t="s">
+        <v>204</v>
+      </c>
+      <c r="I40" t="s">
+        <v>205</v>
+      </c>
+      <c r="J40" t="s">
+        <v>114</v>
+      </c>
+      <c r="K40">
         <v>95</v>
       </c>
-      <c r="L37" t="s">
+      <c r="L40" t="s">
+        <v>206</v>
+      </c>
+      <c r="M40" t="s">
         <v>207</v>
       </c>
-      <c r="M37" t="s">
+      <c r="N40" t="s">
         <v>208</v>
-      </c>
-      <c r="N37" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="38" spans="2:24">
-      <c r="B38" t="s">
-        <v>115</v>
-      </c>
-      <c r="C38" t="s">
-        <v>211</v>
-      </c>
-      <c r="D38" t="s">
-        <v>212</v>
-      </c>
-      <c r="E38" t="s">
-        <v>176</v>
-      </c>
-      <c r="F38" t="s">
-        <v>199</v>
-      </c>
-      <c r="G38" t="s">
-        <v>203</v>
-      </c>
-      <c r="H38" t="s">
-        <v>204</v>
-      </c>
-      <c r="I38" t="s">
-        <v>205</v>
-      </c>
-      <c r="J38" t="s">
-        <v>206</v>
-      </c>
-      <c r="K38" t="s">
-        <v>115</v>
-      </c>
-      <c r="L38">
-        <v>95</v>
-      </c>
-      <c r="M38" t="s">
-        <v>207</v>
-      </c>
-      <c r="N38" t="s">
-        <v>208</v>
-      </c>
-      <c r="O38" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="41" spans="2:24">
       <c r="B41" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24">
-      <c r="B42" t="s">
-        <v>214</v>
-      </c>
-      <c r="C42" t="s">
-        <v>214</v>
+        <v>114</v>
+      </c>
+      <c r="C41" t="s">
+        <v>210</v>
+      </c>
+      <c r="D41" t="s">
+        <v>211</v>
+      </c>
+      <c r="E41" t="s">
+        <v>175</v>
+      </c>
+      <c r="F41" t="s">
+        <v>198</v>
+      </c>
+      <c r="G41" t="s">
+        <v>202</v>
+      </c>
+      <c r="H41" t="s">
+        <v>203</v>
+      </c>
+      <c r="I41" t="s">
+        <v>204</v>
+      </c>
+      <c r="J41" t="s">
+        <v>205</v>
+      </c>
+      <c r="K41" t="s">
+        <v>114</v>
+      </c>
+      <c r="L41">
+        <v>95</v>
+      </c>
+      <c r="M41" t="s">
+        <v>206</v>
+      </c>
+      <c r="N41" t="s">
+        <v>207</v>
+      </c>
+      <c r="O41" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="43" spans="2:24">
-      <c r="B43" t="s">
-        <v>214</v>
-      </c>
-      <c r="C43" t="s">
-        <v>115</v>
-      </c>
-      <c r="D43" t="s">
-        <v>215</v>
-      </c>
-      <c r="E43" t="s">
-        <v>216</v>
-      </c>
-      <c r="F43" t="s">
-        <v>217</v>
-      </c>
-      <c r="G43" t="s">
-        <v>218</v>
-      </c>
-      <c r="H43" t="s">
-        <v>110</v>
-      </c>
-      <c r="I43" t="s">
-        <v>114</v>
-      </c>
-      <c r="J43" s="15">
-        <v>0.98660000000000003</v>
-      </c>
-      <c r="K43" t="s">
-        <v>139</v>
-      </c>
-      <c r="L43" t="s">
-        <v>219</v>
-      </c>
-      <c r="M43" t="s">
-        <v>216</v>
-      </c>
-      <c r="N43" t="s">
-        <v>220</v>
-      </c>
-      <c r="O43" t="s">
-        <v>221</v>
-      </c>
-      <c r="P43" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q43" s="15">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="R43" t="s">
-        <v>214</v>
-      </c>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="31"/>
+      <c r="P43" s="31"/>
+      <c r="Q43" s="31"/>
     </row>
     <row r="44" spans="2:24">
       <c r="B44" t="s">
-        <v>214</v>
-      </c>
-      <c r="C44" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="45" spans="2:24">
       <c r="B45" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C45" t="s">
-        <v>115</v>
-      </c>
-      <c r="D45" t="s">
-        <v>216</v>
-      </c>
-      <c r="E45" t="s">
-        <v>222</v>
-      </c>
-      <c r="F45" t="s">
-        <v>223</v>
-      </c>
-      <c r="G45" t="s">
-        <v>224</v>
-      </c>
-      <c r="H45">
-        <v>99</v>
-      </c>
-      <c r="I45" t="s">
-        <v>207</v>
-      </c>
-      <c r="J45" t="s">
-        <v>110</v>
-      </c>
-      <c r="K45" t="s">
-        <v>208</v>
-      </c>
-      <c r="L45" t="s">
-        <v>225</v>
-      </c>
-      <c r="M45" t="s">
-        <v>226</v>
-      </c>
-      <c r="N45">
-        <v>0.9859</v>
-      </c>
-      <c r="O45" t="s">
-        <v>132</v>
-      </c>
-      <c r="P45" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q45">
-        <v>0.98521000000000003</v>
-      </c>
-      <c r="R45" t="s">
-        <v>132</v>
-      </c>
-      <c r="S45" t="s">
-        <v>328</v>
-      </c>
-      <c r="T45" t="s">
-        <v>135</v>
-      </c>
-      <c r="U45">
-        <v>0.98475999999999997</v>
-      </c>
-      <c r="V45" t="s">
-        <v>132</v>
-      </c>
-      <c r="W45">
-        <v>0.98843999999999999</v>
-      </c>
-      <c r="X45" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="2:24">
       <c r="B46" t="s">
+        <v>213</v>
+      </c>
+      <c r="C46" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46" t="s">
         <v>214</v>
       </c>
-      <c r="C46" t="s">
-        <v>214</v>
+      <c r="E46" t="s">
+        <v>215</v>
+      </c>
+      <c r="F46" t="s">
+        <v>216</v>
+      </c>
+      <c r="G46" t="s">
+        <v>217</v>
+      </c>
+      <c r="H46" t="s">
+        <v>109</v>
+      </c>
+      <c r="I46" t="s">
+        <v>113</v>
+      </c>
+      <c r="J46" s="15">
+        <v>0.58357000000000003</v>
+      </c>
+      <c r="K46" t="s">
+        <v>138</v>
+      </c>
+      <c r="L46" t="s">
+        <v>218</v>
+      </c>
+      <c r="M46" t="s">
+        <v>215</v>
+      </c>
+      <c r="N46" t="s">
+        <v>219</v>
+      </c>
+      <c r="O46" t="s">
+        <v>220</v>
+      </c>
+      <c r="P46" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q46" s="15">
+        <v>6.2E-4</v>
+      </c>
+      <c r="R46" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="47" spans="2:24">
       <c r="B47" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C47" t="s">
-        <v>115</v>
-      </c>
-      <c r="D47" t="s">
-        <v>215</v>
-      </c>
-      <c r="E47" t="s">
-        <v>217</v>
-      </c>
-      <c r="F47" t="s">
-        <v>227</v>
-      </c>
-      <c r="G47" t="s">
-        <v>228</v>
-      </c>
-      <c r="H47" t="s">
-        <v>229</v>
-      </c>
-      <c r="I47" t="s">
-        <v>230</v>
-      </c>
-      <c r="J47" t="s">
-        <v>114</v>
-      </c>
-      <c r="K47" s="6">
-        <v>1.3289000000000001E-8</v>
-      </c>
-      <c r="L47" t="s">
-        <v>231</v>
-      </c>
-      <c r="M47" t="s">
-        <v>139</v>
-      </c>
-      <c r="N47" t="s">
-        <v>219</v>
-      </c>
-      <c r="O47" t="s">
-        <v>216</v>
-      </c>
-      <c r="P47" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>221</v>
-      </c>
-      <c r="R47" t="s">
-        <v>138</v>
-      </c>
-      <c r="S47" s="6">
-        <v>1.6176000000000001E-11</v>
-      </c>
-      <c r="T47" t="s">
-        <v>214</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="K47" s="6"/>
+      <c r="S47" s="6"/>
     </row>
     <row r="48" spans="2:24">
       <c r="B48" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C48" t="s">
-        <v>214</v>
+        <v>114</v>
+      </c>
+      <c r="D48" t="s">
+        <v>215</v>
+      </c>
+      <c r="E48" t="s">
+        <v>221</v>
+      </c>
+      <c r="F48" t="s">
+        <v>222</v>
+      </c>
+      <c r="G48" t="s">
+        <v>223</v>
+      </c>
+      <c r="H48">
+        <v>99</v>
+      </c>
+      <c r="I48" t="s">
+        <v>206</v>
+      </c>
+      <c r="J48" t="s">
+        <v>109</v>
+      </c>
+      <c r="K48" t="s">
+        <v>207</v>
+      </c>
+      <c r="L48" t="s">
+        <v>224</v>
+      </c>
+      <c r="M48" t="s">
+        <v>225</v>
+      </c>
+      <c r="N48">
+        <v>0.58294999999999997</v>
+      </c>
+      <c r="O48" t="s">
+        <v>131</v>
+      </c>
+      <c r="P48" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q48">
+        <v>0.58233999999999997</v>
+      </c>
+      <c r="R48" t="s">
+        <v>131</v>
+      </c>
+      <c r="S48" t="s">
+        <v>431</v>
+      </c>
+      <c r="T48" t="s">
+        <v>134</v>
+      </c>
+      <c r="U48">
+        <v>0.58192999999999995</v>
+      </c>
+      <c r="V48" t="s">
+        <v>131</v>
+      </c>
+      <c r="W48">
+        <v>0.58520000000000005</v>
+      </c>
+      <c r="X48" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="49" spans="2:21">
       <c r="B49" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C49" t="s">
-        <v>115</v>
-      </c>
-      <c r="D49" t="s">
-        <v>180</v>
-      </c>
-      <c r="E49" t="s">
-        <v>118</v>
-      </c>
-      <c r="F49" t="s">
-        <v>232</v>
-      </c>
-      <c r="G49" t="s">
-        <v>233</v>
-      </c>
-      <c r="H49" t="s">
-        <v>117</v>
-      </c>
-      <c r="I49" t="s">
-        <v>114</v>
-      </c>
-      <c r="J49" s="6">
-        <v>1.9106000000000001</v>
-      </c>
-      <c r="K49" t="s">
-        <v>234</v>
-      </c>
-      <c r="L49" t="s">
-        <v>214</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="J49" s="6"/>
     </row>
     <row r="50" spans="2:21">
       <c r="B50" t="s">
+        <v>213</v>
+      </c>
+      <c r="C50" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50" t="s">
         <v>214</v>
       </c>
-      <c r="C50" t="s">
-        <v>115</v>
-      </c>
-      <c r="D50" t="s">
-        <v>232</v>
-      </c>
       <c r="E50" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="F50" t="s">
-        <v>132</v>
+        <v>226</v>
       </c>
       <c r="G50" t="s">
-        <v>115</v>
+        <v>227</v>
       </c>
       <c r="H50" t="s">
-        <v>180</v>
+        <v>228</v>
       </c>
       <c r="I50" t="s">
-        <v>118</v>
+        <v>229</v>
       </c>
       <c r="J50" t="s">
-        <v>236</v>
-      </c>
-      <c r="K50" t="s">
-        <v>233</v>
+        <v>113</v>
+      </c>
+      <c r="K50" s="6">
+        <v>1.2820999999999999E-4</v>
       </c>
       <c r="L50" t="s">
-        <v>117</v>
+        <v>230</v>
       </c>
       <c r="M50" t="s">
-        <v>114</v>
-      </c>
-      <c r="N50" s="6">
-        <v>1.1914</v>
+        <v>138</v>
+      </c>
+      <c r="N50" s="6" t="s">
+        <v>218</v>
       </c>
       <c r="O50" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="P50" t="s">
-        <v>214</v>
+        <v>219</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>220</v>
+      </c>
+      <c r="R50" t="s">
+        <v>137</v>
+      </c>
+      <c r="S50" s="6">
+        <v>8.2271999999999997E-8</v>
+      </c>
+      <c r="T50" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="51" spans="2:21">
       <c r="B51" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C51" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="2:21">
       <c r="B52" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C52" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D52" t="s">
-        <v>237</v>
+        <v>179</v>
       </c>
       <c r="E52" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="F52" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="G52" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="H52" t="s">
-        <v>240</v>
+        <v>116</v>
       </c>
       <c r="I52" t="s">
-        <v>141</v>
-      </c>
-      <c r="J52" t="s">
-        <v>241</v>
+        <v>113</v>
+      </c>
+      <c r="J52" s="6">
+        <v>2.7623000000000002E-2</v>
       </c>
       <c r="K52" t="s">
-        <v>115</v>
+        <v>233</v>
       </c>
       <c r="L52" t="s">
-        <v>242</v>
-      </c>
-      <c r="M52" t="s">
-        <v>243</v>
-      </c>
-      <c r="N52" t="s">
-        <v>135</v>
-      </c>
-      <c r="O52" t="s">
-        <v>244</v>
-      </c>
-      <c r="P52" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>245</v>
-      </c>
-      <c r="R52" t="s">
-        <v>200</v>
-      </c>
-      <c r="S52" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="53" spans="2:21">
       <c r="B53" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C53" t="s">
-        <v>246</v>
+        <v>114</v>
       </c>
       <c r="D53" t="s">
-        <v>247</v>
-      </c>
-      <c r="E53" s="14">
-        <v>0</v>
+        <v>231</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>234</v>
       </c>
       <c r="F53" t="s">
-        <v>248</v>
+        <v>131</v>
       </c>
       <c r="G53" t="s">
-        <v>249</v>
+        <v>114</v>
       </c>
       <c r="H53" t="s">
-        <v>250</v>
-      </c>
-      <c r="I53">
-        <v>100</v>
+        <v>179</v>
+      </c>
+      <c r="I53" t="s">
+        <v>117</v>
       </c>
       <c r="J53" t="s">
-        <v>251</v>
-      </c>
-      <c r="K53" s="14">
-        <v>2.92E-2</v>
+        <v>235</v>
+      </c>
+      <c r="K53" s="14" t="s">
+        <v>232</v>
       </c>
       <c r="L53" t="s">
-        <v>252</v>
+        <v>116</v>
       </c>
       <c r="M53" t="s">
-        <v>251</v>
-      </c>
-      <c r="N53" s="14">
-        <v>0.9708</v>
+        <v>113</v>
+      </c>
+      <c r="N53" s="6">
+        <v>4.077E-8</v>
       </c>
       <c r="O53" t="s">
-        <v>214</v>
+        <v>233</v>
+      </c>
+      <c r="P53" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="54" spans="2:21">
       <c r="B54" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C54" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="55" spans="2:21">
       <c r="B55" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D55" t="s">
-        <v>180</v>
+        <v>236</v>
       </c>
       <c r="E55" t="s">
+        <v>137</v>
+      </c>
+      <c r="F55" t="s">
+        <v>237</v>
+      </c>
+      <c r="G55" t="s">
+        <v>238</v>
+      </c>
+      <c r="H55" t="s">
+        <v>239</v>
+      </c>
+      <c r="I55" t="s">
+        <v>140</v>
+      </c>
+      <c r="J55" t="s">
+        <v>240</v>
+      </c>
+      <c r="K55" t="s">
+        <v>114</v>
+      </c>
+      <c r="L55" t="s">
+        <v>241</v>
+      </c>
+      <c r="M55" t="s">
+        <v>242</v>
+      </c>
+      <c r="N55" t="s">
+        <v>134</v>
+      </c>
+      <c r="O55" t="s">
+        <v>243</v>
+      </c>
+      <c r="P55" t="s">
         <v>117</v>
       </c>
-      <c r="F55" t="s">
-        <v>141</v>
-      </c>
-      <c r="G55" t="s">
-        <v>253</v>
-      </c>
-      <c r="H55" t="s">
-        <v>142</v>
-      </c>
-      <c r="I55" t="s">
-        <v>118</v>
-      </c>
-      <c r="J55" t="s">
-        <v>254</v>
-      </c>
-      <c r="K55" t="s">
-        <v>255</v>
-      </c>
-      <c r="L55" t="s">
-        <v>256</v>
-      </c>
-      <c r="M55" t="s">
-        <v>257</v>
-      </c>
-      <c r="N55" t="s">
-        <v>241</v>
-      </c>
-      <c r="O55" t="s">
-        <v>155</v>
-      </c>
-      <c r="P55" t="s">
-        <v>156</v>
-      </c>
       <c r="Q55" t="s">
-        <v>139</v>
+        <v>244</v>
       </c>
       <c r="R55" t="s">
-        <v>117</v>
+        <v>199</v>
       </c>
       <c r="S55" t="s">
-        <v>114</v>
-      </c>
-      <c r="T55" s="6">
-        <v>2.6074999999999999</v>
-      </c>
-      <c r="U55" t="s">
-        <v>214</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="T55" s="6"/>
     </row>
     <row r="56" spans="2:21">
       <c r="B56" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C56" t="s">
-        <v>115</v>
+        <v>245</v>
       </c>
       <c r="D56" t="s">
-        <v>180</v>
-      </c>
-      <c r="E56" t="s">
-        <v>117</v>
+        <v>246</v>
+      </c>
+      <c r="E56" s="14">
+        <v>0.96550000000000002</v>
       </c>
       <c r="F56" t="s">
-        <v>141</v>
+        <v>247</v>
       </c>
       <c r="G56" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="H56" t="s">
-        <v>142</v>
-      </c>
-      <c r="I56" t="s">
-        <v>118</v>
+        <v>249</v>
+      </c>
+      <c r="I56">
+        <v>100</v>
       </c>
       <c r="J56" t="s">
-        <v>254</v>
-      </c>
-      <c r="K56" t="s">
-        <v>255</v>
+        <v>250</v>
+      </c>
+      <c r="K56" s="14">
+        <v>2.46E-2</v>
       </c>
       <c r="L56" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="M56" t="s">
-        <v>257</v>
-      </c>
-      <c r="N56" t="s">
-        <v>241</v>
+        <v>250</v>
+      </c>
+      <c r="N56" s="14">
+        <v>9.9000000000000008E-3</v>
       </c>
       <c r="O56" t="s">
-        <v>155</v>
-      </c>
-      <c r="P56" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>258</v>
-      </c>
-      <c r="R56" t="s">
-        <v>156</v>
-      </c>
-      <c r="S56" t="s">
-        <v>114</v>
-      </c>
-      <c r="T56" s="6">
-        <v>2.6074999999999999</v>
-      </c>
-      <c r="U56" t="s">
-        <v>214</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="T56" s="6"/>
     </row>
     <row r="57" spans="2:21">
       <c r="B57" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C57" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="58" spans="2:21">
       <c r="B58" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D58" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E58" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="F58" t="s">
+        <v>140</v>
+      </c>
+      <c r="G58" t="s">
+        <v>252</v>
+      </c>
+      <c r="H58" t="s">
+        <v>141</v>
+      </c>
+      <c r="I58" t="s">
+        <v>117</v>
+      </c>
+      <c r="J58" t="s">
+        <v>253</v>
+      </c>
+      <c r="K58" t="s">
+        <v>254</v>
+      </c>
+      <c r="L58" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="M58" t="s">
+        <v>256</v>
+      </c>
+      <c r="N58" t="s">
+        <v>240</v>
+      </c>
+      <c r="O58" t="s">
+        <v>154</v>
+      </c>
+      <c r="P58" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q58" t="s">
         <v>138</v>
       </c>
-      <c r="G58" t="s">
-        <v>141</v>
-      </c>
-      <c r="H58" t="s">
-        <v>253</v>
-      </c>
-      <c r="I58" t="s">
-        <v>142</v>
-      </c>
-      <c r="J58" t="s">
-        <v>117</v>
-      </c>
-      <c r="K58" t="s">
-        <v>114</v>
-      </c>
-      <c r="L58" s="15">
-        <v>3.0609999999999999</v>
-      </c>
-      <c r="M58" t="s">
-        <v>214</v>
+      <c r="R58" t="s">
+        <v>116</v>
+      </c>
+      <c r="S58" t="s">
+        <v>113</v>
+      </c>
+      <c r="T58" s="6">
+        <v>1.3402000000000001</v>
+      </c>
+      <c r="U58" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="59" spans="2:21">
       <c r="B59" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C59" t="s">
-        <v>214</v>
+        <v>114</v>
+      </c>
+      <c r="D59" t="s">
+        <v>179</v>
+      </c>
+      <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
+        <v>140</v>
+      </c>
+      <c r="G59" t="s">
+        <v>252</v>
+      </c>
+      <c r="H59" t="s">
+        <v>141</v>
+      </c>
+      <c r="I59" t="s">
+        <v>117</v>
+      </c>
+      <c r="J59" t="s">
+        <v>253</v>
+      </c>
+      <c r="K59" t="s">
+        <v>254</v>
+      </c>
+      <c r="L59" t="s">
+        <v>255</v>
+      </c>
+      <c r="M59" t="s">
+        <v>256</v>
+      </c>
+      <c r="N59" t="s">
+        <v>240</v>
+      </c>
+      <c r="O59" t="s">
+        <v>154</v>
+      </c>
+      <c r="P59" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>257</v>
+      </c>
+      <c r="R59" t="s">
+        <v>155</v>
+      </c>
+      <c r="S59" t="s">
+        <v>113</v>
+      </c>
+      <c r="T59" s="6">
+        <v>0.61677999999999999</v>
+      </c>
+      <c r="U59" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="60" spans="2:21">
       <c r="B60" t="s">
         <v>213</v>
       </c>
+      <c r="C60" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="61" spans="2:21">
+      <c r="B61" t="s">
+        <v>213</v>
+      </c>
+      <c r="C61" t="s">
+        <v>114</v>
+      </c>
+      <c r="D61" t="s">
+        <v>179</v>
+      </c>
+      <c r="E61" t="s">
+        <v>152</v>
+      </c>
+      <c r="F61" t="s">
+        <v>137</v>
+      </c>
+      <c r="G61" t="s">
+        <v>140</v>
+      </c>
+      <c r="H61" t="s">
+        <v>252</v>
+      </c>
+      <c r="I61" t="s">
+        <v>141</v>
+      </c>
+      <c r="J61" t="s">
+        <v>116</v>
+      </c>
+      <c r="K61" t="s">
+        <v>113</v>
+      </c>
+      <c r="L61">
+        <v>2.4430000000000001</v>
+      </c>
+      <c r="M61" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="62" spans="2:21">
+      <c r="B62" t="s">
+        <v>213</v>
+      </c>
+      <c r="C62" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="63" spans="2:21">
       <c r="B63" t="s">
-        <v>115</v>
-      </c>
-      <c r="C63" t="s">
-        <v>216</v>
-      </c>
-      <c r="D63" t="s">
-        <v>180</v>
-      </c>
-      <c r="E63" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25">
+      <c r="G65" s="17"/>
+      <c r="I65" s="17"/>
+      <c r="K65" s="17"/>
+    </row>
+    <row r="66" spans="2:25">
+      <c r="B66" t="s">
+        <v>114</v>
+      </c>
+      <c r="C66" t="s">
+        <v>215</v>
+      </c>
+      <c r="D66" t="s">
+        <v>179</v>
+      </c>
+      <c r="E66" t="s">
+        <v>265</v>
+      </c>
+      <c r="F66" t="s">
         <v>266</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G66" t="s">
+        <v>219</v>
+      </c>
+      <c r="H66" t="s">
         <v>267</v>
       </c>
-      <c r="G63" t="s">
-        <v>220</v>
-      </c>
-      <c r="H63" t="s">
-        <v>268</v>
-      </c>
-      <c r="I63" t="s">
-        <v>135</v>
-      </c>
-      <c r="J63" t="s">
+      <c r="I66" t="s">
+        <v>134</v>
+      </c>
+      <c r="J66" t="s">
+        <v>221</v>
+      </c>
+      <c r="K66" t="s">
         <v>222</v>
       </c>
-      <c r="K63" t="s">
-        <v>223</v>
-      </c>
-      <c r="L63" t="s">
-        <v>135</v>
-      </c>
-      <c r="M63">
+      <c r="L66" t="s">
+        <v>134</v>
+      </c>
+      <c r="M66">
         <v>99</v>
       </c>
-      <c r="N63" t="s">
+      <c r="N66" t="s">
+        <v>206</v>
+      </c>
+      <c r="O66" t="s">
         <v>207</v>
       </c>
-      <c r="O63" t="s">
-        <v>208</v>
-      </c>
-      <c r="P63" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="65" spans="2:25">
-      <c r="B65" t="s">
-        <v>110</v>
-      </c>
-      <c r="C65" t="s">
-        <v>269</v>
-      </c>
-      <c r="D65" t="s">
-        <v>110</v>
-      </c>
-      <c r="E65" t="s">
-        <v>220</v>
-      </c>
-      <c r="F65" t="s">
-        <v>221</v>
-      </c>
-      <c r="G65" s="17">
-        <v>0.68</v>
-      </c>
-      <c r="H65" t="s">
-        <v>208</v>
-      </c>
-      <c r="I65" s="17">
-        <v>0.95</v>
-      </c>
-      <c r="J65" t="s">
-        <v>208</v>
-      </c>
-      <c r="K65" s="17">
-        <v>0.99</v>
-      </c>
-      <c r="L65" t="s">
-        <v>208</v>
-      </c>
-      <c r="M65" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="67" spans="2:25">
-      <c r="B67" t="s">
-        <v>271</v>
-      </c>
-      <c r="C67">
-        <v>0.98636000000000001</v>
-      </c>
-      <c r="D67">
-        <v>8.7000000000000001E-4</v>
-      </c>
-      <c r="E67">
-        <v>0.98548999999999998</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
-      </c>
-      <c r="G67">
-        <v>0.98724000000000001</v>
-      </c>
-      <c r="H67">
-        <v>0.98463000000000001</v>
-      </c>
-      <c r="I67" t="s">
-        <v>132</v>
-      </c>
-      <c r="J67">
-        <v>0.98809999999999998</v>
-      </c>
-      <c r="K67">
-        <v>0.98406000000000005</v>
-      </c>
-      <c r="L67" t="s">
-        <v>132</v>
-      </c>
-      <c r="M67">
-        <v>0.98867000000000005</v>
+      <c r="P66" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="68" spans="2:25">
       <c r="B68" t="s">
-        <v>272</v>
-      </c>
-      <c r="C68">
-        <v>0.98631999999999997</v>
-      </c>
-      <c r="D68">
-        <v>8.7000000000000001E-4</v>
-      </c>
-      <c r="E68">
-        <v>0.98543999999999998</v>
+        <v>109</v>
+      </c>
+      <c r="C68" t="s">
+        <v>268</v>
+      </c>
+      <c r="D68" t="s">
+        <v>109</v>
+      </c>
+      <c r="E68" t="s">
+        <v>219</v>
       </c>
       <c r="F68" t="s">
-        <v>132</v>
-      </c>
-      <c r="G68">
-        <v>0.98719000000000001</v>
-      </c>
-      <c r="H68">
-        <v>0.98458000000000001</v>
-      </c>
-      <c r="I68" t="s">
-        <v>132</v>
-      </c>
-      <c r="J68">
-        <v>0.98806000000000005</v>
-      </c>
-      <c r="K68">
-        <v>0.98401000000000005</v>
+        <v>220</v>
+      </c>
+      <c r="G68" s="17">
+        <v>0.68</v>
+      </c>
+      <c r="H68" t="s">
+        <v>207</v>
+      </c>
+      <c r="I68" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="J68" t="s">
+        <v>207</v>
+      </c>
+      <c r="K68" s="17">
+        <v>0.99</v>
       </c>
       <c r="L68" t="s">
-        <v>132</v>
-      </c>
-      <c r="M68">
-        <v>0.98863000000000001</v>
-      </c>
-    </row>
-    <row r="69" spans="2:25">
-      <c r="B69" t="s">
-        <v>273</v>
-      </c>
-      <c r="C69" t="s">
-        <v>274</v>
-      </c>
-      <c r="D69">
-        <v>0.98668999999999996</v>
-      </c>
-      <c r="E69">
-        <v>7.2000000000000005E-4</v>
-      </c>
-      <c r="F69">
-        <v>0.98597000000000001</v>
-      </c>
-      <c r="G69" t="s">
-        <v>132</v>
-      </c>
-      <c r="H69">
-        <v>0.98741999999999996</v>
-      </c>
-      <c r="I69">
-        <v>0.98524999999999996</v>
-      </c>
-      <c r="J69" t="s">
-        <v>132</v>
-      </c>
-      <c r="K69">
-        <v>0.98812999999999995</v>
-      </c>
-      <c r="L69">
-        <v>0.98477999999999999</v>
-      </c>
-      <c r="M69" t="s">
-        <v>132</v>
-      </c>
-      <c r="N69">
-        <v>0.98860000000000003</v>
+        <v>207</v>
+      </c>
+      <c r="M68" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="70" spans="2:25">
       <c r="B70" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C70">
-        <v>0.98638000000000003</v>
+        <v>0.58409</v>
       </c>
       <c r="D70">
-        <v>8.8000000000000003E-4</v>
+        <v>8.1999999999999998E-4</v>
       </c>
       <c r="E70">
-        <v>0.98550000000000004</v>
+        <v>0.58328000000000002</v>
       </c>
       <c r="F70" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G70">
-        <v>0.98726000000000003</v>
+        <v>0.58491000000000004</v>
       </c>
       <c r="H70">
-        <v>0.98463999999999996</v>
+        <v>0.58247000000000004</v>
       </c>
       <c r="I70" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J70">
-        <v>0.98812999999999995</v>
+        <v>0.58572000000000002</v>
       </c>
       <c r="K70">
-        <v>0.98407</v>
+        <v>0.58194000000000001</v>
       </c>
       <c r="L70" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M70">
-        <v>0.98870000000000002</v>
-      </c>
-      <c r="N70">
-        <v>0.99870000000000003</v>
+        <v>0.58625000000000005</v>
       </c>
     </row>
     <row r="71" spans="2:25">
       <c r="B71" t="s">
-        <v>276</v>
-      </c>
-      <c r="C71" t="s">
-        <v>277</v>
+        <v>271</v>
+      </c>
+      <c r="C71">
+        <v>0.58323000000000003</v>
       </c>
       <c r="D71">
-        <v>0.98658999999999997</v>
+        <v>7.1000000000000002E-4</v>
       </c>
       <c r="E71">
-        <v>6.8999999999999997E-4</v>
-      </c>
-      <c r="F71">
-        <v>0.98589000000000004</v>
-      </c>
-      <c r="G71" t="s">
-        <v>132</v>
+        <v>0.58252000000000004</v>
+      </c>
+      <c r="F71" t="s">
+        <v>131</v>
+      </c>
+      <c r="G71">
+        <v>0.58394000000000001</v>
       </c>
       <c r="H71">
-        <v>0.98728000000000005</v>
-      </c>
-      <c r="I71">
-        <v>0.98521000000000003</v>
-      </c>
-      <c r="J71" t="s">
-        <v>132</v>
+        <v>0.58182</v>
+      </c>
+      <c r="I71" t="s">
+        <v>131</v>
+      </c>
+      <c r="J71">
+        <v>0.58464000000000005</v>
       </c>
       <c r="K71">
-        <v>0.98797000000000001</v>
-      </c>
-      <c r="L71">
-        <v>0.98475000000000001</v>
-      </c>
-      <c r="M71" t="s">
-        <v>132</v>
-      </c>
-      <c r="N71">
-        <v>0.98841999999999997</v>
-      </c>
-      <c r="O71">
-        <v>0.58169999999999999</v>
+        <v>0.58135999999999999</v>
+      </c>
+      <c r="L71" t="s">
+        <v>131</v>
+      </c>
+      <c r="M71">
+        <v>0.58509999999999995</v>
       </c>
     </row>
     <row r="72" spans="2:25">
       <c r="B72" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C72" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D72">
-        <v>0.98660000000000003</v>
+        <v>0.58416000000000001</v>
       </c>
       <c r="E72">
-        <v>6.8999999999999997E-4</v>
+        <v>8.1999999999999998E-4</v>
       </c>
       <c r="F72">
-        <v>0.98590999999999995</v>
+        <v>0.58333999999999997</v>
       </c>
       <c r="G72" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H72">
-        <v>0.98729</v>
+        <v>0.58498000000000006</v>
       </c>
       <c r="I72">
-        <v>0.98521999999999998</v>
+        <v>0.58252999999999999</v>
       </c>
       <c r="J72" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K72">
-        <v>0.98797999999999997</v>
+        <v>0.58579000000000003</v>
       </c>
       <c r="L72">
-        <v>0.98477000000000003</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="M72" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N72">
-        <v>0.98843000000000003</v>
-      </c>
-      <c r="O72">
-        <v>0.5837</v>
+        <v>0.58631999999999995</v>
       </c>
     </row>
     <row r="73" spans="2:25">
       <c r="B73" t="s">
-        <v>279</v>
-      </c>
-      <c r="C73" t="s">
+        <v>274</v>
+      </c>
+      <c r="C73">
+        <v>0.58357000000000003</v>
+      </c>
+      <c r="D73">
+        <v>6.2E-4</v>
+      </c>
+      <c r="E73">
+        <v>0.58296000000000003</v>
+      </c>
+      <c r="F73" t="s">
+        <v>131</v>
+      </c>
+      <c r="G73">
+        <v>0.58418999999999999</v>
+      </c>
+      <c r="H73">
+        <v>0.58235000000000003</v>
+      </c>
+      <c r="I73" t="s">
+        <v>131</v>
+      </c>
+      <c r="J73">
+        <v>0.58479999999999999</v>
+      </c>
+      <c r="K73">
+        <v>0.58194999999999997</v>
+      </c>
+      <c r="L73" t="s">
+        <v>131</v>
+      </c>
+      <c r="M73">
+        <v>0.58520000000000005</v>
+      </c>
+      <c r="N73">
+        <v>0.31530000000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25">
+      <c r="B74" t="s">
+        <v>275</v>
+      </c>
+      <c r="C74" t="s">
+        <v>276</v>
+      </c>
+      <c r="D74">
+        <v>0.58360000000000001</v>
+      </c>
+      <c r="E74">
+        <v>6.2E-4</v>
+      </c>
+      <c r="F74">
+        <v>0.58298000000000005</v>
+      </c>
+      <c r="G74" t="s">
+        <v>131</v>
+      </c>
+      <c r="H74">
+        <v>0.58421000000000001</v>
+      </c>
+      <c r="I74">
+        <v>0.58237000000000005</v>
+      </c>
+      <c r="J74" t="s">
+        <v>131</v>
+      </c>
+      <c r="K74">
+        <v>0.58482999999999996</v>
+      </c>
+      <c r="L74">
+        <v>0.58196000000000003</v>
+      </c>
+      <c r="M74" t="s">
+        <v>131</v>
+      </c>
+      <c r="N74">
+        <v>0.58523000000000003</v>
+      </c>
+      <c r="O74">
+        <v>0.32229999999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25">
+      <c r="B75" t="s">
         <v>277</v>
       </c>
-      <c r="D73">
-        <v>0.98660000000000003</v>
-      </c>
-      <c r="E73">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="F73">
-        <v>0.9859</v>
-      </c>
-      <c r="G73" t="s">
-        <v>132</v>
-      </c>
-      <c r="H73">
-        <v>0.98729999999999996</v>
-      </c>
-      <c r="I73">
-        <v>0.98521000000000003</v>
-      </c>
-      <c r="J73" t="s">
-        <v>132</v>
-      </c>
-      <c r="K73">
-        <v>0.98799000000000003</v>
-      </c>
-      <c r="L73">
-        <v>0.98475999999999997</v>
-      </c>
-      <c r="M73" t="s">
-        <v>132</v>
-      </c>
-      <c r="N73">
-        <v>0.98843999999999999</v>
+      <c r="C75" t="s">
+        <v>276</v>
+      </c>
+      <c r="D75">
+        <v>0.58411000000000002</v>
+      </c>
+      <c r="E75">
+        <v>8.1999999999999998E-4</v>
+      </c>
+      <c r="F75">
+        <v>0.58328999999999998</v>
+      </c>
+      <c r="G75" t="s">
+        <v>131</v>
+      </c>
+      <c r="H75">
+        <v>0.58492999999999995</v>
+      </c>
+      <c r="I75">
+        <v>0.58248</v>
+      </c>
+      <c r="J75" t="s">
+        <v>131</v>
+      </c>
+      <c r="K75">
+        <v>0.58574000000000004</v>
+      </c>
+      <c r="L75">
+        <v>0.58194999999999997</v>
+      </c>
+      <c r="M75" t="s">
+        <v>131</v>
+      </c>
+      <c r="N75">
+        <v>0.58626999999999996</v>
+      </c>
+      <c r="O75">
+        <v>0.99050000000000005</v>
       </c>
     </row>
     <row r="76" spans="2:25">
       <c r="B76" t="s">
+        <v>278</v>
+      </c>
+      <c r="C76" t="s">
+        <v>276</v>
+      </c>
+      <c r="D76">
+        <v>0.58357000000000003</v>
+      </c>
+      <c r="E76">
+        <v>6.2E-4</v>
+      </c>
+      <c r="F76">
+        <v>0.58294999999999997</v>
+      </c>
+      <c r="G76" t="s">
+        <v>131</v>
+      </c>
+      <c r="H76">
+        <v>0.58418000000000003</v>
+      </c>
+      <c r="I76">
+        <v>0.58233999999999997</v>
+      </c>
+      <c r="J76" t="s">
+        <v>131</v>
+      </c>
+      <c r="K76">
+        <v>0.58479999999999999</v>
+      </c>
+      <c r="L76">
+        <v>0.58192999999999995</v>
+      </c>
+      <c r="M76" t="s">
+        <v>131</v>
+      </c>
+      <c r="N76">
+        <v>0.58520000000000005</v>
+      </c>
+    </row>
+    <row r="78" spans="2:25">
+      <c r="G78" s="17"/>
+      <c r="I78" s="17"/>
+      <c r="K78" s="17"/>
+    </row>
+    <row r="79" spans="2:25">
+      <c r="B79" t="s">
+        <v>279</v>
+      </c>
+      <c r="C79" t="s">
+        <v>114</v>
+      </c>
+      <c r="D79" t="s">
         <v>280</v>
       </c>
-      <c r="C76" t="s">
-        <v>115</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="E79" t="s">
+        <v>137</v>
+      </c>
+      <c r="F79" t="s">
         <v>281</v>
       </c>
-      <c r="E76" t="s">
-        <v>138</v>
-      </c>
-      <c r="F76" t="s">
+      <c r="G79" t="s">
+        <v>109</v>
+      </c>
+      <c r="H79" t="s">
         <v>282</v>
       </c>
-      <c r="G76" t="s">
+      <c r="I79" t="s">
+        <v>125</v>
+      </c>
+      <c r="J79" t="s">
+        <v>114</v>
+      </c>
+      <c r="K79" t="s">
+        <v>283</v>
+      </c>
+      <c r="L79" t="s">
+        <v>284</v>
+      </c>
+      <c r="M79" t="s">
+        <v>114</v>
+      </c>
+      <c r="N79" t="s">
+        <v>109</v>
+      </c>
+      <c r="O79" t="s">
         <v>110</v>
       </c>
-      <c r="H76" t="s">
-        <v>283</v>
-      </c>
-      <c r="I76" t="s">
-        <v>126</v>
-      </c>
-      <c r="J76" t="s">
-        <v>115</v>
-      </c>
-      <c r="K76" t="s">
-        <v>284</v>
-      </c>
-      <c r="L76" t="s">
+      <c r="P79" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>221</v>
+      </c>
+      <c r="R79" t="s">
+        <v>222</v>
+      </c>
+      <c r="S79" t="s">
+        <v>134</v>
+      </c>
+      <c r="T79">
+        <v>99</v>
+      </c>
+      <c r="U79" t="s">
+        <v>206</v>
+      </c>
+      <c r="V79" t="s">
+        <v>207</v>
+      </c>
+      <c r="W79" t="s">
+        <v>224</v>
+      </c>
+      <c r="X79" t="s">
         <v>285</v>
       </c>
-      <c r="M76" t="s">
-        <v>115</v>
-      </c>
-      <c r="N76" t="s">
-        <v>110</v>
-      </c>
-      <c r="O76" t="s">
-        <v>111</v>
-      </c>
-      <c r="P76" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>222</v>
-      </c>
-      <c r="R76" t="s">
-        <v>223</v>
-      </c>
-      <c r="S76" t="s">
-        <v>135</v>
-      </c>
-      <c r="T76">
-        <v>99</v>
-      </c>
-      <c r="U76" t="s">
-        <v>207</v>
-      </c>
-      <c r="V76" t="s">
-        <v>208</v>
-      </c>
-      <c r="W76" t="s">
-        <v>225</v>
-      </c>
-      <c r="X76" t="s">
+      <c r="Y79" t="s">
         <v>286</v>
-      </c>
-      <c r="Y76" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="78" spans="2:25">
-      <c r="B78" t="s">
-        <v>110</v>
-      </c>
-      <c r="C78" t="s">
-        <v>269</v>
-      </c>
-      <c r="D78" t="s">
-        <v>110</v>
-      </c>
-      <c r="E78" t="s">
-        <v>220</v>
-      </c>
-      <c r="F78" t="s">
-        <v>221</v>
-      </c>
-      <c r="G78" s="17">
-        <v>0.68</v>
-      </c>
-      <c r="H78" t="s">
-        <v>208</v>
-      </c>
-      <c r="I78" s="17">
-        <v>0.95</v>
-      </c>
-      <c r="J78" t="s">
-        <v>208</v>
-      </c>
-      <c r="K78" s="17">
-        <v>0.99</v>
-      </c>
-      <c r="L78" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="80" spans="2:25">
-      <c r="B80" t="s">
-        <v>271</v>
-      </c>
-      <c r="C80">
-        <v>0.98650000000000004</v>
-      </c>
-      <c r="D80">
-        <v>8.8000000000000003E-4</v>
-      </c>
-      <c r="E80">
-        <v>0.98563000000000001</v>
-      </c>
-      <c r="F80" t="s">
-        <v>132</v>
-      </c>
-      <c r="G80">
-        <v>0.98738000000000004</v>
-      </c>
-      <c r="H80">
-        <v>0.98475000000000001</v>
-      </c>
-      <c r="I80" t="s">
-        <v>132</v>
-      </c>
-      <c r="J80">
-        <v>0.98826000000000003</v>
-      </c>
-      <c r="K80">
-        <v>0.98418000000000005</v>
-      </c>
-      <c r="L80" t="s">
-        <v>132</v>
-      </c>
-      <c r="M80">
-        <v>0.98882999999999999</v>
       </c>
     </row>
     <row r="81" spans="2:20">
       <c r="B81" t="s">
-        <v>272</v>
-      </c>
-      <c r="C81">
-        <v>0.98646</v>
-      </c>
-      <c r="D81">
-        <v>8.8000000000000003E-4</v>
-      </c>
-      <c r="E81">
-        <v>0.98558000000000001</v>
+        <v>109</v>
+      </c>
+      <c r="C81" t="s">
+        <v>268</v>
+      </c>
+      <c r="D81" t="s">
+        <v>109</v>
+      </c>
+      <c r="E81" t="s">
+        <v>219</v>
       </c>
       <c r="F81" t="s">
-        <v>132</v>
-      </c>
-      <c r="G81">
-        <v>0.98734</v>
-      </c>
-      <c r="H81">
-        <v>0.98470999999999997</v>
-      </c>
-      <c r="I81" t="s">
-        <v>132</v>
-      </c>
-      <c r="J81">
-        <v>0.98821999999999999</v>
-      </c>
-      <c r="K81">
-        <v>0.98412999999999995</v>
+        <v>220</v>
+      </c>
+      <c r="G81" s="17">
+        <v>0.68</v>
+      </c>
+      <c r="H81" t="s">
+        <v>207</v>
+      </c>
+      <c r="I81" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="J81" t="s">
+        <v>207</v>
+      </c>
+      <c r="K81" s="17">
+        <v>0.99</v>
       </c>
       <c r="L81" t="s">
-        <v>132</v>
-      </c>
-      <c r="M81">
-        <v>0.98878999999999995</v>
-      </c>
-    </row>
-    <row r="82" spans="2:20">
-      <c r="B82" t="s">
-        <v>273</v>
-      </c>
-      <c r="C82" t="s">
-        <v>274</v>
-      </c>
-      <c r="D82">
-        <v>0.98682000000000003</v>
-      </c>
-      <c r="E82">
-        <v>7.2999999999999996E-4</v>
-      </c>
-      <c r="F82">
-        <v>0.98609000000000002</v>
-      </c>
-      <c r="G82" t="s">
-        <v>132</v>
-      </c>
-      <c r="H82">
-        <v>0.98755000000000004</v>
-      </c>
-      <c r="I82">
-        <v>0.98536999999999997</v>
-      </c>
-      <c r="J82" t="s">
-        <v>132</v>
-      </c>
-      <c r="K82">
-        <v>0.98828000000000005</v>
-      </c>
-      <c r="L82">
-        <v>0.98489000000000004</v>
-      </c>
-      <c r="M82" t="s">
-        <v>132</v>
-      </c>
-      <c r="N82">
-        <v>0.98875000000000002</v>
+        <v>207</v>
       </c>
     </row>
     <row r="83" spans="2:20">
       <c r="B83" t="s">
-        <v>279</v>
-      </c>
-      <c r="C83" t="s">
-        <v>277</v>
+        <v>270</v>
+      </c>
+      <c r="C83">
+        <v>0.58425000000000005</v>
       </c>
       <c r="D83">
-        <v>0.98673</v>
+        <v>8.3000000000000001E-4</v>
       </c>
       <c r="E83">
+        <v>0.58342000000000005</v>
+      </c>
+      <c r="F83" t="s">
+        <v>131</v>
+      </c>
+      <c r="G83">
+        <v>0.58506999999999998</v>
+      </c>
+      <c r="H83">
+        <v>0.58260000000000001</v>
+      </c>
+      <c r="I83" t="s">
+        <v>131</v>
+      </c>
+      <c r="J83">
+        <v>0.58589000000000002</v>
+      </c>
+      <c r="K83">
+        <v>0.58206000000000002</v>
+      </c>
+      <c r="L83" t="s">
+        <v>131</v>
+      </c>
+      <c r="M83">
+        <v>0.58643000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="2:20">
+      <c r="B84" t="s">
+        <v>271</v>
+      </c>
+      <c r="C84">
+        <v>0.58333999999999997</v>
+      </c>
+      <c r="D84">
         <v>7.1000000000000002E-4</v>
       </c>
-      <c r="F83">
-        <v>0.98602999999999996</v>
-      </c>
-      <c r="G83" t="s">
-        <v>132</v>
-      </c>
-      <c r="H83">
-        <v>0.98743999999999998</v>
-      </c>
-      <c r="I83">
-        <v>0.98533000000000004</v>
-      </c>
-      <c r="J83" t="s">
-        <v>132</v>
-      </c>
-      <c r="K83">
-        <v>0.98814000000000002</v>
-      </c>
-      <c r="L83">
-        <v>0.98487000000000002</v>
-      </c>
-      <c r="M83" t="s">
-        <v>132</v>
-      </c>
-      <c r="N83">
-        <v>0.98860000000000003</v>
+      <c r="E84">
+        <v>0.58262999999999998</v>
+      </c>
+      <c r="F84" t="s">
+        <v>131</v>
+      </c>
+      <c r="G84">
+        <v>0.58404999999999996</v>
+      </c>
+      <c r="H84">
+        <v>0.58191999999999999</v>
+      </c>
+      <c r="I84" t="s">
+        <v>131</v>
+      </c>
+      <c r="J84">
+        <v>0.58475999999999995</v>
+      </c>
+      <c r="K84">
+        <v>0.58145000000000002</v>
+      </c>
+      <c r="L84" t="s">
+        <v>131</v>
+      </c>
+      <c r="M84">
+        <v>0.58521999999999996</v>
+      </c>
+    </row>
+    <row r="85" spans="2:20">
+      <c r="B85" t="s">
+        <v>272</v>
+      </c>
+      <c r="C85" t="s">
+        <v>273</v>
+      </c>
+      <c r="D85">
+        <v>0.58431</v>
+      </c>
+      <c r="E85">
+        <v>8.3000000000000001E-4</v>
+      </c>
+      <c r="F85">
+        <v>0.58348</v>
+      </c>
+      <c r="G85" t="s">
+        <v>131</v>
+      </c>
+      <c r="H85">
+        <v>0.58513999999999999</v>
+      </c>
+      <c r="I85">
+        <v>0.58265999999999996</v>
+      </c>
+      <c r="J85" t="s">
+        <v>131</v>
+      </c>
+      <c r="K85">
+        <v>0.58596000000000004</v>
+      </c>
+      <c r="L85">
+        <v>0.58211999999999997</v>
+      </c>
+      <c r="M85" t="s">
+        <v>131</v>
+      </c>
+      <c r="N85">
+        <v>0.58650000000000002</v>
       </c>
     </row>
     <row r="86" spans="2:20">
       <c r="B86" t="s">
-        <v>115</v>
+        <v>278</v>
       </c>
       <c r="C86" t="s">
-        <v>216</v>
-      </c>
-      <c r="D86" t="s">
-        <v>180</v>
-      </c>
-      <c r="E86" t="s">
+        <v>276</v>
+      </c>
+      <c r="D86">
+        <v>0.58369000000000004</v>
+      </c>
+      <c r="E86">
+        <v>6.3000000000000003E-4</v>
+      </c>
+      <c r="F86">
+        <v>0.58306000000000002</v>
+      </c>
+      <c r="G86" t="s">
+        <v>131</v>
+      </c>
+      <c r="H86">
+        <v>0.58431999999999995</v>
+      </c>
+      <c r="I86">
+        <v>0.58243999999999996</v>
+      </c>
+      <c r="J86" t="s">
+        <v>131</v>
+      </c>
+      <c r="K86">
+        <v>0.58494000000000002</v>
+      </c>
+      <c r="L86">
+        <v>0.58203000000000005</v>
+      </c>
+      <c r="M86" t="s">
+        <v>131</v>
+      </c>
+      <c r="N86">
+        <v>0.58535000000000004</v>
+      </c>
+    </row>
+    <row r="88" spans="2:20">
+      <c r="F88" s="17"/>
+      <c r="H88" s="17"/>
+      <c r="J88" s="17"/>
+    </row>
+    <row r="89" spans="2:20">
+      <c r="B89" t="s">
+        <v>114</v>
+      </c>
+      <c r="C89" t="s">
+        <v>215</v>
+      </c>
+      <c r="D89" t="s">
+        <v>179</v>
+      </c>
+      <c r="E89" t="s">
+        <v>227</v>
+      </c>
+      <c r="F89" t="s">
         <v>228</v>
       </c>
-      <c r="F86" t="s">
-        <v>229</v>
-      </c>
-      <c r="G86" t="s">
+      <c r="G89" t="s">
+        <v>287</v>
+      </c>
+      <c r="H89" t="s">
+        <v>266</v>
+      </c>
+      <c r="I89" t="s">
+        <v>219</v>
+      </c>
+      <c r="J89" t="s">
+        <v>267</v>
+      </c>
+      <c r="K89" t="s">
+        <v>134</v>
+      </c>
+      <c r="L89" t="s">
+        <v>221</v>
+      </c>
+      <c r="M89" t="s">
+        <v>222</v>
+      </c>
+      <c r="N89" t="s">
+        <v>134</v>
+      </c>
+      <c r="O89">
+        <v>99</v>
+      </c>
+      <c r="P89" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>207</v>
+      </c>
+      <c r="R89" t="s">
+        <v>224</v>
+      </c>
+      <c r="S89" t="s">
+        <v>225</v>
+      </c>
+      <c r="T89" t="s">
         <v>288</v>
       </c>
-      <c r="H86" t="s">
-        <v>267</v>
-      </c>
-      <c r="I86" t="s">
-        <v>220</v>
-      </c>
-      <c r="J86" t="s">
-        <v>268</v>
-      </c>
-      <c r="K86" t="s">
-        <v>135</v>
-      </c>
-      <c r="L86" t="s">
-        <v>222</v>
-      </c>
-      <c r="M86" t="s">
-        <v>223</v>
-      </c>
-      <c r="N86" t="s">
-        <v>135</v>
-      </c>
-      <c r="O86">
-        <v>99</v>
-      </c>
-      <c r="P86" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>208</v>
-      </c>
-      <c r="R86" t="s">
-        <v>225</v>
-      </c>
-      <c r="S86" t="s">
-        <v>226</v>
-      </c>
-      <c r="T86" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="88" spans="2:20">
-      <c r="B88" t="s">
-        <v>269</v>
-      </c>
-      <c r="C88" t="s">
-        <v>230</v>
-      </c>
-      <c r="D88" t="s">
-        <v>290</v>
-      </c>
-      <c r="E88" t="s">
-        <v>291</v>
-      </c>
-      <c r="F88" s="17">
-        <v>0.68</v>
-      </c>
-      <c r="G88" t="s">
-        <v>208</v>
-      </c>
-      <c r="H88" s="17">
-        <v>0.95</v>
-      </c>
-      <c r="I88" t="s">
-        <v>208</v>
-      </c>
-      <c r="J88" s="17">
-        <v>0.99</v>
-      </c>
-      <c r="K88" t="s">
-        <v>208</v>
-      </c>
-      <c r="L88" t="s">
-        <v>270</v>
-      </c>
     </row>
     <row r="90" spans="2:20">
-      <c r="B90" t="s">
-        <v>271</v>
-      </c>
-      <c r="C90" s="6">
-        <v>1.3230900000000001E-8</v>
-      </c>
-      <c r="D90" s="6">
-        <v>1.6141499999999999E-11</v>
-      </c>
-      <c r="E90" s="6">
-        <v>1.3215E-8</v>
-      </c>
-      <c r="F90" t="s">
-        <v>132</v>
-      </c>
-      <c r="G90" s="6">
-        <v>1.3246999999999999E-8</v>
-      </c>
-      <c r="H90" s="6">
-        <v>1.3199E-8</v>
-      </c>
-      <c r="I90" t="s">
-        <v>132</v>
-      </c>
-      <c r="J90" s="6">
-        <v>1.3262999999999999E-8</v>
-      </c>
-      <c r="K90" s="6">
-        <v>1.3188E-8</v>
-      </c>
-      <c r="L90" t="s">
-        <v>132</v>
-      </c>
-      <c r="M90" s="6">
-        <v>1.3274E-8</v>
-      </c>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+      <c r="M90" s="6"/>
     </row>
     <row r="91" spans="2:20">
       <c r="B91" t="s">
-        <v>272</v>
-      </c>
-      <c r="C91" s="6">
-        <v>1.3231699999999999E-8</v>
-      </c>
-      <c r="D91" s="6">
-        <v>1.6075500000000001E-11</v>
-      </c>
-      <c r="E91" s="6">
-        <v>1.3216000000000001E-8</v>
-      </c>
-      <c r="F91" t="s">
-        <v>132</v>
-      </c>
-      <c r="G91" s="6">
-        <v>1.3248000000000001E-8</v>
-      </c>
-      <c r="H91" s="6">
-        <v>1.3200000000000001E-8</v>
+        <v>268</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F91" s="17">
+        <v>0.68</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="H91" s="17">
+        <v>0.95</v>
       </c>
       <c r="I91" t="s">
-        <v>132</v>
-      </c>
-      <c r="J91" s="6">
-        <v>1.3264000000000001E-8</v>
-      </c>
-      <c r="K91" s="6">
-        <v>1.3189E-8</v>
+        <v>207</v>
+      </c>
+      <c r="J91" s="17">
+        <v>0.99</v>
+      </c>
+      <c r="K91" s="6" t="s">
+        <v>207</v>
       </c>
       <c r="L91" t="s">
-        <v>132</v>
-      </c>
-      <c r="M91" s="6">
-        <v>1.3274E-8</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="M91" s="6"/>
     </row>
     <row r="92" spans="2:20">
-      <c r="B92" t="s">
-        <v>273</v>
-      </c>
-      <c r="C92" t="s">
-        <v>274</v>
-      </c>
-      <c r="D92" s="6">
-        <v>1.3270700000000001E-8</v>
-      </c>
-      <c r="E92" s="6">
-        <v>1.44027E-11</v>
-      </c>
-      <c r="F92" s="6">
-        <v>1.3256E-8</v>
-      </c>
-      <c r="G92" t="s">
-        <v>132</v>
-      </c>
-      <c r="H92" s="6">
-        <v>1.3285E-8</v>
-      </c>
-      <c r="I92" s="6">
-        <v>1.3242E-8</v>
-      </c>
-      <c r="J92" t="s">
-        <v>132</v>
-      </c>
-      <c r="K92" s="6">
-        <v>1.3299000000000001E-8</v>
-      </c>
-      <c r="L92" s="6">
-        <v>1.3233E-8</v>
-      </c>
-      <c r="M92" t="s">
-        <v>132</v>
-      </c>
-      <c r="N92" s="6">
-        <v>1.3309E-8</v>
-      </c>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6"/>
+      <c r="N92" s="6"/>
     </row>
     <row r="93" spans="2:20">
       <c r="B93" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C93" s="6">
-        <v>1.3234E-8</v>
+        <v>1.2790699999999999E-4</v>
       </c>
       <c r="D93" s="6">
-        <v>1.6105699999999999E-11</v>
+        <v>1.4299699999999999E-7</v>
       </c>
       <c r="E93" s="6">
-        <v>1.3218E-8</v>
+        <v>1.2776000000000001E-4</v>
       </c>
       <c r="F93" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G93" s="6">
-        <v>1.325E-8</v>
+        <v>1.2805E-4</v>
       </c>
       <c r="H93" s="6">
-        <v>1.3202E-8</v>
+        <v>1.2762E-4</v>
       </c>
       <c r="I93" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J93" s="6">
-        <v>1.3265999999999999E-8</v>
+        <v>1.2819E-4</v>
       </c>
       <c r="K93" s="6">
-        <v>1.3191E-8</v>
+        <v>1.2752999999999999E-4</v>
       </c>
       <c r="L93" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M93" s="6">
-        <v>1.3277E-8</v>
-      </c>
-      <c r="N93">
-        <v>0.99939999999999996</v>
+        <v>1.2828000000000001E-4</v>
       </c>
     </row>
     <row r="94" spans="2:20">
       <c r="B94" t="s">
-        <v>276</v>
-      </c>
-      <c r="C94" t="s">
-        <v>277</v>
+        <v>271</v>
+      </c>
+      <c r="C94" s="6">
+        <v>1.2806499999999999E-4</v>
       </c>
       <c r="D94" s="6">
-        <v>1.32885E-8</v>
+        <v>1.3620099999999999E-7</v>
       </c>
       <c r="E94" s="6">
-        <v>1.6159899999999999E-11</v>
-      </c>
-      <c r="F94" s="6">
-        <v>1.3272E-8</v>
-      </c>
-      <c r="G94" t="s">
-        <v>132</v>
+        <v>1.2793E-4</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G94" s="6">
+        <v>1.282E-4</v>
       </c>
       <c r="H94" s="6">
-        <v>1.3305000000000001E-8</v>
-      </c>
-      <c r="I94" s="6">
-        <v>1.3256E-8</v>
-      </c>
-      <c r="J94" t="s">
-        <v>132</v>
+        <v>1.2778999999999999E-4</v>
+      </c>
+      <c r="I94" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="J94" s="6">
+        <v>1.2834000000000001E-4</v>
       </c>
       <c r="K94" s="6">
-        <v>1.3321000000000001E-8</v>
-      </c>
-      <c r="L94" s="6">
-        <v>1.3246E-8</v>
-      </c>
-      <c r="M94" t="s">
-        <v>132</v>
-      </c>
-      <c r="N94" s="6">
-        <v>1.3331E-8</v>
-      </c>
-      <c r="O94">
-        <v>0.94840000000000002</v>
-      </c>
+        <v>1.2771000000000001E-4</v>
+      </c>
+      <c r="L94" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="M94" s="6">
+        <v>1.2842999999999999E-4</v>
+      </c>
+      <c r="N94" s="6"/>
     </row>
     <row r="95" spans="2:20">
       <c r="B95" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C95" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D95" s="6">
-        <v>1.32892E-8</v>
+        <v>1.2820999999999999E-4</v>
       </c>
       <c r="E95" s="6">
-        <v>1.6158100000000001E-11</v>
+        <v>8.7903399999999998E-8</v>
       </c>
       <c r="F95" s="6">
-        <v>1.3273000000000001E-8</v>
+        <v>1.2812000000000001E-4</v>
       </c>
       <c r="G95" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H95" s="6">
-        <v>1.3305000000000001E-8</v>
+        <v>1.283E-4</v>
       </c>
       <c r="I95" s="6">
-        <v>1.3256999999999999E-8</v>
+        <v>1.2804E-4</v>
       </c>
       <c r="J95" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K95" s="6">
-        <v>1.3321000000000001E-8</v>
+        <v>1.2839000000000001E-4</v>
       </c>
       <c r="L95" s="6">
-        <v>1.3246999999999999E-8</v>
+        <v>1.2798E-4</v>
       </c>
       <c r="M95" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N95" s="6">
-        <v>1.3332E-8</v>
-      </c>
-      <c r="O95">
-        <v>0.94740000000000002</v>
+        <v>1.2844000000000001E-4</v>
       </c>
     </row>
     <row r="96" spans="2:20">
       <c r="B96" t="s">
-        <v>279</v>
-      </c>
-      <c r="C96" t="s">
-        <v>277</v>
+        <v>274</v>
+      </c>
+      <c r="C96" s="6">
+        <v>1.28057E-4</v>
       </c>
       <c r="D96" s="6">
-        <v>1.32892E-8</v>
+        <v>1.4053700000000001E-7</v>
       </c>
       <c r="E96" s="6">
-        <v>1.6176500000000002E-11</v>
-      </c>
-      <c r="F96" s="6">
-        <v>1.3273000000000001E-8</v>
-      </c>
-      <c r="G96" t="s">
-        <v>132</v>
+        <v>1.2792000000000001E-4</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G96" s="6">
+        <v>1.282E-4</v>
       </c>
       <c r="H96" s="6">
-        <v>1.3305000000000001E-8</v>
-      </c>
-      <c r="I96" s="6">
-        <v>1.3256999999999999E-8</v>
-      </c>
-      <c r="J96" t="s">
-        <v>132</v>
+        <v>1.2778E-4</v>
+      </c>
+      <c r="I96" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="J96" s="6">
+        <v>1.2834000000000001E-4</v>
       </c>
       <c r="K96" s="6">
-        <v>1.3321000000000001E-8</v>
-      </c>
-      <c r="L96" s="6">
-        <v>1.3246E-8</v>
-      </c>
-      <c r="M96" t="s">
-        <v>132</v>
+        <v>1.2768999999999999E-4</v>
+      </c>
+      <c r="L96" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="M96" s="6">
+        <v>1.2842999999999999E-4</v>
       </c>
       <c r="N96" s="6">
-        <v>1.3332E-8</v>
+        <v>0.94679999999999997</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22">
+      <c r="B97" t="s">
+        <v>275</v>
+      </c>
+      <c r="C97" t="s">
+        <v>276</v>
+      </c>
+      <c r="D97" s="6">
+        <v>1.2827199999999999E-4</v>
+      </c>
+      <c r="E97" s="6">
+        <v>8.25665E-8</v>
+      </c>
+      <c r="F97" s="6">
+        <v>1.2819E-4</v>
+      </c>
+      <c r="G97" t="s">
+        <v>131</v>
+      </c>
+      <c r="H97" s="6">
+        <v>1.2835E-4</v>
+      </c>
+      <c r="I97" s="6">
+        <v>1.2810999999999999E-4</v>
+      </c>
+      <c r="J97" t="s">
+        <v>131</v>
+      </c>
+      <c r="K97" s="6">
+        <v>1.2844000000000001E-4</v>
+      </c>
+      <c r="L97" s="6">
+        <v>1.2805E-4</v>
+      </c>
+      <c r="M97" t="s">
+        <v>131</v>
+      </c>
+      <c r="N97" s="6">
+        <v>1.2849000000000001E-4</v>
+      </c>
+      <c r="O97">
+        <v>0.85360000000000003</v>
       </c>
     </row>
     <row r="98" spans="1:22">
       <c r="B98" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C98" t="s">
+        <v>276</v>
+      </c>
+      <c r="D98" s="6">
+        <v>1.2827100000000001E-4</v>
+      </c>
+      <c r="E98" s="6">
+        <v>8.8171800000000006E-8</v>
+      </c>
+      <c r="F98" s="6">
+        <v>1.2818000000000001E-4</v>
+      </c>
+      <c r="G98" t="s">
+        <v>131</v>
+      </c>
+      <c r="H98" s="6">
+        <v>1.2836E-4</v>
+      </c>
+      <c r="I98" s="6">
+        <v>1.281E-4</v>
+      </c>
+      <c r="J98" t="s">
+        <v>131</v>
+      </c>
+      <c r="K98" s="6">
+        <v>1.2845000000000001E-4</v>
+      </c>
+      <c r="L98" s="6">
+        <v>1.2804E-4</v>
+      </c>
+      <c r="M98" t="s">
+        <v>131</v>
+      </c>
+      <c r="N98" s="6">
+        <v>1.2850000000000001E-4</v>
+      </c>
+      <c r="O98">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22">
+      <c r="B99" t="s">
+        <v>278</v>
+      </c>
+      <c r="C99" t="s">
+        <v>276</v>
+      </c>
+      <c r="D99" s="6">
+        <v>1.2820900000000001E-4</v>
+      </c>
+      <c r="E99" s="6">
+        <v>8.22718E-8</v>
+      </c>
+      <c r="F99" s="6">
+        <v>1.2813000000000001E-4</v>
+      </c>
+      <c r="G99" t="s">
+        <v>131</v>
+      </c>
+      <c r="H99" s="6">
+        <v>1.2829000000000001E-4</v>
+      </c>
+      <c r="I99" s="6">
+        <v>1.2804E-4</v>
+      </c>
+      <c r="J99" t="s">
+        <v>131</v>
+      </c>
+      <c r="K99" s="6">
+        <v>1.2836999999999999E-4</v>
+      </c>
+      <c r="L99" s="6">
+        <v>1.2799E-4</v>
+      </c>
+      <c r="M99" t="s">
+        <v>131</v>
+      </c>
+      <c r="N99" s="6">
+        <v>1.2842999999999999E-4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22">
+      <c r="B101" t="s">
+        <v>271</v>
+      </c>
+      <c r="C101" t="s">
+        <v>291</v>
+      </c>
+      <c r="D101" t="s">
+        <v>137</v>
+      </c>
+      <c r="E101" t="s">
+        <v>227</v>
+      </c>
+      <c r="F101" t="s">
         <v>292</v>
       </c>
-      <c r="D98" t="s">
-        <v>138</v>
-      </c>
-      <c r="E98" t="s">
-        <v>228</v>
-      </c>
-      <c r="F98" t="s">
-        <v>293</v>
-      </c>
-      <c r="G98" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="100" spans="1:22">
-      <c r="B100" t="s">
-        <v>294</v>
-      </c>
-      <c r="C100" t="s">
-        <v>295</v>
-      </c>
-      <c r="D100" t="s">
-        <v>117</v>
-      </c>
-      <c r="E100" t="s">
-        <v>229</v>
+      <c r="G101" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="102" spans="1:22">
-      <c r="B102" t="s">
-        <v>88</v>
-      </c>
-      <c r="C102" s="6">
-        <v>0.62302800000000003</v>
-      </c>
-      <c r="D102" s="6">
-        <v>5.5873100000000002E-2</v>
-      </c>
-      <c r="E102" s="6">
-        <v>0.32109900000000002</v>
-      </c>
-      <c r="F102" s="6">
-        <v>1</v>
-      </c>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
     </row>
     <row r="103" spans="1:22">
       <c r="B103" t="s">
+        <v>293</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F103" s="6"/>
+    </row>
+    <row r="104" spans="1:22">
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+    </row>
+    <row r="105" spans="1:22">
+      <c r="B105" t="s">
+        <v>88</v>
+      </c>
+      <c r="C105" s="6">
+        <v>5.2771100000000001E-2</v>
+      </c>
+      <c r="D105" s="6">
+        <v>0.70811900000000005</v>
+      </c>
+      <c r="E105" s="6">
+        <v>0.23910999999999999</v>
+      </c>
+      <c r="F105" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22">
+      <c r="B106" t="s">
+        <v>295</v>
+      </c>
+      <c r="C106" s="6">
+        <v>2.4268100000000002E-3</v>
+      </c>
+      <c r="D106" s="6">
+        <v>1.80853E-4</v>
+      </c>
+      <c r="E106" s="6">
+        <v>5.3559199999999999E-4</v>
+      </c>
+      <c r="F106" s="6">
+        <v>1.2806499999999999E-4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22">
+      <c r="B107" t="s">
         <v>296</v>
       </c>
-      <c r="C103" s="6">
-        <v>2.1237700000000002E-8</v>
-      </c>
-      <c r="D103" s="6">
-        <v>2.3681599999999999E-7</v>
-      </c>
-      <c r="E103" s="6">
-        <v>4.1207400000000001E-8</v>
-      </c>
-      <c r="F103" s="6">
-        <v>1.3231699999999999E-8</v>
-      </c>
-    </row>
-    <row r="104" spans="1:22">
-      <c r="B104" t="s">
+      <c r="C107" s="6">
+        <v>2.4295300000000001E-3</v>
+      </c>
+      <c r="D107" s="6">
+        <v>1.81056E-4</v>
+      </c>
+      <c r="E107" s="6">
+        <v>5.3619200000000001E-4</v>
+      </c>
+      <c r="F107" s="6">
+        <v>1.2820900000000001E-4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22">
+      <c r="A109" t="s">
         <v>297</v>
       </c>
-      <c r="C104" s="6">
-        <v>2.133E-8</v>
-      </c>
-      <c r="D104" s="6">
-        <v>2.37846E-7</v>
-      </c>
-      <c r="E104" s="6">
-        <v>4.1386499999999998E-8</v>
-      </c>
-      <c r="F104" s="6">
-        <v>1.32892E-8</v>
-      </c>
-    </row>
-    <row r="106" spans="1:22">
-      <c r="A106" t="s">
+      <c r="B109" t="s">
+        <v>194</v>
+      </c>
+      <c r="C109" t="s">
+        <v>134</v>
+      </c>
+      <c r="D109" t="s">
+        <v>216</v>
+      </c>
+      <c r="E109" t="s">
+        <v>217</v>
+      </c>
+      <c r="F109" t="s">
+        <v>109</v>
+      </c>
+      <c r="G109" t="s">
+        <v>110</v>
+      </c>
+      <c r="H109" t="s">
+        <v>165</v>
+      </c>
+      <c r="I109">
+        <v>10</v>
+      </c>
+      <c r="J109" t="s">
         <v>298</v>
       </c>
-      <c r="B106" t="s">
-        <v>195</v>
-      </c>
-      <c r="C106" t="s">
-        <v>135</v>
-      </c>
-      <c r="D106" t="s">
-        <v>217</v>
-      </c>
-      <c r="E106" t="s">
-        <v>218</v>
-      </c>
-      <c r="F106" t="s">
-        <v>110</v>
-      </c>
-      <c r="G106" t="s">
-        <v>111</v>
-      </c>
-      <c r="H106" t="s">
-        <v>166</v>
-      </c>
-      <c r="I106">
-        <v>10</v>
-      </c>
-      <c r="J106" t="s">
+      <c r="K109" t="s">
         <v>299</v>
       </c>
-      <c r="K106" t="s">
+      <c r="L109" t="s">
         <v>300</v>
       </c>
-      <c r="L106" t="s">
+      <c r="S109" s="17"/>
+      <c r="U109" s="17"/>
+    </row>
+    <row r="111" spans="1:22">
+      <c r="B111" t="s">
+        <v>133</v>
+      </c>
+      <c r="C111" t="s">
+        <v>141</v>
+      </c>
+      <c r="D111" t="s">
+        <v>152</v>
+      </c>
+      <c r="E111" t="s">
+        <v>137</v>
+      </c>
+      <c r="F111" t="s">
+        <v>179</v>
+      </c>
+      <c r="G111" t="s">
+        <v>109</v>
+      </c>
+      <c r="H111" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="108" spans="1:22">
-      <c r="B108" t="s">
+      <c r="I111" t="s">
         <v>134</v>
       </c>
-      <c r="C108" t="s">
-        <v>142</v>
-      </c>
-      <c r="D108" t="s">
-        <v>153</v>
-      </c>
-      <c r="E108" t="s">
-        <v>138</v>
-      </c>
-      <c r="F108" t="s">
-        <v>180</v>
-      </c>
-      <c r="G108" t="s">
-        <v>110</v>
-      </c>
-      <c r="H108" t="s">
+      <c r="J111" t="s">
         <v>302</v>
       </c>
-      <c r="I108" t="s">
-        <v>135</v>
-      </c>
-      <c r="J108" t="s">
+      <c r="K111" t="s">
+        <v>192</v>
+      </c>
+      <c r="L111" t="s">
+        <v>179</v>
+      </c>
+      <c r="M111" t="s">
         <v>303</v>
       </c>
-      <c r="K108" t="s">
-        <v>193</v>
-      </c>
-      <c r="L108" t="s">
-        <v>180</v>
-      </c>
-      <c r="M108" t="s">
+      <c r="N111" t="s">
+        <v>303</v>
+      </c>
+      <c r="O111" t="s">
+        <v>207</v>
+      </c>
+      <c r="P111" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22">
+      <c r="B112" t="s">
+        <v>109</v>
+      </c>
+      <c r="C112" t="s">
+        <v>299</v>
+      </c>
+      <c r="D112" t="s">
         <v>304</v>
       </c>
-      <c r="N108" t="s">
-        <v>304</v>
-      </c>
-      <c r="O108" t="s">
-        <v>208</v>
-      </c>
-      <c r="P108" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="109" spans="1:22">
-      <c r="B109" t="s">
-        <v>110</v>
-      </c>
-      <c r="C109" t="s">
-        <v>300</v>
-      </c>
-      <c r="D109" t="s">
+      <c r="E112" t="s">
         <v>305</v>
       </c>
-      <c r="E109" t="s">
+      <c r="F112" t="s">
         <v>306</v>
       </c>
-      <c r="F109" t="s">
+      <c r="G112" t="s">
         <v>307</v>
       </c>
-      <c r="G109" t="s">
+      <c r="H112" t="s">
         <v>308</v>
       </c>
-      <c r="H109" t="s">
+      <c r="I112" t="s">
         <v>309</v>
       </c>
-      <c r="I109" t="s">
+      <c r="J112" t="s">
+        <v>307</v>
+      </c>
+      <c r="K112" t="s">
+        <v>308</v>
+      </c>
+      <c r="L112" t="s">
         <v>310</v>
       </c>
-      <c r="J109" t="s">
+      <c r="M112" t="s">
+        <v>307</v>
+      </c>
+      <c r="N112" t="s">
         <v>308</v>
       </c>
-      <c r="K109" t="s">
-        <v>309</v>
-      </c>
-      <c r="L109" t="s">
+      <c r="O112" t="s">
         <v>311</v>
       </c>
-      <c r="M109" t="s">
+      <c r="P112" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>307</v>
+      </c>
+      <c r="R112" t="s">
         <v>308</v>
       </c>
-      <c r="N109" t="s">
-        <v>309</v>
-      </c>
-      <c r="O109" t="s">
-        <v>312</v>
-      </c>
-      <c r="P109" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q109" t="s">
-        <v>308</v>
-      </c>
-      <c r="R109" t="s">
-        <v>309</v>
-      </c>
-      <c r="S109" s="17">
+      <c r="S112" s="17">
         <v>0.95</v>
       </c>
-      <c r="T109" t="s">
-        <v>208</v>
-      </c>
-      <c r="U109" s="17">
+      <c r="T112" t="s">
+        <v>207</v>
+      </c>
+      <c r="U112" s="17">
         <v>0.99</v>
       </c>
-      <c r="V109" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="111" spans="1:22">
-      <c r="B111">
-        <v>1</v>
-      </c>
-      <c r="C111">
-        <v>200</v>
-      </c>
-      <c r="D111" t="s">
-        <v>214</v>
-      </c>
-      <c r="E111">
-        <v>0.98640000000000005</v>
-      </c>
-      <c r="F111">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="G111">
-        <v>0.98629999999999995</v>
-      </c>
-      <c r="H111">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="I111">
-        <v>0.98670000000000002</v>
-      </c>
-      <c r="J111">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="K111" t="s">
-        <v>313</v>
-      </c>
-      <c r="L111">
-        <v>0.98660000000000003</v>
-      </c>
-      <c r="M111">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="N111" t="s">
-        <v>329</v>
-      </c>
-      <c r="O111" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="112" spans="1:22">
-      <c r="B112">
-        <v>2</v>
-      </c>
-      <c r="C112">
-        <v>100</v>
-      </c>
-      <c r="D112" t="s">
-        <v>214</v>
-      </c>
-      <c r="E112">
-        <v>0.98640000000000005</v>
-      </c>
-      <c r="F112">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="G112">
-        <v>0.98629999999999995</v>
-      </c>
-      <c r="H112">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="I112">
-        <v>0.98670000000000002</v>
-      </c>
-      <c r="J112">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="K112" t="s">
-        <v>313</v>
-      </c>
-      <c r="L112">
-        <v>0.98660999999999999</v>
-      </c>
-      <c r="M112">
-        <v>7.3999999999999999E-4</v>
-      </c>
-      <c r="N112" t="s">
-        <v>331</v>
-      </c>
-      <c r="O112" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="113" spans="2:15">
-      <c r="B113">
-        <v>4</v>
-      </c>
-      <c r="C113">
-        <v>50</v>
-      </c>
-      <c r="D113" t="s">
-        <v>214</v>
-      </c>
-      <c r="E113">
-        <v>0.98640000000000005</v>
-      </c>
-      <c r="F113">
-        <v>1E-3</v>
-      </c>
-      <c r="G113">
-        <v>0.98629999999999995</v>
-      </c>
-      <c r="H113">
-        <v>1E-3</v>
-      </c>
-      <c r="I113">
-        <v>0.98670000000000002</v>
-      </c>
-      <c r="J113">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="K113" t="s">
-        <v>313</v>
-      </c>
-      <c r="L113">
-        <v>0.98668999999999996</v>
-      </c>
-      <c r="M113">
-        <v>7.6999999999999996E-4</v>
-      </c>
-      <c r="N113" t="s">
-        <v>333</v>
-      </c>
-      <c r="O113" t="s">
-        <v>334</v>
+      <c r="V112" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="114" spans="2:15">
       <c r="B114">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C114">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="D114" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E114">
-        <v>0.98640000000000005</v>
+        <v>0.58409999999999995</v>
       </c>
       <c r="F114">
-        <v>1E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="G114">
-        <v>0.98629999999999995</v>
+        <v>0.58320000000000005</v>
       </c>
       <c r="H114">
-        <v>1E-3</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="I114">
-        <v>0.98670000000000002</v>
+        <v>0.58420000000000005</v>
       </c>
       <c r="J114">
-        <v>6.9999999999999999E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="K114" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L114">
-        <v>0.98677000000000004</v>
+        <v>0.58357000000000003</v>
       </c>
       <c r="M114">
-        <v>7.3999999999999999E-4</v>
+        <v>6.2E-4</v>
       </c>
       <c r="N114" t="s">
-        <v>335</v>
+        <v>432</v>
       </c>
       <c r="O114" t="s">
-        <v>336</v>
+        <v>433</v>
       </c>
     </row>
     <row r="115" spans="2:15">
       <c r="B115">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C115">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D115" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E115">
-        <v>0.98640000000000005</v>
+        <v>0.58409999999999995</v>
       </c>
       <c r="F115">
-        <v>1.1000000000000001E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="G115">
-        <v>0.98629999999999995</v>
+        <v>0.58320000000000005</v>
       </c>
       <c r="H115">
-        <v>1.1000000000000001E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="I115">
-        <v>0.98670000000000002</v>
+        <v>0.58420000000000005</v>
       </c>
       <c r="J115">
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="K115" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L115">
-        <v>0.98660000000000003</v>
+        <v>0.58359000000000005</v>
       </c>
       <c r="M115">
-        <v>8.5999999999999998E-4</v>
+        <v>6.7000000000000002E-4</v>
       </c>
       <c r="N115" t="s">
-        <v>337</v>
+        <v>434</v>
       </c>
       <c r="O115" t="s">
-        <v>338</v>
+        <v>435</v>
       </c>
     </row>
     <row r="116" spans="2:15">
       <c r="B116">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C116">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D116" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E116">
-        <v>0.98640000000000005</v>
+        <v>0.58409999999999995</v>
       </c>
       <c r="F116">
-        <v>1.1000000000000001E-3</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="G116">
-        <v>0.98629999999999995</v>
+        <v>0.58320000000000005</v>
       </c>
       <c r="H116">
-        <v>1.1000000000000001E-3</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="I116">
-        <v>0.98670000000000002</v>
+        <v>0.58420000000000005</v>
       </c>
       <c r="J116">
-        <v>8.0000000000000004E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="K116" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L116">
-        <v>0.98655999999999999</v>
+        <v>0.58357000000000003</v>
       </c>
       <c r="M116">
-        <v>8.5999999999999998E-4</v>
+        <v>5.1999999999999995E-4</v>
       </c>
       <c r="N116" t="s">
-        <v>339</v>
+        <v>436</v>
       </c>
       <c r="O116" t="s">
-        <v>340</v>
+        <v>437</v>
       </c>
     </row>
     <row r="117" spans="2:15">
       <c r="B117">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C117">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D117" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E117">
-        <v>0.98640000000000005</v>
+        <v>0.58409999999999995</v>
       </c>
       <c r="F117">
-        <v>1E-3</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="G117">
-        <v>0.98629999999999995</v>
+        <v>0.58320000000000005</v>
       </c>
       <c r="H117">
-        <v>1E-3</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="I117">
-        <v>0.98670000000000002</v>
+        <v>0.58420000000000005</v>
       </c>
       <c r="J117">
-        <v>1E-3</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="K117" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L117">
-        <v>0.98631999999999997</v>
+        <v>0.58360999999999996</v>
       </c>
       <c r="M117">
-        <v>1.1000000000000001E-3</v>
+        <v>5.6999999999999998E-4</v>
       </c>
       <c r="N117" t="s">
-        <v>341</v>
+        <v>438</v>
       </c>
       <c r="O117" t="s">
-        <v>342</v>
+        <v>439</v>
       </c>
     </row>
     <row r="118" spans="2:15">
       <c r="B118">
+        <v>8</v>
+      </c>
+      <c r="C118">
         <v>25</v>
       </c>
-      <c r="C118">
-        <v>8</v>
-      </c>
       <c r="D118" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E118">
-        <v>0.98640000000000005</v>
+        <v>0.58409999999999995</v>
       </c>
       <c r="F118">
-        <v>1.1000000000000001E-3</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="G118">
-        <v>0.98629999999999995</v>
+        <v>0.58320000000000005</v>
       </c>
       <c r="H118">
-        <v>1.1000000000000001E-3</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="I118">
-        <v>0.98670000000000002</v>
+        <v>0.58420000000000005</v>
       </c>
       <c r="J118">
-        <v>1E-3</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="K118" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L118">
-        <v>0.98628000000000005</v>
+        <v>0.58364000000000005</v>
       </c>
       <c r="M118">
-        <v>1.1999999999999999E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="N118" t="s">
-        <v>343</v>
+        <v>440</v>
       </c>
       <c r="O118" t="s">
-        <v>344</v>
+        <v>441</v>
       </c>
     </row>
     <row r="119" spans="2:15">
       <c r="B119">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C119">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D119" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E119">
-        <v>0.98640000000000005</v>
+        <v>0.58409999999999995</v>
       </c>
       <c r="F119">
-        <v>5.0000000000000001E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="G119">
-        <v>0.98629999999999995</v>
+        <v>0.58320000000000005</v>
       </c>
       <c r="H119">
-        <v>5.0000000000000001E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="I119">
-        <v>0.98670000000000002</v>
+        <v>0.58420000000000005</v>
       </c>
       <c r="J119">
-        <v>8.9999999999999998E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="K119" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L119">
-        <v>0.98638000000000003</v>
+        <v>0.58374000000000004</v>
       </c>
       <c r="M119">
-        <v>6.7000000000000002E-4</v>
+        <v>5.5000000000000003E-4</v>
       </c>
       <c r="N119" t="s">
-        <v>345</v>
+        <v>442</v>
       </c>
       <c r="O119" t="s">
-        <v>346</v>
+        <v>443</v>
       </c>
     </row>
     <row r="120" spans="2:15">
       <c r="B120">
+        <v>20</v>
+      </c>
+      <c r="C120">
+        <v>10</v>
+      </c>
+      <c r="D120" t="s">
+        <v>213</v>
+      </c>
+      <c r="E120">
+        <v>0.58409999999999995</v>
+      </c>
+      <c r="F120">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="G120">
+        <v>0.58320000000000005</v>
+      </c>
+      <c r="H120">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="I120">
+        <v>0.58420000000000005</v>
+      </c>
+      <c r="J120">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="K120" t="s">
+        <v>312</v>
+      </c>
+      <c r="L120">
+        <v>0.58374000000000004</v>
+      </c>
+      <c r="M120">
+        <v>6.2E-4</v>
+      </c>
+      <c r="N120" t="s">
+        <v>444</v>
+      </c>
+      <c r="O120" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="121" spans="2:15">
+      <c r="B121">
+        <v>25</v>
+      </c>
+      <c r="C121">
+        <v>8</v>
+      </c>
+      <c r="D121" t="s">
+        <v>213</v>
+      </c>
+      <c r="E121">
+        <v>0.58409999999999995</v>
+      </c>
+      <c r="F121">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="G121">
+        <v>0.58320000000000005</v>
+      </c>
+      <c r="H121">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="I121">
+        <v>0.58420000000000005</v>
+      </c>
+      <c r="J121">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="K121" t="s">
+        <v>312</v>
+      </c>
+      <c r="L121">
+        <v>0.58348</v>
+      </c>
+      <c r="M121">
+        <v>8.4000000000000003E-4</v>
+      </c>
+      <c r="N121" t="s">
+        <v>446</v>
+      </c>
+      <c r="O121" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="122" spans="2:15">
+      <c r="B122">
+        <v>40</v>
+      </c>
+      <c r="C122">
+        <v>5</v>
+      </c>
+      <c r="D122" t="s">
+        <v>213</v>
+      </c>
+      <c r="E122">
+        <v>0.58409999999999995</v>
+      </c>
+      <c r="F122">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="G122">
+        <v>0.58320000000000005</v>
+      </c>
+      <c r="H122">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="I122">
+        <v>0.58420000000000005</v>
+      </c>
+      <c r="J122">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="K122" t="s">
+        <v>312</v>
+      </c>
+      <c r="L122">
+        <v>0.58384000000000003</v>
+      </c>
+      <c r="M122">
+        <v>8.3000000000000001E-4</v>
+      </c>
+      <c r="N122" t="s">
+        <v>448</v>
+      </c>
+      <c r="O122" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="123" spans="2:15">
+      <c r="B123">
         <v>50</v>
       </c>
-      <c r="C120">
+      <c r="C123">
         <v>4</v>
       </c>
-      <c r="D120" t="s">
-        <v>214</v>
-      </c>
-      <c r="E120">
-        <v>0.98640000000000005</v>
-      </c>
-      <c r="F120">
-        <v>1E-3</v>
-      </c>
-      <c r="G120">
-        <v>0.98629999999999995</v>
-      </c>
-      <c r="H120">
-        <v>1E-3</v>
-      </c>
-      <c r="I120">
-        <v>0.98670000000000002</v>
-      </c>
-      <c r="J120">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="K120" t="s">
-        <v>313</v>
-      </c>
-      <c r="L120">
-        <v>0.98946999999999996</v>
-      </c>
-      <c r="M120">
-        <v>1.3600000000000001E-3</v>
-      </c>
-      <c r="N120" t="s">
-        <v>347</v>
-      </c>
-      <c r="O120" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="121" spans="2:15">
-      <c r="B121" t="s">
+      <c r="D123" t="s">
         <v>213</v>
+      </c>
+      <c r="E123">
+        <v>0.58409999999999995</v>
+      </c>
+      <c r="F123">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="G123">
+        <v>0.58320000000000005</v>
+      </c>
+      <c r="H123">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I123">
+        <v>0.58420000000000005</v>
+      </c>
+      <c r="J123">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K123" t="s">
+        <v>312</v>
+      </c>
+      <c r="L123">
+        <v>0.58357000000000003</v>
+      </c>
+      <c r="M123">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="N123" t="s">
+        <v>450</v>
+      </c>
+      <c r="O123" t="s">
+        <v>451</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" location="Index!A1" display="Index"/>
+    <hyperlink ref="D2" location="Output!J46" display="Output!J46"/>
+    <hyperlink ref="E2" location="Output!Q46" display="Output!Q46"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6341,18 +6527,18 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>384</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>385</v>
+        <v>356</v>
       </c>
       <c r="B4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C4" t="s">
-        <v>386</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -6365,89 +6551,132 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="25.7890625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.68359375" customWidth="1"/>
     <col min="5" max="5" width="11.89453125" customWidth="1"/>
     <col min="6" max="6" width="10.3671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="2" spans="1:7">
+      <c r="C2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="C3" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="C4" t="s">
+        <v>413</v>
+      </c>
+      <c r="D4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E4" t="s">
+        <v>410</v>
+      </c>
+      <c r="F4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="C5" t="s">
+        <v>412</v>
+      </c>
+      <c r="D5" s="30" t="str">
+        <f>C4&amp;" "&amp;"name="&amp;D4&amp;E4&amp;" "&amp;"tasks"&amp;" "&amp;F4</f>
+        <v>mcnp6 name=Ex4-3.i tasks 19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="B12" s="6"/>
       <c r="C12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D12" t="s">
+        <v>261</v>
+      </c>
+      <c r="E12" t="s">
         <v>262</v>
       </c>
-      <c r="E12" t="s">
-        <v>263</v>
-      </c>
       <c r="F12" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="B13" s="6"/>
       <c r="C13" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="D13" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="E13" s="21">
         <v>1.176E-3</v>
       </c>
       <c r="F13" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="B14" s="6"/>
       <c r="D14" t="s">
-        <v>368</v>
+        <v>339</v>
       </c>
       <c r="E14" s="21">
         <v>8.2051000000000004E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="B15" s="6"/>
       <c r="D15" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="E15" s="22">
         <v>3.3620999999999998E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="D16" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
       <c r="E16" s="22">
         <v>6.2210000000000001E-2</v>
@@ -6456,7 +6685,7 @@
     <row r="17" spans="2:6">
       <c r="B17" s="6"/>
       <c r="D17" t="s">
-        <v>371</v>
+        <v>342</v>
       </c>
       <c r="E17" s="22">
         <v>2.5160999999999998E-3</v>
@@ -6464,7 +6693,7 @@
     </row>
     <row r="18" spans="2:6">
       <c r="D18" t="s">
-        <v>372</v>
+        <v>343</v>
       </c>
       <c r="E18" s="21">
         <v>9.9604999999999999E-2</v>
@@ -6472,32 +6701,32 @@
     </row>
     <row r="19" spans="2:6">
       <c r="D19" t="s">
-        <v>373</v>
+        <v>344</v>
       </c>
       <c r="E19" s="21">
         <v>2.7</v>
       </c>
       <c r="F19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="C20" t="s">
-        <v>374</v>
+        <v>345</v>
       </c>
       <c r="D20" t="s">
-        <v>378</v>
+        <v>349</v>
       </c>
       <c r="E20" s="20">
         <v>70.2</v>
       </c>
       <c r="F20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="C21" t="s">
-        <v>375</v>
+        <v>346</v>
       </c>
       <c r="D21" t="s">
         <v>47</v>
@@ -6506,49 +6735,49 @@
         <v>12.7</v>
       </c>
       <c r="F21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="2:6">
       <c r="C22" t="s">
-        <v>376</v>
+        <v>347</v>
       </c>
       <c r="D22" t="s">
-        <v>377</v>
+        <v>348</v>
       </c>
       <c r="E22" s="20">
         <v>80</v>
       </c>
       <c r="F22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="2:6">
       <c r="C23" t="s">
-        <v>379</v>
+        <v>350</v>
       </c>
       <c r="D23" t="s">
-        <v>380</v>
+        <v>351</v>
       </c>
       <c r="E23" s="20">
         <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="2:6">
       <c r="C24" t="s">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="D24" t="s">
-        <v>382</v>
+        <v>353</v>
       </c>
       <c r="E24" s="20">
         <v>0.15</v>
       </c>
       <c r="F24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -6562,7 +6791,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:H31"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6614,7 +6843,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C17" s="27" t="s">
         <v>13</v>
@@ -6637,10 +6866,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
@@ -6657,10 +6886,10 @@
         <v>1</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>392</v>
+        <v>363</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
@@ -6679,10 +6908,10 @@
         <v>2</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>387</v>
+        <v>358</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
@@ -6700,15 +6929,15 @@
         <v>3</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>393</v>
+        <v>364</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18" t="s">
-        <v>388</v>
+        <v>359</v>
       </c>
       <c r="G21" s="18"/>
       <c r="H21" s="16" t="str">
@@ -6721,13 +6950,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>389</v>
+        <v>360</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>399</v>
+        <v>370</v>
       </c>
       <c r="H22" s="16" t="str">
         <f t="shared" ref="H22:H39" si="0">A22&amp;" "&amp;C22&amp;" "&amp;D22&amp;" "&amp;E22&amp;" "&amp;F22&amp;" "&amp;G22&amp;" "&amp;B22</f>
@@ -6739,13 +6968,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>391</v>
+        <v>362</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>390</v>
+        <v>361</v>
       </c>
       <c r="H23" s="16" t="str">
         <f t="shared" si="0"/>
@@ -6754,10 +6983,10 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>396</v>
+        <v>367</v>
       </c>
       <c r="C24" s="18"/>
       <c r="H24" s="16" t="str">
@@ -6770,13 +6999,13 @@
         <v>6</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>395</v>
+        <v>366</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="H25" s="16" t="str">
         <f>A25&amp;" "&amp;C25&amp;" "&amp;D25&amp;" "&amp;E25&amp;" "&amp;F25&amp;" "&amp;G25&amp;" "&amp;B25</f>
@@ -6788,13 +7017,13 @@
         <v>7</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>397</v>
+        <v>368</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>398</v>
+        <v>369</v>
       </c>
       <c r="H26" s="16" t="str">
         <f t="shared" si="0"/>
@@ -6803,10 +7032,10 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="16" t="s">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>401</v>
+        <v>372</v>
       </c>
       <c r="H27" s="16" t="str">
         <f t="shared" si="0"/>
@@ -6818,13 +7047,13 @@
         <v>8</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>404</v>
+        <v>375</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>402</v>
+        <v>373</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>403</v>
+        <v>374</v>
       </c>
       <c r="H28" s="16" t="str">
         <f t="shared" si="0"/>
@@ -6836,13 +7065,13 @@
         <v>9</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>404</v>
+        <v>375</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>402</v>
+        <v>373</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="H29" s="16" t="str">
         <f t="shared" si="0"/>
@@ -6854,13 +7083,13 @@
         <v>10</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>404</v>
+        <v>375</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>406</v>
+        <v>377</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>407</v>
+        <v>378</v>
       </c>
       <c r="H30" s="16" t="str">
         <f t="shared" si="0"/>
@@ -6872,13 +7101,13 @@
         <v>11</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>404</v>
+        <v>375</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>406</v>
+        <v>377</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>408</v>
+        <v>379</v>
       </c>
       <c r="H31" s="16" t="str">
         <f t="shared" si="0"/>
@@ -6948,8 +7177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="H26" sqref="H20:H26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6972,7 +7201,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -7000,10 +7229,10 @@
         <v>49</v>
       </c>
       <c r="G19" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -7011,7 +7240,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>409</v>
+        <v>380</v>
       </c>
       <c r="C20" s="10">
         <v>1</v>
@@ -7021,13 +7250,13 @@
         <v>9.9604999999999999E-2</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H20" t="str">
         <f>A20&amp;" "&amp;C20&amp;" "&amp;D20&amp;" "&amp;E20&amp;" "&amp;F20&amp;" "&amp;G20&amp;" "&amp;B20</f>
@@ -7039,19 +7268,19 @@
         <v>2</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>413</v>
+        <v>384</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>390</v>
+        <v>361</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" ref="H21:H26" si="0">A21&amp;" "&amp;C21&amp;" "&amp;D21&amp;" "&amp;E21&amp;" "&amp;F21&amp;" "&amp;G21&amp;" "&amp;B21</f>
@@ -7063,22 +7292,22 @@
         <v>3</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>416</v>
+        <v>387</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>415</v>
+        <v>386</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>417</v>
+        <v>388</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>418</v>
+        <v>389</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
@@ -7090,16 +7319,16 @@
         <v>4</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>390</v>
+        <v>361</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>420</v>
+        <v>391</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>421</v>
+        <v>392</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
@@ -7111,10 +7340,10 @@
         <v>5</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>419</v>
+        <v>390</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="0"/>
@@ -7126,16 +7355,16 @@
         <v>6</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>422</v>
+        <v>393</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>423</v>
+        <v>394</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>424</v>
+        <v>395</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="0"/>
@@ -7144,20 +7373,23 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26">
-        <v>7</v>
+        <v>999</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>414</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>390</v>
+        <v>361</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>425</v>
+        <v>396</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">7 0  -10:11:-8:9:-7:3  imp:n=0 </v>
+        <v>999 0  -10:11:-8:9:-7:3  imp:n=0 $ void universe</v>
       </c>
     </row>
   </sheetData>
@@ -7233,7 +7465,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7339,7 +7571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
@@ -7444,7 +7676,7 @@
         <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>410</v>
+        <v>381</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -7483,8 +7715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:E15"/>
+    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7519,7 +7751,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -7530,7 +7762,7 @@
         <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>88</v>
@@ -7614,10 +7846,10 @@
         <v>90</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>431</v>
+        <v>402</v>
       </c>
       <c r="C17" t="s">
-        <v>433</v>
+        <v>404</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -7631,19 +7863,19 @@
         <v>92</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="G18" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -7651,16 +7883,16 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
       <c r="E19" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="F19" t="str">
         <f>C19&amp;D19&amp;$F$17</f>
@@ -7679,16 +7911,16 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>356</v>
+        <v>327</v>
       </c>
       <c r="C20">
         <v>8</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
       <c r="E20" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="F20" t="str">
         <f>C20&amp;D20&amp;$F$17</f>
@@ -7707,16 +7939,16 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
       <c r="C21">
         <v>9</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>359</v>
+        <v>330</v>
       </c>
       <c r="E21" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="F21" t="str">
         <f>C21&amp;D21&amp;$F$17</f>
@@ -7735,16 +7967,16 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C22">
         <v>92</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" ref="F22:F23" si="2">C22&amp;D22&amp;$F$17</f>
@@ -7763,16 +7995,16 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C23">
         <v>92</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="2"/>
@@ -7792,13 +8024,13 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>431</v>
+        <v>402</v>
       </c>
       <c r="C25" t="s">
-        <v>432</v>
+        <v>403</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -7812,19 +8044,19 @@
         <v>92</v>
       </c>
       <c r="D26" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="G26" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -7832,16 +8064,16 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="C27">
         <v>13</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>364</v>
+        <v>335</v>
       </c>
       <c r="E27" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="F27" t="str">
         <f>C27&amp;D27&amp;$F$17</f>
@@ -7857,13 +8089,13 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>431</v>
+        <v>402</v>
       </c>
       <c r="C29" t="s">
-        <v>362</v>
+        <v>333</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -7877,19 +8109,19 @@
         <v>92</v>
       </c>
       <c r="D30" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="G30" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -7897,11 +8129,11 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
       <c r="F31" t="str">
         <f>C31&amp;D31&amp;$F$17</f>
@@ -7909,7 +8141,7 @@
       </c>
       <c r="G31" s="7"/>
       <c r="H31" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -7918,13 +8150,13 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>427</v>
+        <v>398</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>429</v>
+        <v>400</v>
       </c>
       <c r="C33" t="s">
-        <v>430</v>
+        <v>401</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -7938,19 +8170,19 @@
         <v>92</v>
       </c>
       <c r="D34" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="G34" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -7958,16 +8190,16 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
       <c r="E35" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="F35" t="str">
         <f>C35&amp;D35&amp;$F$17</f>
@@ -7986,16 +8218,16 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>356</v>
+        <v>327</v>
       </c>
       <c r="C36">
         <v>8</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
       <c r="E36" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="F36" t="str">
         <f>C36&amp;D36&amp;$F$17</f>
@@ -8015,13 +8247,13 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>428</v>
+        <v>399</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>429</v>
+        <v>400</v>
       </c>
       <c r="C38" t="s">
-        <v>362</v>
+        <v>333</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -8035,19 +8267,19 @@
         <v>92</v>
       </c>
       <c r="D39" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="G39" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -8055,11 +8287,11 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
       <c r="F40" t="str">
         <f>C40&amp;D40&amp;$F$17</f>
@@ -8067,7 +8299,7 @@
       </c>
       <c r="G40" s="7"/>
       <c r="H40" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -8076,7 +8308,7 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
